--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_166.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_166.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32848-d223965-Reviews-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>140</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Lancaster-Hotels-Courtyard-Palmdale.h551741.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_166.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_166.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="677">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1931 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r585861727-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>32848</t>
+  </si>
+  <si>
+    <t>223965</t>
+  </si>
+  <si>
+    <t>585861727</t>
+  </si>
+  <si>
+    <t>06/07/2018</t>
+  </si>
+  <si>
+    <t>Good location and service but hotel needs a refreshing</t>
+  </si>
+  <si>
+    <t>The service and the location is great. But the rooms and halls need a much needed refresh... the elevator even more. I will most probably go back next time around. It is close to the Antelope Valley Mall and restaurants, Palmdale Airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Randy M, General Manager at Courtyard Palmdale, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>The service and the location is great. But the rooms and halls need a much needed refresh... the elevator even more. I will most probably go back next time around. It is close to the Antelope Valley Mall and restaurants, Palmdale Airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r582082866-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>582082866</t>
+  </si>
+  <si>
+    <t>05/22/2018</t>
+  </si>
+  <si>
+    <t>Clean and comfy</t>
+  </si>
+  <si>
+    <t>While we were not in the area for long the room proved to be just what we needed for a good night sleep.  The room was updated with a clean bathroom.  The carpet was newer and the heat/AC was relatively quiet.  Much better than many hotels.  I just wish that Courtyards would offer free breakfast like the Fairfield Inns!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>While we were not in the area for long the room proved to be just what we needed for a good night sleep.  The room was updated with a clean bathroom.  The carpet was newer and the heat/AC was relatively quiet.  Much better than many hotels.  I just wish that Courtyards would offer free breakfast like the Fairfield Inns!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r580934204-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>580934204</t>
+  </si>
+  <si>
+    <t>05/17/2018</t>
+  </si>
+  <si>
+    <t>Great customer service and my go to Marriott when in Palmdale</t>
+  </si>
+  <si>
+    <t>Came here for work and had a great experience at the hotel. The staff was very friendly and courteous. Rooms were clean and parking was plentiful. The hotel also had security patrolling around at night to watch over the cars. When coming back for work I will definitely book my room at this Marriott. :)MoreShow less</t>
+  </si>
+  <si>
+    <t>Came here for work and had a great experience at the hotel. The staff was very friendly and courteous. Rooms were clean and parking was plentiful. The hotel also had security patrolling around at night to watch over the cars. When coming back for work I will definitely book my room at this Marriott. :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r580495728-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>580495728</t>
+  </si>
+  <si>
+    <t>05/15/2018</t>
+  </si>
+  <si>
+    <t>Mini getaway</t>
+  </si>
+  <si>
+    <t>My girlfriend and I stayed at Courtyard Palmdale and it was a comforting experience , everything was clean. We enjoyed the later than usual check out of 12pm. Great spot, would recommend it! Many places around to eat and enjoy.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>My girlfriend and I stayed at Courtyard Palmdale and it was a comforting experience , everything was clean. We enjoyed the later than usual check out of 12pm. Great spot, would recommend it! Many places around to eat and enjoy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r580448671-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>580448671</t>
+  </si>
+  <si>
+    <t>The best for Customer Service!!!</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel twice and I would have had logged a third week visit had they not been sold out the week I was returning. My rooms are always clean and quiet. The Customer Service is the winner here. They make you feel so welcome and always smiling and offering a helping hand. Especially the Chef Robin and her team. They run like a well oiled machine in the morning. Meals come out fast and hot and done right. Chef Robin does my breakfast just like I like it on the daily with one look out the door when my order comes in from her she knows what I want and delivers time and time again. The Receptionist are all were super nice and very accommodating. After a long day of work and walking in at night they are more than welcoming asking if I need anything before retiring to my room. They make me feel so special here. I know I'm not the only one but they make me feel like I am when I'm here. I will continue to return to this location. This is a MUST STAY HOTEL!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel twice and I would have had logged a third week visit had they not been sold out the week I was returning. My rooms are always clean and quiet. The Customer Service is the winner here. They make you feel so welcome and always smiling and offering a helping hand. Especially the Chef Robin and her team. They run like a well oiled machine in the morning. Meals come out fast and hot and done right. Chef Robin does my breakfast just like I like it on the daily with one look out the door when my order comes in from her she knows what I want and delivers time and time again. The Receptionist are all were super nice and very accommodating. After a long day of work and walking in at night they are more than welcoming asking if I need anything before retiring to my room. They make me feel so special here. I know I'm not the only one but they make me feel like I am when I'm here. I will continue to return to this location. This is a MUST STAY HOTEL!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r580293963-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>580293963</t>
+  </si>
+  <si>
+    <t>05/14/2018</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for a few nights in April. I found it to be a pleasant stay with friendly staff going out of their way to help me. The bar and restaurant is conveniently located close to the lobby. I would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for a few nights in April. I found it to be a pleasant stay with friendly staff going out of their way to help me. The bar and restaurant is conveniently located close to the lobby. I would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r580240826-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>580240826</t>
+  </si>
+  <si>
+    <t>Short trip but hotel and people were great</t>
+  </si>
+  <si>
+    <t>My trip to the hotel was a great trip, the hotel staff were there and very helpful. Dinner that at the Bistro was very good. Rooms were clean and taking care of. Check in was quick and easy all the records were there so not much to do. Receipt was emailed before check out and was accurate and I had no questionsMoreShow less</t>
+  </si>
+  <si>
+    <t>shandra g, Director of Sales at Courtyard Palmdale, responded to this reviewResponded May 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2018</t>
+  </si>
+  <si>
+    <t>My trip to the hotel was a great trip, the hotel staff were there and very helpful. Dinner that at the Bistro was very good. Rooms were clean and taking care of. Check in was quick and easy all the records were there so not much to do. Receipt was emailed before check out and was accurate and I had no questionsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r580228312-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>580228312</t>
+  </si>
+  <si>
+    <t>Stay for softball tournament</t>
+  </si>
+  <si>
+    <t>Definitely what we expected from a Courtyard Marriott.  Property was well kept and a very helpful staff.  Shandra was great with helping us book our team block of rooms.  Will definitely come back for a stay with our next event.MoreShow less</t>
+  </si>
+  <si>
+    <t>Definitely what we expected from a Courtyard Marriott.  Property was well kept and a very helpful staff.  Shandra was great with helping us book our team block of rooms.  Will definitely come back for a stay with our next event.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r580221449-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>580221449</t>
+  </si>
+  <si>
+    <t>Business stay at the Courtyard in Palmdale CA</t>
+  </si>
+  <si>
+    <t>The room was very clean and smelled nice.  Not even a hint of cigarette smoke which I appreciated very much. The staff service at the front desk was wonderful and their breakfast was great.  I enjoyed the gym and the pool after a long day of meetings.MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was very clean and smelled nice.  Not even a hint of cigarette smoke which I appreciated very much. The staff service at the front desk was wonderful and their breakfast was great.  I enjoyed the gym and the pool after a long day of meetings.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r573767695-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>573767695</t>
+  </si>
+  <si>
+    <t>04/16/2018</t>
+  </si>
+  <si>
+    <t>Great staff makes all the difference</t>
+  </si>
+  <si>
+    <t>We were in town for the weekend for a soccer tournament and stayed at the Courtyard Palmdale. I like staying at Marriott properties because I know exactly what to expect and this hotel was no exception. Everything was very clean, comfortable, and easy. I especially liked the large semi-circular couches that can double as pull-out beds. However, what made our stay this weekend at the Courtyard Palmdale exceptional was the very friendly and helpful staff. From the moment we walked in we were greeted warmly and all the staff that we encountered over the weekend were helpful and welcoming. Before we arrived I had been in contact with Shandra at the hotel to block a set of rooms for our team and that process was smooth also. The staff made all the difference in our stay this weekend. I would definitely recommend this hotel and look forward to staying again whenever we are in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>shandra g, Director of Sales at Courtyard Palmdale, responded to this reviewResponded April 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2018</t>
+  </si>
+  <si>
+    <t>We were in town for the weekend for a soccer tournament and stayed at the Courtyard Palmdale. I like staying at Marriott properties because I know exactly what to expect and this hotel was no exception. Everything was very clean, comfortable, and easy. I especially liked the large semi-circular couches that can double as pull-out beds. However, what made our stay this weekend at the Courtyard Palmdale exceptional was the very friendly and helpful staff. From the moment we walked in we were greeted warmly and all the staff that we encountered over the weekend were helpful and welcoming. Before we arrived I had been in contact with Shandra at the hotel to block a set of rooms for our team and that process was smooth also. The staff made all the difference in our stay this weekend. I would definitely recommend this hotel and look forward to staying again whenever we are in town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r569806856-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>569806856</t>
+  </si>
+  <si>
+    <t>03/30/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renovation </t>
+  </si>
+  <si>
+    <t>I have not stayed here since the hotel was renovated; I am very pleased. The hotel looks similar to other modern Courtyard hotels now, as they use similar design language. Front check-in girl was pleasant, efficient, and remembered me from my last stay (at the Residence Inn across the parking lot). The lobby is exceptional with bistro featuring full bar. The indoor pool is shallow, but nice. The gym is so-so. The only complaint I have is with the TINY television in the rooms. That managed to stay, despite the renovation (and the manufacture date of 2009 on the back (I couldn’t resist checking)). I understand televisions are a large cost when upgrading, but it needs to happen. I remember staying at this hotel when it first opened as a child. It was the nicest hotel in town. It has really held up nicely over the years thanks to the renovation.  The hotel still owes me compensation for my disgracefully bad stay at the Residence Inn a few weeks ago. They promised to reach out but have not. I’m not sure if the two hotels share the same management/ownership, so I am not reducing my star rating. If they do, SHAME on them!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Randy M, General Manager at Courtyard Palmdale, responded to this reviewResponded April 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2018</t>
+  </si>
+  <si>
+    <t>I have not stayed here since the hotel was renovated; I am very pleased. The hotel looks similar to other modern Courtyard hotels now, as they use similar design language. Front check-in girl was pleasant, efficient, and remembered me from my last stay (at the Residence Inn across the parking lot). The lobby is exceptional with bistro featuring full bar. The indoor pool is shallow, but nice. The gym is so-so. The only complaint I have is with the TINY television in the rooms. That managed to stay, despite the renovation (and the manufacture date of 2009 on the back (I couldn’t resist checking)). I understand televisions are a large cost when upgrading, but it needs to happen. I remember staying at this hotel when it first opened as a child. It was the nicest hotel in town. It has really held up nicely over the years thanks to the renovation.  The hotel still owes me compensation for my disgracefully bad stay at the Residence Inn a few weeks ago. They promised to reach out but have not. I’m not sure if the two hotels share the same management/ownership, so I am not reducing my star rating. If they do, SHAME on them!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r559110019-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>559110019</t>
+  </si>
+  <si>
+    <t>02/07/2018</t>
+  </si>
+  <si>
+    <t>Clean, convenient, comfortable</t>
+  </si>
+  <si>
+    <t>Listen, you know what you're looking for when you book a Courtyard in Palmdale.  You're getting it all here:  really polite and helpful staff, a clean room, and a solid breakfast option.  Complimentary beverages were great, the room is totally comfortable, and I was able to grab some breakfast to go.  I'll be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>shandra g, Director of Sales at Courtyard Palmdale, responded to this reviewResponded February 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2018</t>
+  </si>
+  <si>
+    <t>Listen, you know what you're looking for when you book a Courtyard in Palmdale.  You're getting it all here:  really polite and helpful staff, a clean room, and a solid breakfast option.  Complimentary beverages were great, the room is totally comfortable, and I was able to grab some breakfast to go.  I'll be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r555677425-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>555677425</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>Family Friendly (even if it is a business hotel!)</t>
+  </si>
+  <si>
+    <t>We were a family of 4, and felt very welcome by the staff at all times, even though the hotel is focused on business travelers. The new Bistro food was tasty and reasonably priced and the indoor pool was a huge hit..MoreShow less</t>
+  </si>
+  <si>
+    <t>Randy M, General Manager at Courtyard Palmdale, responded to this reviewResponded January 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2018</t>
+  </si>
+  <si>
+    <t>We were a family of 4, and felt very welcome by the staff at all times, even though the hotel is focused on business travelers. The new Bistro food was tasty and reasonably priced and the indoor pool was a huge hit..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r555667809-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>555667809</t>
+  </si>
+  <si>
+    <t>Courtyard Marriott</t>
+  </si>
+  <si>
+    <t>Recently stayed at the Courtyard Marriott.  The great hospitality and helpful employees made check in easy and welcoming. As far as my room and stay I must say it was great! I truely Appreciated everything and looking forward to staying there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Recently stayed at the Courtyard Marriott.  The great hospitality and helpful employees made check in easy and welcoming. As far as my room and stay I must say it was great! I truely Appreciated everything and looking forward to staying there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r555249659-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>555249659</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>Nice and clean hotel</t>
+  </si>
+  <si>
+    <t>Our family had a great experience at this hotel. It was conveniently located to restaurants, etc. The staff was kind, courteous and greeted with a smile. The accommodations were very clean. Highly recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our family had a great experience at this hotel. It was conveniently located to restaurants, etc. The staff was kind, courteous and greeted with a smile. The accommodations were very clean. Highly recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r549992013-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>549992013</t>
+  </si>
+  <si>
+    <t>12/29/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel, Friendly Staff, Convenient Location</t>
+  </si>
+  <si>
+    <t>This is a very nice Courtyard.  It is clean and well designed like other Courtyards with great amenities (like coffee and food in the lobby).  I like Courtyards because the lounge area has booths with personal TVs.  I wake up much earlier than my wife and appreciate being able to sip my coffee in a comfortable private booth with a tv is close to watch and hear with a remote I control.The showers were hot and the shower heads were strong.  The hotel was very quiet.  One of the best things is that this hotel is very close to the freeway, easy access but not noisey.  Also, besides good food and drinks in the hotel, there are many places to eat that are in the same parking area and much more shopping and dining less than a mile away - an easy walk.  We have stayed here many times and appreciate the friendly staff and comfort of this hotel.  It is an easy, stress free place to rest your head.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Randy M, General Manager at Courtyard Palmdale, responded to this reviewResponded January 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 1, 2018</t>
+  </si>
+  <si>
+    <t>This is a very nice Courtyard.  It is clean and well designed like other Courtyards with great amenities (like coffee and food in the lobby).  I like Courtyards because the lounge area has booths with personal TVs.  I wake up much earlier than my wife and appreciate being able to sip my coffee in a comfortable private booth with a tv is close to watch and hear with a remote I control.The showers were hot and the shower heads were strong.  The hotel was very quiet.  One of the best things is that this hotel is very close to the freeway, easy access but not noisey.  Also, besides good food and drinks in the hotel, there are many places to eat that are in the same parking area and much more shopping and dining less than a mile away - an easy walk.  We have stayed here many times and appreciate the friendly staff and comfort of this hotel.  It is an easy, stress free place to rest your head.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r549642402-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>549642402</t>
+  </si>
+  <si>
+    <t>12/27/2017</t>
+  </si>
+  <si>
+    <t>Very good Courtyard near just about everything</t>
+  </si>
+  <si>
+    <t>Location of the hotel is situated near just about everything. The mall is about 3-5 minutes by car; there are plenty of grocery and restaurants within a few minutes by car. If you do not want to leave the hotel grounds, there is a Jack in the Box; a Mexican restaurant; and a Yoshinoya within walking distance. Rooms are the standard type in any Courtyard. About the only negative part of my stay is that the first floor hallway smelled of chlorine from the indoor swimming pool. I didn't have a room on the first floor so I cannot comment if that smell reached the inside. To me, it was a bit unpleasant though I don't think management can do much to fix the problem.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Location of the hotel is situated near just about everything. The mall is about 3-5 minutes by car; there are plenty of grocery and restaurants within a few minutes by car. If you do not want to leave the hotel grounds, there is a Jack in the Box; a Mexican restaurant; and a Yoshinoya within walking distance. Rooms are the standard type in any Courtyard. About the only negative part of my stay is that the first floor hallway smelled of chlorine from the indoor swimming pool. I didn't have a room on the first floor so I cannot comment if that smell reached the inside. To me, it was a bit unpleasant though I don't think management can do much to fix the problem.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r549578229-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>549578229</t>
+  </si>
+  <si>
+    <t>Stayed to see the granddaughter in Palmdale</t>
+  </si>
+  <si>
+    <t>I have traveled all over the US using Marriott properties. Now retired I get time to visit my new granddaughter. When looking for a place to stay I found this Marriott Courtyard so I tried it. Me and my wife are very happy with the rooms, they are clean, neat and very comfortably. The staff is nice and friendly and we will always use this property when in Palmdale.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have traveled all over the US using Marriott properties. Now retired I get time to visit my new granddaughter. When looking for a place to stay I found this Marriott Courtyard so I tried it. Me and my wife are very happy with the rooms, they are clean, neat and very comfortably. The staff is nice and friendly and we will always use this property when in Palmdale.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r546914692-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>546914692</t>
+  </si>
+  <si>
+    <t>12/12/2017</t>
+  </si>
+  <si>
+    <t>GREAT</t>
+  </si>
+  <si>
+    <t>Location of the hotel is nice and quite , close to mall and food places i had A fast check in cleanness, the customer service rep was nice helpful i asked For a late check out because i normally travel for business and she made it happen for me. My room was clean and very neat, the bed was comfortable for me and my partner, the heater and air works overall the hotel is a great place to stay. I recommend Staying here , I’ve tired to book agin this week but all the rooms were sold out!!K.phillips thank you guys for keeping a great hotelMoreShow less</t>
+  </si>
+  <si>
+    <t>shandra g, Director of Sales at Courtyard Palmdale, responded to this reviewResponded December 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2017</t>
+  </si>
+  <si>
+    <t>Location of the hotel is nice and quite , close to mall and food places i had A fast check in cleanness, the customer service rep was nice helpful i asked For a late check out because i normally travel for business and she made it happen for me. My room was clean and very neat, the bed was comfortable for me and my partner, the heater and air works overall the hotel is a great place to stay. I recommend Staying here , I’ve tired to book agin this week but all the rooms were sold out!!K.phillips thank you guys for keeping a great hotelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r539754169-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>539754169</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>Location is clean and staff are attentive, one of my better spots to stay, being a road warrior and out the better part of 9 months in any given year I see all kinds of things. This is always a pleasant stop on my monthly travel routine.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>shandra g, Director of Sales at Courtyard Palmdale, responded to this reviewResponded November 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2017</t>
+  </si>
+  <si>
+    <t>Location is clean and staff are attentive, one of my better spots to stay, being a road warrior and out the better part of 9 months in any given year I see all kinds of things. This is always a pleasant stop on my monthly travel routine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r536140648-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>536140648</t>
+  </si>
+  <si>
+    <t>10/26/2017</t>
+  </si>
+  <si>
+    <t>Normal Marriott Courtyard</t>
+  </si>
+  <si>
+    <t>Quick Trip to Palmdale for a business meeting. I travel a lot and this Courtyard is what I expect at Marriott properties. The room and property were clean and well maintained. The employees were nice and attentive. Only thing I could comment on would be the site is looking older and could use a remodel to update the TV's,  bed and property. It would also be nice to have a shuttle that can take you back and forth to the mall area not far away.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>shandra g, Director of Sales at Courtyard Palmdale, responded to this reviewResponded October 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2017</t>
+  </si>
+  <si>
+    <t>Quick Trip to Palmdale for a business meeting. I travel a lot and this Courtyard is what I expect at Marriott properties. The room and property were clean and well maintained. The employees were nice and attentive. Only thing I could comment on would be the site is looking older and could use a remodel to update the TV's,  bed and property. It would also be nice to have a shuttle that can take you back and forth to the mall area not far away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r506501503-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>506501503</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>Very nice courtyard</t>
+  </si>
+  <si>
+    <t>I stayed here 3 nights on a business trip and this is much nicer then the usual courtyard. Front desk was courteous. Restaurant was excellent. Only complaint was the elevator was slow and I was glad when I used it the last time because I was always afraid I would get stuckMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Randy M, General Manager at Courtyard Palmdale, responded to this reviewResponded September 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here 3 nights on a business trip and this is much nicer then the usual courtyard. Front desk was courteous. Restaurant was excellent. Only complaint was the elevator was slow and I was glad when I used it the last time because I was always afraid I would get stuckMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r477282650-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>477282650</t>
+  </si>
+  <si>
+    <t>04/19/2017</t>
+  </si>
+  <si>
+    <t>Great team</t>
+  </si>
+  <si>
+    <t>What a great place to stay.  The location is close to restaurants and easy access to the freeway.  The people make the hotel.  While it is a very nice, comfortable, and clean place to stay, the people are an amazing team that are there to make your stay a great experience.   Diana and Amy are wonderful and welcoming.  As a frequent traveler, I appreciate that they are always smiling, courteous, friendly, and remember who you are when you return.  The restaurant is small, but very good.   I've eaten there several times and Jessica always makes you feel special.I recommend that you take a look at this hotel if your plans take you to the Antelope Valley.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Randy M, General Manager at Courtyard Palmdale, responded to this reviewResponded May 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2017</t>
+  </si>
+  <si>
+    <t>What a great place to stay.  The location is close to restaurants and easy access to the freeway.  The people make the hotel.  While it is a very nice, comfortable, and clean place to stay, the people are an amazing team that are there to make your stay a great experience.   Diana and Amy are wonderful and welcoming.  As a frequent traveler, I appreciate that they are always smiling, courteous, friendly, and remember who you are when you return.  The restaurant is small, but very good.   I've eaten there several times and Jessica always makes you feel special.I recommend that you take a look at this hotel if your plans take you to the Antelope Valley.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r470170273-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>470170273</t>
+  </si>
+  <si>
+    <t>03/25/2017</t>
+  </si>
+  <si>
+    <t>Great stay made perfect by the Great Staff</t>
+  </si>
+  <si>
+    <t>The staff really go out of their way to make sure that your stay is perfect. Whatever you need they are there to help you out. The rooms are great too. Very clean, quite and well stocked with everything that you could need to make your stay the best.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Randy M, General Manager at Courtyard Palmdale, responded to this reviewResponded April 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2017</t>
+  </si>
+  <si>
+    <t>The staff really go out of their way to make sure that your stay is perfect. Whatever you need they are there to help you out. The rooms are great too. Very clean, quite and well stocked with everything that you could need to make your stay the best.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r448977037-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>448977037</t>
+  </si>
+  <si>
+    <t>01/03/2017</t>
+  </si>
+  <si>
+    <t>Dominique has the Best Customer Service!</t>
+  </si>
+  <si>
+    <t>From checking in to our departure we enjoyed our stay. This location has the best staff! Dominique went beyond to make certain our stay was enjoyable. We were able to obtain a second room at the other property for the same cost.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Randy M, General Manager at Courtyard Palmdale, responded to this reviewResponded January 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2017</t>
+  </si>
+  <si>
+    <t>From checking in to our departure we enjoyed our stay. This location has the best staff! Dominique went beyond to make certain our stay was enjoyable. We were able to obtain a second room at the other property for the same cost.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r446109841-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>446109841</t>
+  </si>
+  <si>
+    <t>12/22/2016</t>
+  </si>
+  <si>
+    <t>Friendliest Hotel Staff</t>
+  </si>
+  <si>
+    <t>The first thing that comes to mind was the warm reception I got from the staff at checkin where they also gave me complementary snacks and water.  Even the cleaning staff was extremely friendly, which had a positive impact on my stay.  The rooms were very clean, but slightly outdated.  Overall, I would highly recommend this hotel for the value.MoreShow less</t>
+  </si>
+  <si>
+    <t>Randy M, General Manager at Courtyard Palmdale, responded to this reviewResponded December 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 23, 2016</t>
+  </si>
+  <si>
+    <t>The first thing that comes to mind was the warm reception I got from the staff at checkin where they also gave me complementary snacks and water.  Even the cleaning staff was extremely friendly, which had a positive impact on my stay.  The rooms were very clean, but slightly outdated.  Overall, I would highly recommend this hotel for the value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r445473656-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>445473656</t>
+  </si>
+  <si>
+    <t>12/19/2016</t>
+  </si>
+  <si>
+    <t>No problem with the room.</t>
+  </si>
+  <si>
+    <t>Thus room was freezing and we weren't able to regulate the heat.Discrepancy from your website, The bar are was closed and we were not able to order a drink or purchase food (after o very stressful day with family) nor were we able to purchase any in the market area - red wind bottles and candy only!  Bistro was not open so we couldn't order food. This was all discouraging after a long, stressful day With family after a challenging medical week. Not your problem. Just my disappointment after reading your website seeing all these amenities  would be available. We were told we could walk over to Bev Mo? Where ever that was. But it was late after a long stressful day and freezing outside (although our room was of an equal temp) this is our fourth stay at one of your Palmdale area hotels, the second in the last month.  As Marriott owners t has been very disappointing, we are sorry this does does not fit with the Marriott experience we are use to. But this time you did have a room.So far our stays have not shown up on our statement. I'm assuming those are recorded and sent out after the fact.MoreShow less</t>
+  </si>
+  <si>
+    <t>Randy M, General Manager at Courtyard Palmdale, responded to this reviewResponded December 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2016</t>
+  </si>
+  <si>
+    <t>Thus room was freezing and we weren't able to regulate the heat.Discrepancy from your website, The bar are was closed and we were not able to order a drink or purchase food (after o very stressful day with family) nor were we able to purchase any in the market area - red wind bottles and candy only!  Bistro was not open so we couldn't order food. This was all discouraging after a long, stressful day With family after a challenging medical week. Not your problem. Just my disappointment after reading your website seeing all these amenities  would be available. We were told we could walk over to Bev Mo? Where ever that was. But it was late after a long stressful day and freezing outside (although our room was of an equal temp) this is our fourth stay at one of your Palmdale area hotels, the second in the last month.  As Marriott owners t has been very disappointing, we are sorry this does does not fit with the Marriott experience we are use to. But this time you did have a room.So far our stays have not shown up on our statement. I'm assuming those are recorded and sent out after the fact.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r435461568-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>435461568</t>
+  </si>
+  <si>
+    <t>11/07/2016</t>
+  </si>
+  <si>
+    <t>Very Helpful and Friendly Staff</t>
+  </si>
+  <si>
+    <t>I have stayed here multiple times over the past five years in my work with nearby school districts. The staff is always welcoming, calling me by name, and greeting me like a friend.  The room is clean, internet works great, and the bed is comfortable.  The ladies in the Bistro are exceptional.  Last night, I was walking toward the elevator with both hands full and one of the gentlemen (handyman) hurried ahead of me and pushed the button for me.  Those small helpful gestures are indicative of how everyone at this hotel behaves toward guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Randy M, General Manager at Courtyard Palmdale, responded to this reviewResponded November 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2016</t>
+  </si>
+  <si>
+    <t>I have stayed here multiple times over the past five years in my work with nearby school districts. The staff is always welcoming, calling me by name, and greeting me like a friend.  The room is clean, internet works great, and the bed is comfortable.  The ladies in the Bistro are exceptional.  Last night, I was walking toward the elevator with both hands full and one of the gentlemen (handyman) hurried ahead of me and pushed the button for me.  Those small helpful gestures are indicative of how everyone at this hotel behaves toward guests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r431208105-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>431208105</t>
+  </si>
+  <si>
+    <t>10/24/2016</t>
+  </si>
+  <si>
+    <t>Too short a stay</t>
+  </si>
+  <si>
+    <t>Just stayed 1 night which was not enough time to imbibe all that the hotel had to offer. Was tired from a 13 hour flight and the room was cozy and very comfortable. Breakfast was delicious and the staff was really friendly. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Randy M, General Manager at Courtyard Palmdale, responded to this reviewResponded October 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2016</t>
+  </si>
+  <si>
+    <t>Just stayed 1 night which was not enough time to imbibe all that the hotel had to offer. Was tired from a 13 hour flight and the room was cozy and very comfortable. Breakfast was delicious and the staff was really friendly. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r430915582-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>430915582</t>
+  </si>
+  <si>
+    <t>10/23/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had multiple problems - walls paper thing </t>
+  </si>
+  <si>
+    <t>What a disappointment. First room smelled like smoke. Second room had clogged tub. Then came the neighbors who started blasting their music and making noise at 1 am that did not stop. Around 2 am when we couldn't take it anymore we called downstairs to ask them to turn it down but no one came up. I was going to say at least the staff seem really nice and attentive despite the hotels short comings. But when the person didn't come up to tell our neighbors to keep it down, it was definitely a let down. We could hear normal level conversation through the walls so the music literally felt like it was in our room. Worst stay ever. MoreShow less</t>
+  </si>
+  <si>
+    <t>What a disappointment. First room smelled like smoke. Second room had clogged tub. Then came the neighbors who started blasting their music and making noise at 1 am that did not stop. Around 2 am when we couldn't take it anymore we called downstairs to ask them to turn it down but no one came up. I was going to say at least the staff seem really nice and attentive despite the hotels short comings. But when the person didn't come up to tell our neighbors to keep it down, it was definitely a let down. We could hear normal level conversation through the walls so the music literally felt like it was in our room. Worst stay ever. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r425968047-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>425968047</t>
+  </si>
+  <si>
+    <t>10/07/2016</t>
+  </si>
+  <si>
+    <t>Great service and food</t>
+  </si>
+  <si>
+    <t>The restaurant is a one woman show.  She takes your order, makes your food and does the dishes.  So, sometimes the service isn't speedy, but I've ate here a dozen times and my meals have always been excellent.  The Cobb salad has corn in it, which is weird, but I love it.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r425720155-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>425720155</t>
+  </si>
+  <si>
+    <t>10/06/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spectacular Service </t>
+  </si>
+  <si>
+    <t>I was here for two nights on a business trip. Literally every single employee that I interacted with was positive, warm, helpful and caring! The food in the bistro was very very good and I would highly recommend this place if you're visiting the area.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r424524514-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>424524514</t>
+  </si>
+  <si>
+    <t>10/02/2016</t>
+  </si>
+  <si>
+    <t>Better than Expected Stay in Palmdale</t>
+  </si>
+  <si>
+    <t>Spent one night at this hotel, which was in a great location - close to the freeway, mall, gas station and restaurants. The staff was friendly and even gave us $5 gift cards to use at a local restaurant, when we asked about dinner suggestions. Room was clean, quiet and modern looking, bed was comfortable, bathroom was a good size, and the AC worked well. Got a great nights sleep. Only downside - the tub in the bathroom wasn't as deep as it looked, and I almost slipped when stepping in to take a shower.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r414735164-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>414735164</t>
+  </si>
+  <si>
+    <t>09/04/2016</t>
+  </si>
+  <si>
+    <t>Great Stop</t>
+  </si>
+  <si>
+    <t>While traveling cross country from San Francisco to Phoenix we decided to stop in Palmdale.  We called the Courtyard from the road and asked if they would honor a rate we found on line.  The desk person said she could not but when we arrived she had found the rate and honored it.  That's what I call service.  This property is in excellent shape.  The room and lobby area was extremely clean.  Both check in and check out were very friendly.  If we are ever in Palmdale again we will definitely be staying at this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Randy M, General Manager at Courtyard Palmdale, responded to this reviewResponded September 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2016</t>
+  </si>
+  <si>
+    <t>While traveling cross country from San Francisco to Phoenix we decided to stop in Palmdale.  We called the Courtyard from the road and asked if they would honor a rate we found on line.  The desk person said she could not but when we arrived she had found the rate and honored it.  That's what I call service.  This property is in excellent shape.  The room and lobby area was extremely clean.  Both check in and check out were very friendly.  If we are ever in Palmdale again we will definitely be staying at this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r411600144-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>411600144</t>
+  </si>
+  <si>
+    <t>08/27/2016</t>
+  </si>
+  <si>
+    <t>Great location, great property</t>
+  </si>
+  <si>
+    <t>I have stayed here several times, besides some very attractive weekend rates from time to time the hotel is updated and up to Marriott standards. The location is close to many mid range restaurants and for the ladies you could almost walk to multiple shopping areas including the AV Mall.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Randy M, General Manager at Courtyard Palmdale, responded to this reviewResponded September 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2016</t>
+  </si>
+  <si>
+    <t>I have stayed here several times, besides some very attractive weekend rates from time to time the hotel is updated and up to Marriott standards. The location is close to many mid range restaurants and for the ladies you could almost walk to multiple shopping areas including the AV Mall.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r405923151-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>405923151</t>
+  </si>
+  <si>
+    <t>08/15/2016</t>
+  </si>
+  <si>
+    <t>Friendly and Clean</t>
+  </si>
+  <si>
+    <t>This is in a nice location of Palmdale. Located close to all shopping and restaurants. The staff was friendly and the hotel was clean. The pool and hot tub was nice. If you like mexican food check out LU&amp;PE mexican restaurant.MoreShow less</t>
+  </si>
+  <si>
+    <t>Randy M, General Manager at Courtyard Palmdale, responded to this reviewResponded August 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2016</t>
+  </si>
+  <si>
+    <t>This is in a nice location of Palmdale. Located close to all shopping and restaurants. The staff was friendly and the hotel was clean. The pool and hot tub was nice. If you like mexican food check out LU&amp;PE mexican restaurant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r373915044-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>373915044</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>Comfy yet Efficient</t>
+  </si>
+  <si>
+    <t>I think everyone knows Palmdale CA area is a pest hole and you only go there if you are military, military contractor, military civilian, incarcerated or visiting someone who is incarcerated. Well, if you are there for the first three reasons, and not the last two, stay at the Courtyard. Not only was the bed better than Ambien for sleeping, they had a breakfast bag and coffee for me at Zero Dark Thirty every morning I asked. It was quiet--seemed like good soundproof walls and everything was clean, efficient and the staff was competent and friendly. Now the important part: it's within easy walking distance of a 24 HR Circle K with a great beer and snack selection, right up the street from Bevmo and around the corner from Love Korean BBQ n Sushi. If you must go to Palmdale/Lancaster/Ed Warts AFB/Secret Place, and occasionally you must; do yourself a favor and stay at the Courtyard. It's all military n military related there; great people; capable... You could survive the coming Zombie Apocalypse there... rly.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Randy M, General Manager at Courtyard Palmdale, responded to this reviewResponded May 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2016</t>
+  </si>
+  <si>
+    <t>I think everyone knows Palmdale CA area is a pest hole and you only go there if you are military, military contractor, military civilian, incarcerated or visiting someone who is incarcerated. Well, if you are there for the first three reasons, and not the last two, stay at the Courtyard. Not only was the bed better than Ambien for sleeping, they had a breakfast bag and coffee for me at Zero Dark Thirty every morning I asked. It was quiet--seemed like good soundproof walls and everything was clean, efficient and the staff was competent and friendly. Now the important part: it's within easy walking distance of a 24 HR Circle K with a great beer and snack selection, right up the street from Bevmo and around the corner from Love Korean BBQ n Sushi. If you must go to Palmdale/Lancaster/Ed Warts AFB/Secret Place, and occasionally you must; do yourself a favor and stay at the Courtyard. It's all military n military related there; great people; capable... You could survive the coming Zombie Apocalypse there... rly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r367327620-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>367327620</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t>Almost a five</t>
+  </si>
+  <si>
+    <t>This is a nice place and I would stay here again.  But, here are a few negatives, not necessarily a deal breaker, but things you may not like...  1.  You can hear people above you.  It's pretty loud.  Even vacuuming.  2.  There is not a free breakfast.  3.  The pillows are small.  4.  The shower head is not a high quality.  It shoots water out like needles.  5.  One of the beds, the bed sheet popped off the corner exposing the mattress.  I hate that.  Here are a few positives.  1.  Internet free.  2.  TV is good.  3.  A/C is modern and works good.  4.  The staff is friendly.  5.  Nice location.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>This is a nice place and I would stay here again.  But, here are a few negatives, not necessarily a deal breaker, but things you may not like...  1.  You can hear people above you.  It's pretty loud.  Even vacuuming.  2.  There is not a free breakfast.  3.  The pillows are small.  4.  The shower head is not a high quality.  It shoots water out like needles.  5.  One of the beds, the bed sheet popped off the corner exposing the mattress.  I hate that.  Here are a few positives.  1.  Internet free.  2.  TV is good.  3.  A/C is modern and works good.  4.  The staff is friendly.  5.  Nice location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r348989273-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>348989273</t>
+  </si>
+  <si>
+    <t>02/18/2016</t>
+  </si>
+  <si>
+    <t>Maybe the best Palmdale has to offer</t>
+  </si>
+  <si>
+    <t>I stayed for two nights during a job in Lancaster. I like Marriot chain hotels and this being courtyard is one of those. My complaint about this hotel would be that during my stay the elevator was not working and had to climb two floors with my luggage. Otherwise it is up to Courtyard standards. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>I stayed for two nights during a job in Lancaster. I like Marriot chain hotels and this being courtyard is one of those. My complaint about this hotel would be that during my stay the elevator was not working and had to climb two floors with my luggage. Otherwise it is up to Courtyard standards. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r345685724-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>345685724</t>
+  </si>
+  <si>
+    <t>02/07/2016</t>
+  </si>
+  <si>
+    <t>Noisy Noisy Noisy, and cheap beds!</t>
+  </si>
+  <si>
+    <t>Stayed here for one night and it was miserable.  The beds were not comfortable, very cheap feeling and hard.  Worse was the hotel is right by a freeway and the building has not taken that into consideration.  It is SO loud you can hear every car and every engine braking truck going past.  In addition, the gap under my room door was probably 2".  Enough I could slip my hand and wrist under it.  This let every sound from the hallway come blasting into the room.  I had the misfortune of being here when a children's soccer event was happening and there were hordes of unruly 10 year olds playing soccer in the hallways starting by 6 am.  The hotel staff made no effort to contain the inconsiderate children or get their unconscionably rude parents on board with keeping them under control.  I had a very long drive and didn't get in until after 1 AM, so having a flipping soccer game going on in the hallway at 6 AM was truly unforgivable!  Since I wasn't getting back to sleep, despite trying, I tried the breakfast.  I think the soccer kids ate all the meat so I can only say there was soggy eggs and some toast.  The banana was a little overripe but I was glad for the fruit.  No coffee though because they have a coffee shop and want to sell you coffee.  There is coffee in the...Stayed here for one night and it was miserable.  The beds were not comfortable, very cheap feeling and hard.  Worse was the hotel is right by a freeway and the building has not taken that into consideration.  It is SO loud you can hear every car and every engine braking truck going past.  In addition, the gap under my room door was probably 2".  Enough I could slip my hand and wrist under it.  This let every sound from the hallway come blasting into the room.  I had the misfortune of being here when a children's soccer event was happening and there were hordes of unruly 10 year olds playing soccer in the hallways starting by 6 am.  The hotel staff made no effort to contain the inconsiderate children or get their unconscionably rude parents on board with keeping them under control.  I had a very long drive and didn't get in until after 1 AM, so having a flipping soccer game going on in the hallway at 6 AM was truly unforgivable!  Since I wasn't getting back to sleep, despite trying, I tried the breakfast.  I think the soccer kids ate all the meat so I can only say there was soggy eggs and some toast.  The banana was a little overripe but I was glad for the fruit.  No coffee though because they have a coffee shop and want to sell you coffee.  There is coffee in the rooms but I never use that because the in room ones are not sanitary.  I have seen too many with mold and god knows what in them.  To the credit of this place the in room machine did look clean and the hotel was well cleaned.  The staff was polite but not enough to stop the rude kids.  And yes they knew about them.  When I was by the front desk for breakfast you could hear them playing soccer like a herd of elephants thundering overhead.  No way to miss it.  I'm glad someone else was driving the next day because I got so little sleep I was dozing and miserable.  If you are a person who needs comfort and any kind of quiet to sleep, avoid this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Daniel L, Manager at Courtyard Palmdale, responded to this reviewResponded February 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for one night and it was miserable.  The beds were not comfortable, very cheap feeling and hard.  Worse was the hotel is right by a freeway and the building has not taken that into consideration.  It is SO loud you can hear every car and every engine braking truck going past.  In addition, the gap under my room door was probably 2".  Enough I could slip my hand and wrist under it.  This let every sound from the hallway come blasting into the room.  I had the misfortune of being here when a children's soccer event was happening and there were hordes of unruly 10 year olds playing soccer in the hallways starting by 6 am.  The hotel staff made no effort to contain the inconsiderate children or get their unconscionably rude parents on board with keeping them under control.  I had a very long drive and didn't get in until after 1 AM, so having a flipping soccer game going on in the hallway at 6 AM was truly unforgivable!  Since I wasn't getting back to sleep, despite trying, I tried the breakfast.  I think the soccer kids ate all the meat so I can only say there was soggy eggs and some toast.  The banana was a little overripe but I was glad for the fruit.  No coffee though because they have a coffee shop and want to sell you coffee.  There is coffee in the...Stayed here for one night and it was miserable.  The beds were not comfortable, very cheap feeling and hard.  Worse was the hotel is right by a freeway and the building has not taken that into consideration.  It is SO loud you can hear every car and every engine braking truck going past.  In addition, the gap under my room door was probably 2".  Enough I could slip my hand and wrist under it.  This let every sound from the hallway come blasting into the room.  I had the misfortune of being here when a children's soccer event was happening and there were hordes of unruly 10 year olds playing soccer in the hallways starting by 6 am.  The hotel staff made no effort to contain the inconsiderate children or get their unconscionably rude parents on board with keeping them under control.  I had a very long drive and didn't get in until after 1 AM, so having a flipping soccer game going on in the hallway at 6 AM was truly unforgivable!  Since I wasn't getting back to sleep, despite trying, I tried the breakfast.  I think the soccer kids ate all the meat so I can only say there was soggy eggs and some toast.  The banana was a little overripe but I was glad for the fruit.  No coffee though because they have a coffee shop and want to sell you coffee.  There is coffee in the rooms but I never use that because the in room ones are not sanitary.  I have seen too many with mold and god knows what in them.  To the credit of this place the in room machine did look clean and the hotel was well cleaned.  The staff was polite but not enough to stop the rude kids.  And yes they knew about them.  When I was by the front desk for breakfast you could hear them playing soccer like a herd of elephants thundering overhead.  No way to miss it.  I'm glad someone else was driving the next day because I got so little sleep I was dozing and miserable.  If you are a person who needs comfort and any kind of quiet to sleep, avoid this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r343077327-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>343077327</t>
+  </si>
+  <si>
+    <t>01/27/2016</t>
+  </si>
+  <si>
+    <t>The BEST Customer Service!</t>
+  </si>
+  <si>
+    <t>We stayed here for a soccer tournament (complex was only minutes away) and we'll stay here every time! The room smelled great, was spacious, the beds made you not want to leave them. Staff=outstandingMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Courtyard Marri... P, Manager at Courtyard Palmdale, responded to this reviewResponded January 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here for a soccer tournament (complex was only minutes away) and we'll stay here every time! The room smelled great, was spacious, the beds made you not want to leave them. Staff=outstandingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r341779890-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>341779890</t>
+  </si>
+  <si>
+    <t>01/21/2016</t>
+  </si>
+  <si>
+    <t>Very accommodating</t>
+  </si>
+  <si>
+    <t>My colleague and I, who are Marriott frequenters, needed to travel to Burbank for an overnight trip to train a client. All of the hotels in Burbank were booked when we were planning this trip, and after looking at several options, this was the closest Marriott we could find that was decently priced. We arrived around 9:30pm after our flight was delayed, and Callie at the front desk was very friendly and accommodating. She recognized that we were exhausted and was very efficient with the check-in process. My colleague asked if there was breakfast in the morning, and she went out of her way to provide both of us with a complimentary breakfast voucher knowing we had a long drive the next morning. Besides the customer service, the room was comfortable and beautifully furnished, as always with Marriott rooms. If I'm ever in the Palmdale area again, I will definitely stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Daniel L, Manager at Courtyard Palmdale, responded to this reviewResponded January 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2016</t>
+  </si>
+  <si>
+    <t>My colleague and I, who are Marriott frequenters, needed to travel to Burbank for an overnight trip to train a client. All of the hotels in Burbank were booked when we were planning this trip, and after looking at several options, this was the closest Marriott we could find that was decently priced. We arrived around 9:30pm after our flight was delayed, and Callie at the front desk was very friendly and accommodating. She recognized that we were exhausted and was very efficient with the check-in process. My colleague asked if there was breakfast in the morning, and she went out of her way to provide both of us with a complimentary breakfast voucher knowing we had a long drive the next morning. Besides the customer service, the room was comfortable and beautifully furnished, as always with Marriott rooms. If I'm ever in the Palmdale area again, I will definitely stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r313980051-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>313980051</t>
+  </si>
+  <si>
+    <t>09/27/2015</t>
+  </si>
+  <si>
+    <t>Ideal oasis for business traveller.</t>
+  </si>
+  <si>
+    <t>Everything was as it should be - friendly staff, clean and efficient.  Very comfortable room and bed.  All the amenities you would expect - and all functioning correctly. Will definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Daniel L, General Manager at Courtyard Palmdale, responded to this reviewResponded October 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2015</t>
+  </si>
+  <si>
+    <t>Everything was as it should be - friendly staff, clean and efficient.  Very comfortable room and bed.  All the amenities you would expect - and all functioning correctly. Will definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r300076277-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>300076277</t>
+  </si>
+  <si>
+    <t>08/16/2015</t>
+  </si>
+  <si>
+    <t>Overall a Pleasant Stay</t>
+  </si>
+  <si>
+    <t>My family recently stayed at the Courtyard by Marriott Palmdale. Overall, we were satisfied with the accommodations. Both the lobby and indoor pool were spacious and nice areas to relax. Our room was very clean and comfortable. The only minor issue I had with the room was that the fitted sheets came off the beds fairly easy. My main and only significant complaint was that the elevator was not working during our two night stay, and there were no rooms available on the first floor. I have a bad foot, so going up and down a flight of stairs wasn't particularly enjoyable. On a positive note, all of the employees we interacted with were amazing. Whenever I receive excellent customer service from someone, I make a point to take note of their name. Callie was working at the front desk when we checked in and checked out. She was welcoming, friendly, and went well above and beyond to make us comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Courtyard Marri... P, General Manager at Courtyard Palmdale, responded to this reviewResponded August 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2015</t>
+  </si>
+  <si>
+    <t>My family recently stayed at the Courtyard by Marriott Palmdale. Overall, we were satisfied with the accommodations. Both the lobby and indoor pool were spacious and nice areas to relax. Our room was very clean and comfortable. The only minor issue I had with the room was that the fitted sheets came off the beds fairly easy. My main and only significant complaint was that the elevator was not working during our two night stay, and there were no rooms available on the first floor. I have a bad foot, so going up and down a flight of stairs wasn't particularly enjoyable. On a positive note, all of the employees we interacted with were amazing. Whenever I receive excellent customer service from someone, I make a point to take note of their name. Callie was working at the front desk when we checked in and checked out. She was welcoming, friendly, and went well above and beyond to make us comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r298842283-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>298842283</t>
+  </si>
+  <si>
+    <t>08/13/2015</t>
+  </si>
+  <si>
+    <t>Friendly and attentive staff, nicely redecorated.</t>
+  </si>
+  <si>
+    <t>For an ultra-clean, comfortable, and convenient place to stay in this area, this is the place.  Newly refurbished, our room was quiet and serene, with all the appointments you need.  The spacious lobby area had lots of spots to sit and relax and read or watch the several TVs.  Also several desk sites to plug in your computer.  Starbucks runs the cafe, and the food was really good.  Quite a nice menu with some creative items including many healthy choices.  The cordial staff went out of their way to help us with requests.  A very good experience!MoreShow less</t>
+  </si>
+  <si>
+    <t>Daniel L, General Manager at Courtyard Palmdale, responded to this reviewResponded August 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2015</t>
+  </si>
+  <si>
+    <t>For an ultra-clean, comfortable, and convenient place to stay in this area, this is the place.  Newly refurbished, our room was quiet and serene, with all the appointments you need.  The spacious lobby area had lots of spots to sit and relax and read or watch the several TVs.  Also several desk sites to plug in your computer.  Starbucks runs the cafe, and the food was really good.  Quite a nice menu with some creative items including many healthy choices.  The cordial staff went out of their way to help us with requests.  A very good experience!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r282209618-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>282209618</t>
+  </si>
+  <si>
+    <t>06/22/2015</t>
+  </si>
+  <si>
+    <t>Marriott could have been better</t>
+  </si>
+  <si>
+    <t>We stayed Saturday. The staff was great. Bed great. Elevator broke. Then it broke Sunday am. Tile in the bathroom needs to be redone. It was just not the best Marriott experience that we usually have as a Marriott userMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Daniel L, General Manager at Courtyard Palmdale, responded to this reviewResponded June 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2015</t>
+  </si>
+  <si>
+    <t>We stayed Saturday. The staff was great. Bed great. Elevator broke. Then it broke Sunday am. Tile in the bathroom needs to be redone. It was just not the best Marriott experience that we usually have as a Marriott userMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r281962588-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>281962588</t>
+  </si>
+  <si>
+    <t>06/21/2015</t>
+  </si>
+  <si>
+    <t>If you like Courtyard Hotels, You will like this one!</t>
+  </si>
+  <si>
+    <t>The Courtyard in Palmdale is a typical Courtyard hotel.Pros:Nice clean, updated room with contemporary furnishingsThe room was very quietThe bathroom was very clean and somewhat updated alsoThere were many electrical outlets around the room:  on the desk, by both night standsThe hotel is very close to the freeway with ample parkingCheck in was quickThe bathroom had a tub/shower comboThe hotel offers free wifiCons:Breakfast is not included at Courtyard Hotels, not even for Marriott members with Gold or Platinum StatusThe shower heads are old style - rain shower heads would be much nicerThe bed's fitted sheet did not fit right and started to come off the bed by morning...better sheets is a must!!MoreShow less</t>
+  </si>
+  <si>
+    <t>The Courtyard in Palmdale is a typical Courtyard hotel.Pros:Nice clean, updated room with contemporary furnishingsThe room was very quietThe bathroom was very clean and somewhat updated alsoThere were many electrical outlets around the room:  on the desk, by both night standsThe hotel is very close to the freeway with ample parkingCheck in was quickThe bathroom had a tub/shower comboThe hotel offers free wifiCons:Breakfast is not included at Courtyard Hotels, not even for Marriott members with Gold or Platinum StatusThe shower heads are old style - rain shower heads would be much nicerThe bed's fitted sheet did not fit right and started to come off the bed by morning...better sheets is a must!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r275844562-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>275844562</t>
+  </si>
+  <si>
+    <t>05/30/2015</t>
+  </si>
+  <si>
+    <t>Clean &amp; Comfortable Property!</t>
+  </si>
+  <si>
+    <t>After driving for a couple hours, I arrived at this hotel.  The property is located near multiple restaurants as well as the Antelope Valley Mall.  Pretty easy to find &amp; easy access to the highway.  Check-in was fast &amp; simple.  Since it had been a while since I last stayed at a Courtyard, I didn't realize how much things had changed (i.e. the addition of The Bistro with several Starbucks hand-crafted beverages available).  The room looked new, nice &amp; fresh.  The bed was VERY comfy.  I immediately fell asleep after laying down, which is rarity for me.  The bathroom was also pretty nice &amp; clean.  Since I'm a vegetarian, they were able to make one of the breakfast sandwiches without the ham for me, which was great.  The sandwich also came with fresh fruit...a nice, healthy touch. I also ordered a flat-bread pizza during one of the evenings, which was also pretty tasty.  Overall, this is a great property &amp; I would definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Daniel L, General Manager at Courtyard Palmdale, responded to this reviewResponded June 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2015</t>
+  </si>
+  <si>
+    <t>After driving for a couple hours, I arrived at this hotel.  The property is located near multiple restaurants as well as the Antelope Valley Mall.  Pretty easy to find &amp; easy access to the highway.  Check-in was fast &amp; simple.  Since it had been a while since I last stayed at a Courtyard, I didn't realize how much things had changed (i.e. the addition of The Bistro with several Starbucks hand-crafted beverages available).  The room looked new, nice &amp; fresh.  The bed was VERY comfy.  I immediately fell asleep after laying down, which is rarity for me.  The bathroom was also pretty nice &amp; clean.  Since I'm a vegetarian, they were able to make one of the breakfast sandwiches without the ham for me, which was great.  The sandwich also came with fresh fruit...a nice, healthy touch. I also ordered a flat-bread pizza during one of the evenings, which was also pretty tasty.  Overall, this is a great property &amp; I would definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r254031827-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>254031827</t>
+  </si>
+  <si>
+    <t>02/13/2015</t>
+  </si>
+  <si>
+    <t>Clean, Quiet, Comfortable with Friendly Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed at the Courtyard in Palmdale recently while traveling for work. It was my first visit to this location in five years and the hotel had been updated in that time. The check-in experience was very good. The room itself satisfied my requirements - quiet, clean, comfortable. The fitness center was typical of mid-range, business oriented hotels. Breakfast in the bistro was very good. </t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r247461466-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>247461466</t>
+  </si>
+  <si>
+    <t>01/04/2015</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>We are Marriott Rewards Members and stay with Marriott frequently.  This stay was by far the worst Marriott stay we have ever experienced.  The fitted bedsheets did not fit the bed and we continually woke up on the mattress with no sheet and would have to get up and reposition it. There was a mattress liner that was designed for a twin bed, on a king size bed.  In the morning we noticed a big stain on the sheets that made us feel dirty. The blackout curtain only had half installed and we were on the east side of the building,  which meant the sun hit us right in the face at 7:00 a.m. after a late evening. The bathroom door was designed to stay fully open against the closet, so hanging items and using the ironing board was very challenging.  The creamer and sugar they provided for coffee in the room was actually previously opened partially used. When we went down to the Bistro to buy coffee, the service was so slow, I almost fell asleep waiting, which would probably have been better than the nights sleep I experienced.  Never have we been to a Marriott with so many issues.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Daniel L, General Manager at Courtyard Palmdale, responded to this reviewResponded January 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2015</t>
+  </si>
+  <si>
+    <t>We are Marriott Rewards Members and stay with Marriott frequently.  This stay was by far the worst Marriott stay we have ever experienced.  The fitted bedsheets did not fit the bed and we continually woke up on the mattress with no sheet and would have to get up and reposition it. There was a mattress liner that was designed for a twin bed, on a king size bed.  In the morning we noticed a big stain on the sheets that made us feel dirty. The blackout curtain only had half installed and we were on the east side of the building,  which meant the sun hit us right in the face at 7:00 a.m. after a late evening. The bathroom door was designed to stay fully open against the closet, so hanging items and using the ironing board was very challenging.  The creamer and sugar they provided for coffee in the room was actually previously opened partially used. When we went down to the Bistro to buy coffee, the service was so slow, I almost fell asleep waiting, which would probably have been better than the nights sleep I experienced.  Never have we been to a Marriott with so many issues.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r243220916-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>243220916</t>
+  </si>
+  <si>
+    <t>12/06/2014</t>
+  </si>
+  <si>
+    <t>Nice place if you need to be by Palmdale</t>
+  </si>
+  <si>
+    <t>Staff were friendly. Many dining options nearby. The indoor pool area suffers from intense chlorine fumes, nothing they can really do about this. I would stay here again. It's about 40 minutes from Magic Mountain.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Daniel L, General Manager at Courtyard Palmdale, responded to this reviewResponded December 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2014</t>
+  </si>
+  <si>
+    <t>Staff were friendly. Many dining options nearby. The indoor pool area suffers from intense chlorine fumes, nothing they can really do about this. I would stay here again. It's about 40 minutes from Magic Mountain.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r238413073-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>238413073</t>
+  </si>
+  <si>
+    <t>11/05/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not My Typical Courtyard </t>
+  </si>
+  <si>
+    <t>Pros1. Nice outside during area to relax and drink a glass of wine2. Very friendly front office staff,3. Clean hotel4. Clean the street from all of the shopping....from mall shopping to TargetCons1. Had too walk you the flights ofc stairs..elevator out of orderOk...understandable, but the guy at the front desk very matter of fact mentioned oh the elevator doesn't work but ma'am your on the third floorSo I had to lug my suitcases and other bag up to the third floor with no assistance 2. Nor did they offer any points...I'M A GOLD MEMBER3. The bed sheets kept coming of the bed..Not typical courtyard standardsMoreShow less</t>
+  </si>
+  <si>
+    <t>Daniel L, General Manager at Courtyard Palmdale, responded to this reviewResponded November 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2014</t>
+  </si>
+  <si>
+    <t>Pros1. Nice outside during area to relax and drink a glass of wine2. Very friendly front office staff,3. Clean hotel4. Clean the street from all of the shopping....from mall shopping to TargetCons1. Had too walk you the flights ofc stairs..elevator out of orderOk...understandable, but the guy at the front desk very matter of fact mentioned oh the elevator doesn't work but ma'am your on the third floorSo I had to lug my suitcases and other bag up to the third floor with no assistance 2. Nor did they offer any points...I'M A GOLD MEMBER3. The bed sheets kept coming of the bed..Not typical courtyard standardsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r233370223-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>233370223</t>
+  </si>
+  <si>
+    <t>10/08/2014</t>
+  </si>
+  <si>
+    <t>4-day business trip - Excellent</t>
+  </si>
+  <si>
+    <t>Great staff; excellent accommodations; convenient to everything I needed/wanted; loved the Starbucks coffee!  I'll definitely return to this Courtyard, if I'm sent this way again.  I especially enjoyed the breakfast in the Bistro.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Daniel L, General Manager at Courtyard Palmdale, responded to this reviewResponded October 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2014</t>
+  </si>
+  <si>
+    <t>Great staff; excellent accommodations; convenient to everything I needed/wanted; loved the Starbucks coffee!  I'll definitely return to this Courtyard, if I'm sent this way again.  I especially enjoyed the breakfast in the Bistro.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r226356319-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>226356319</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>The Front desk is awesome~</t>
+  </si>
+  <si>
+    <t>I had such a great experience with the staff there, I had to mention it. The Front desk were so very kind, efficient, and available for what ever question asked. What a great staff and wish every hotel property had a staff like there's, simply awesome!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>I had such a great experience with the staff there, I had to mention it. The Front desk were so very kind, efficient, and available for what ever question asked. What a great staff and wish every hotel property had a staff like there's, simply awesome!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r216470068-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>216470068</t>
+  </si>
+  <si>
+    <t>07/20/2014</t>
+  </si>
+  <si>
+    <t>Exceptional service and hospitality</t>
+  </si>
+  <si>
+    <t>We stayed here with our daughter's softball team and the service we experienced was simply outstanding!  From the front desk to the bistro the employees were exceptionally gracious and accomodating.  Even with the chaos resulting from having several teams of a dozen girls apiece, along with their coaches, families and everyone else, these folks never stopped being friendly and helpful.  The only two downsides were 1) that the pool was incredibly hyper-chlorinated, so much so that it burned my eyes after only a minute of being in there and 2) the single elevator is small and slow.  Otherwise this place is perfect, and I would love to go back!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Daniel L, General Manager at Courtyard Palmdale, responded to this reviewResponded August 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 20, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here with our daughter's softball team and the service we experienced was simply outstanding!  From the front desk to the bistro the employees were exceptionally gracious and accomodating.  Even with the chaos resulting from having several teams of a dozen girls apiece, along with their coaches, families and everyone else, these folks never stopped being friendly and helpful.  The only two downsides were 1) that the pool was incredibly hyper-chlorinated, so much so that it burned my eyes after only a minute of being in there and 2) the single elevator is small and slow.  Otherwise this place is perfect, and I would love to go back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r211559373-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>211559373</t>
+  </si>
+  <si>
+    <t>06/22/2014</t>
+  </si>
+  <si>
+    <t>Sometimes it takes 1 person to make a difference</t>
+  </si>
+  <si>
+    <t>The reason I stay at Marriott properties for business or pleasure is because I expect good service all the time, and I consistently get it. I don't write a review every time because like I said I expect the service I get for the numbers of stays every year. 
+However when I get over and above excellent service I feel that I need to share this not only with Trip Advisor but the hotel's management. 
+In business for many years I learned that excellent customer service does not take a lot of effort and sometimes like in this case one person can make a lot of difference. 
+From the moment I checked in Ivah Gray welcomed my family and myself with a big infectious smile and until we walked out of the hotel every time we interacted the smile was there and his answer was " no problem, my pleasure" . We were treated like we were the only ones in the hotel. I observed the young men and he was like that with every single person he talked or helped.
+The morning was busy and he ran between the front desk and help with breakfast. If there is one person that management could clone, he would be the one. Everyone else was great but Ivah stood out. 
+In the future if I am on business or pleasure I will make an effort to stay at this hotel even if...The reason I stay at Marriott properties for business or pleasure is because I expect good service all the time, and I consistently get it. I don't write a review every time because like I said I expect the service I get for the numbers of stays every year. However when I get over and above excellent service I feel that I need to share this not only with Trip Advisor but the hotel's management. In business for many years I learned that excellent customer service does not take a lot of effort and sometimes like in this case one person can make a lot of difference. From the moment I checked in Ivah Gray welcomed my family and myself with a big infectious smile and until we walked out of the hotel every time we interacted the smile was there and his answer was " no problem, my pleasure" . We were treated like we were the only ones in the hotel. I observed the young men and he was like that with every single person he talked or helped.The morning was busy and he ran between the front desk and help with breakfast. If there is one person that management could clone, he would be the one. Everyone else was great but Ivah stood out. In the future if I am on business or pleasure I will make an effort to stay at this hotel even if I would have to drive several miles. If you read this article and stay at this hotel, if you are greeted by Ivah and you can't for some reason read the name tag, you will know who he is. He is the one with the big smile that will not have a problem meeting your needs as a valued guest.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Daniel L, General Manager at Courtyard Palmdale, responded to this reviewResponded June 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2014</t>
+  </si>
+  <si>
+    <t>The reason I stay at Marriott properties for business or pleasure is because I expect good service all the time, and I consistently get it. I don't write a review every time because like I said I expect the service I get for the numbers of stays every year. 
+However when I get over and above excellent service I feel that I need to share this not only with Trip Advisor but the hotel's management. 
+In business for many years I learned that excellent customer service does not take a lot of effort and sometimes like in this case one person can make a lot of difference. 
+From the moment I checked in Ivah Gray welcomed my family and myself with a big infectious smile and until we walked out of the hotel every time we interacted the smile was there and his answer was " no problem, my pleasure" . We were treated like we were the only ones in the hotel. I observed the young men and he was like that with every single person he talked or helped.
+The morning was busy and he ran between the front desk and help with breakfast. If there is one person that management could clone, he would be the one. Everyone else was great but Ivah stood out. 
+In the future if I am on business or pleasure I will make an effort to stay at this hotel even if...The reason I stay at Marriott properties for business or pleasure is because I expect good service all the time, and I consistently get it. I don't write a review every time because like I said I expect the service I get for the numbers of stays every year. However when I get over and above excellent service I feel that I need to share this not only with Trip Advisor but the hotel's management. In business for many years I learned that excellent customer service does not take a lot of effort and sometimes like in this case one person can make a lot of difference. From the moment I checked in Ivah Gray welcomed my family and myself with a big infectious smile and until we walked out of the hotel every time we interacted the smile was there and his answer was " no problem, my pleasure" . We were treated like we were the only ones in the hotel. I observed the young men and he was like that with every single person he talked or helped.The morning was busy and he ran between the front desk and help with breakfast. If there is one person that management could clone, he would be the one. Everyone else was great but Ivah stood out. In the future if I am on business or pleasure I will make an effort to stay at this hotel even if I would have to drive several miles. If you read this article and stay at this hotel, if you are greeted by Ivah and you can't for some reason read the name tag, you will know who he is. He is the one with the big smile that will not have a problem meeting your needs as a valued guest.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r210990988-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>210990988</t>
+  </si>
+  <si>
+    <t>06/18/2014</t>
+  </si>
+  <si>
+    <t>Business or pleasure</t>
+  </si>
+  <si>
+    <t>Our company booked this for all employees when staying in Palmdale. Great place. Quiet, close to many restaurants and shopping. The staff was helpful, professional, and all round absolutely wonderful! I will definitely rebook  here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Our company booked this for all employees when staying in Palmdale. Great place. Quiet, close to many restaurants and shopping. The staff was helpful, professional, and all round absolutely wonderful! I will definitely rebook  here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r207555273-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>207555273</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Always enjoy a stay at a Courtyard</t>
+  </si>
+  <si>
+    <t>I always enjoy staying at a Courtyard. I've been a fan of Courtyards for the past 20 years. I had to chuckle when I read another review from a previous first who mentioned the "Motel feel" needed a makeover!  This Marriott appears to be very fresh, with the new Bistro type theme and well lit halls with tasteful decor and very clean carpet. The rooms are fresh smelling and the linen is spotless!Mu only beef and it's a personal preference is the whole Bistro concept. I preferred the older model where the breakfast was a full service hot breakfast arrangement. It seems Hotels now are trying to move completely away from dealing with serving food in a full service type of arrangement. I think it's a cost issue and it's too bad.  There's Pyrex plastic plates now and disposable e everything. Folks, we need to start caring for our environment and creating less waste! And it needs to start at the corporate level!Otherwise, a great stay as I would expect from Marriott!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Daniel L, General Manager at Courtyard Palmdale, responded to this reviewResponded June 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2014</t>
+  </si>
+  <si>
+    <t>I always enjoy staying at a Courtyard. I've been a fan of Courtyards for the past 20 years. I had to chuckle when I read another review from a previous first who mentioned the "Motel feel" needed a makeover!  This Marriott appears to be very fresh, with the new Bistro type theme and well lit halls with tasteful decor and very clean carpet. The rooms are fresh smelling and the linen is spotless!Mu only beef and it's a personal preference is the whole Bistro concept. I preferred the older model where the breakfast was a full service hot breakfast arrangement. It seems Hotels now are trying to move completely away from dealing with serving food in a full service type of arrangement. I think it's a cost issue and it's too bad.  There's Pyrex plastic plates now and disposable e everything. Folks, we need to start caring for our environment and creating less waste! And it needs to start at the corporate level!Otherwise, a great stay as I would expect from Marriott!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r199477836-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>199477836</t>
+  </si>
+  <si>
+    <t>03/31/2014</t>
+  </si>
+  <si>
+    <t>Best night of my 3 night stay in SoCal</t>
+  </si>
+  <si>
+    <t>I stayed in 3 different hotels during my 3 night stay in Southern California.  The Courtyard by Marriott in Palmdale, CA was the best by far!!  The staff were more than friendly from Michelina who checked me in to another staff member who was there later as I walked by to the housekeeping staff who asked me in the hallway as I was leaving if my room was up to my standards (which it was!).  Although the bathroom may not be as updated as some hotels, it was definitely clean and nicely appointed with coffeemaker and blowdryer.  The linens on the beds were perfect for a great sleep - white as snow sheets, beautiful white puckered top sheet that looked like a duvet cover (instead of a yucky bedspread), and the sheets even smelled good every time I turned over as if they had been spritzed by scented sheet spray!!  
+The carpets were fairly new (or looked it), the TV was a nice flat-screen TV, it had a microwave and small refrigerator which was useful to keep sodas cold.  The hotel was close to what I needed (a gas station with mini-mart, the Antelope Valley mall where I did a little shopping and restaurants). 
+The only thing I can say that wasn't "great" was I was on the freeway side and the noise during the day was pretty bad, but at night I really didn't notice it. 
+This was definitely...I stayed in 3 different hotels during my 3 night stay in Southern California.  The Courtyard by Marriott in Palmdale, CA was the best by far!!  The staff were more than friendly from Michelina who checked me in to another staff member who was there later as I walked by to the housekeeping staff who asked me in the hallway as I was leaving if my room was up to my standards (which it was!).  Although the bathroom may not be as updated as some hotels, it was definitely clean and nicely appointed with coffeemaker and blowdryer.  The linens on the beds were perfect for a great sleep - white as snow sheets, beautiful white puckered top sheet that looked like a duvet cover (instead of a yucky bedspread), and the sheets even smelled good every time I turned over as if they had been spritzed by scented sheet spray!!  The carpets were fairly new (or looked it), the TV was a nice flat-screen TV, it had a microwave and small refrigerator which was useful to keep sodas cold.  The hotel was close to what I needed (a gas station with mini-mart, the Antelope Valley mall where I did a little shopping and restaurants). The only thing I can say that wasn't "great" was I was on the freeway side and the noise during the day was pretty bad, but at night I really didn't notice it. This was definitely the best hotel I stayed in during my 3-night stay in Southern California.  Thank you Courtyard by Marriott in Palmdale!!  I definitely recommend you!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>I stayed in 3 different hotels during my 3 night stay in Southern California.  The Courtyard by Marriott in Palmdale, CA was the best by far!!  The staff were more than friendly from Michelina who checked me in to another staff member who was there later as I walked by to the housekeeping staff who asked me in the hallway as I was leaving if my room was up to my standards (which it was!).  Although the bathroom may not be as updated as some hotels, it was definitely clean and nicely appointed with coffeemaker and blowdryer.  The linens on the beds were perfect for a great sleep - white as snow sheets, beautiful white puckered top sheet that looked like a duvet cover (instead of a yucky bedspread), and the sheets even smelled good every time I turned over as if they had been spritzed by scented sheet spray!!  
+The carpets were fairly new (or looked it), the TV was a nice flat-screen TV, it had a microwave and small refrigerator which was useful to keep sodas cold.  The hotel was close to what I needed (a gas station with mini-mart, the Antelope Valley mall where I did a little shopping and restaurants). 
+The only thing I can say that wasn't "great" was I was on the freeway side and the noise during the day was pretty bad, but at night I really didn't notice it. 
+This was definitely...I stayed in 3 different hotels during my 3 night stay in Southern California.  The Courtyard by Marriott in Palmdale, CA was the best by far!!  The staff were more than friendly from Michelina who checked me in to another staff member who was there later as I walked by to the housekeeping staff who asked me in the hallway as I was leaving if my room was up to my standards (which it was!).  Although the bathroom may not be as updated as some hotels, it was definitely clean and nicely appointed with coffeemaker and blowdryer.  The linens on the beds were perfect for a great sleep - white as snow sheets, beautiful white puckered top sheet that looked like a duvet cover (instead of a yucky bedspread), and the sheets even smelled good every time I turned over as if they had been spritzed by scented sheet spray!!  The carpets were fairly new (or looked it), the TV was a nice flat-screen TV, it had a microwave and small refrigerator which was useful to keep sodas cold.  The hotel was close to what I needed (a gas station with mini-mart, the Antelope Valley mall where I did a little shopping and restaurants). The only thing I can say that wasn't "great" was I was on the freeway side and the noise during the day was pretty bad, but at night I really didn't notice it. This was definitely the best hotel I stayed in during my 3-night stay in Southern California.  Thank you Courtyard by Marriott in Palmdale!!  I definitely recommend you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r198462790-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>198462790</t>
+  </si>
+  <si>
+    <t>03/23/2014</t>
+  </si>
+  <si>
+    <t>Just OK.......</t>
+  </si>
+  <si>
+    <t>This hotel seems to need a "make over" badly. It appears more like a motel.However, clean, and friendly front desk.Rooms have no real atmosphere....the bed linens, however were good.The Hilton Garden Inn, in the same vacinity is much better.MoreShow less</t>
+  </si>
+  <si>
+    <t>Daniel L, General Manager at Courtyard Palmdale, responded to this reviewResponded March 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2014</t>
+  </si>
+  <si>
+    <t>This hotel seems to need a "make over" badly. It appears more like a motel.However, clean, and friendly front desk.Rooms have no real atmosphere....the bed linens, however were good.The Hilton Garden Inn, in the same vacinity is much better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r186598067-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>186598067</t>
+  </si>
+  <si>
+    <t>12/02/2013</t>
+  </si>
+  <si>
+    <t>Customer Service Exemplary!!!  Hotel itself average to sub-par.....2.5/5.00</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here for a night after driving our family back to Lancaster, CA after a Thanksgiving Holiday in Santa Clara, CA.  I stayed here in 2011 during their remodel due to my father's illness (thank God he is better and T-Day was spent with him!).  
+This review separates customer service from the actual hotel which sadly is lacking after the remodel "touches" granted the lobby area does look like a miniature version of what you see in most of the newer Courtyards (flat screen TVs, modern, sleek and minimalist interior design).  The remodel isn't noticeable elsewhere in the hotel.
+CUSTOMER SERVICE (5/5 possible points): These our some of the nicest hotel employees that I have encountered in many years of travel and a definite upgrade from the pre-remodel crew.  There was one excellent clerk who was by far the nicest during my 2011 stay...but they have surrounded her with many equally nice and effective clerks for 2013.  Another made my wife and I excellent Starbucks Decaf coffee after our 10pm-ish check in, she seemed to be a wonderful person and we were extremely happy with her generosity and the coffee was excellent!  Even the security guard was nice and on top of things (this is located in Palmdale-Lancaster which has developed a significant crime problem over the last 15-20 years).  
+The service people are a 5 out of 5 easily and the managers or general manager...My wife and I stayed here for a night after driving our family back to Lancaster, CA after a Thanksgiving Holiday in Santa Clara, CA.  I stayed here in 2011 during their remodel due to my father's illness (thank God he is better and T-Day was spent with him!).  This review separates customer service from the actual hotel which sadly is lacking after the remodel "touches" granted the lobby area does look like a miniature version of what you see in most of the newer Courtyards (flat screen TVs, modern, sleek and minimalist interior design).  The remodel isn't noticeable elsewhere in the hotel.CUSTOMER SERVICE (5/5 possible points): These our some of the nicest hotel employees that I have encountered in many years of travel and a definite upgrade from the pre-remodel crew.  There was one excellent clerk who was by far the nicest during my 2011 stay...but they have surrounded her with many equally nice and effective clerks for 2013.  Another made my wife and I excellent Starbucks Decaf coffee after our 10pm-ish check in, she seemed to be a wonderful person and we were extremely happy with her generosity and the coffee was excellent!  Even the security guard was nice and on top of things (this is located in Palmdale-Lancaster which has developed a significant crime problem over the last 15-20 years).  The service people are a 5 out of 5 easily and the managers or general manager need to be complimented for hiring a sharp and genuinely friendly crew.  To be honest, they make it worth the stay but the property itself is a step behind others of the same hotel class.THE PROPERTY (2/5): So to be honest, this Courtyard is the quality of a decent Fairfield which is a on a lower rung of the Marriott family.  Also, it is an older property so much of what I say here can not be changed....but still so many issues:1) The elevator is filthy by Courtyard standards....it would be acceptable or even nice for a Red Roof or Super 8...but it could be improved especially since there was a remodel in the lobby.2) The room's walls are paper thin, early morning activity in neighboring rooms of the floor above seems like listening to military maneuvers or organized marching.  Its loud and wakes you up.3) So too does the noise from the freeway.  We stayed at a newer Courtyard in Campbell, CA for three nights right by the freeway and slept like babies.  Don't know what they can do since they have done a remodel already.4) The rooms really are small for a Courtyard again, they are the size of a Fairfield Inn.  Fortunately we were able to take advantage of an "off-season" good deal, but I usually don't stay here because they tend to be overpriced.  (When I stayed in 2011 it was a good deal due to their remodel and lower pricing).5) The beds were soft and seemed to be older mattresses.....very difficult to find that "sweet" spot and get a good nights rest especially with all the noise in the morning between people checking out and the maid service cleaning rooms and knocking on doors.6) The temperature unit was "tricky."  It was one of those wall units vs. the central air/heat you see in other Marriotts [the wall mount is there but it doesn't work].  The unit is a little slow to start and works on an intermittent cycle that makes it hard to change the temperature if for example it gets entirely too toasty.7) It is really warm and stuffy in this hotel, when we went outside the Antelope Valley fall weather was much more refreshing.FINAL ANALYSIS: The SERVICE IS OUTSTANDING and the clerks here are exemplary....excellent people and I am sure the same holds true for management!!!  The service makes it worth staying if you you are able to secure a good deal and afford the rates.  Otherwise, as stated, the property itself is still not equal to other Courtyards and if this is your expectation you will be let down.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Daniel L, General Manager at Courtyard Palmdale, responded to this reviewResponded December 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 6, 2013</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here for a night after driving our family back to Lancaster, CA after a Thanksgiving Holiday in Santa Clara, CA.  I stayed here in 2011 during their remodel due to my father's illness (thank God he is better and T-Day was spent with him!).  
+This review separates customer service from the actual hotel which sadly is lacking after the remodel "touches" granted the lobby area does look like a miniature version of what you see in most of the newer Courtyards (flat screen TVs, modern, sleek and minimalist interior design).  The remodel isn't noticeable elsewhere in the hotel.
+CUSTOMER SERVICE (5/5 possible points): These our some of the nicest hotel employees that I have encountered in many years of travel and a definite upgrade from the pre-remodel crew.  There was one excellent clerk who was by far the nicest during my 2011 stay...but they have surrounded her with many equally nice and effective clerks for 2013.  Another made my wife and I excellent Starbucks Decaf coffee after our 10pm-ish check in, she seemed to be a wonderful person and we were extremely happy with her generosity and the coffee was excellent!  Even the security guard was nice and on top of things (this is located in Palmdale-Lancaster which has developed a significant crime problem over the last 15-20 years).  
+The service people are a 5 out of 5 easily and the managers or general manager...My wife and I stayed here for a night after driving our family back to Lancaster, CA after a Thanksgiving Holiday in Santa Clara, CA.  I stayed here in 2011 during their remodel due to my father's illness (thank God he is better and T-Day was spent with him!).  This review separates customer service from the actual hotel which sadly is lacking after the remodel "touches" granted the lobby area does look like a miniature version of what you see in most of the newer Courtyards (flat screen TVs, modern, sleek and minimalist interior design).  The remodel isn't noticeable elsewhere in the hotel.CUSTOMER SERVICE (5/5 possible points): These our some of the nicest hotel employees that I have encountered in many years of travel and a definite upgrade from the pre-remodel crew.  There was one excellent clerk who was by far the nicest during my 2011 stay...but they have surrounded her with many equally nice and effective clerks for 2013.  Another made my wife and I excellent Starbucks Decaf coffee after our 10pm-ish check in, she seemed to be a wonderful person and we were extremely happy with her generosity and the coffee was excellent!  Even the security guard was nice and on top of things (this is located in Palmdale-Lancaster which has developed a significant crime problem over the last 15-20 years).  The service people are a 5 out of 5 easily and the managers or general manager need to be complimented for hiring a sharp and genuinely friendly crew.  To be honest, they make it worth the stay but the property itself is a step behind others of the same hotel class.THE PROPERTY (2/5): So to be honest, this Courtyard is the quality of a decent Fairfield which is a on a lower rung of the Marriott family.  Also, it is an older property so much of what I say here can not be changed....but still so many issues:1) The elevator is filthy by Courtyard standards....it would be acceptable or even nice for a Red Roof or Super 8...but it could be improved especially since there was a remodel in the lobby.2) The room's walls are paper thin, early morning activity in neighboring rooms of the floor above seems like listening to military maneuvers or organized marching.  Its loud and wakes you up.3) So too does the noise from the freeway.  We stayed at a newer Courtyard in Campbell, CA for three nights right by the freeway and slept like babies.  Don't know what they can do since they have done a remodel already.4) The rooms really are small for a Courtyard again, they are the size of a Fairfield Inn.  Fortunately we were able to take advantage of an "off-season" good deal, but I usually don't stay here because they tend to be overpriced.  (When I stayed in 2011 it was a good deal due to their remodel and lower pricing).5) The beds were soft and seemed to be older mattresses.....very difficult to find that "sweet" spot and get a good nights rest especially with all the noise in the morning between people checking out and the maid service cleaning rooms and knocking on doors.6) The temperature unit was "tricky."  It was one of those wall units vs. the central air/heat you see in other Marriotts [the wall mount is there but it doesn't work].  The unit is a little slow to start and works on an intermittent cycle that makes it hard to change the temperature if for example it gets entirely too toasty.7) It is really warm and stuffy in this hotel, when we went outside the Antelope Valley fall weather was much more refreshing.FINAL ANALYSIS: The SERVICE IS OUTSTANDING and the clerks here are exemplary....excellent people and I am sure the same holds true for management!!!  The service makes it worth staying if you you are able to secure a good deal and afford the rates.  Otherwise, as stated, the property itself is still not equal to other Courtyards and if this is your expectation you will be let down.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r178774032-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>178774032</t>
+  </si>
+  <si>
+    <t>09/26/2013</t>
+  </si>
+  <si>
+    <t>Nice Stay but no elevator</t>
+  </si>
+  <si>
+    <t>I stayed here other than the hotel next to it because I wanted to try something new.  I read in the other reviews about the elevator being out but I thought that can't still be the case.  Well guess what.  No elevator.  I checked in and went to get my bag to take to my room.  I went to find the elevator and the lady snapped and said you'll have to climb the stairs.  No sorry, I apologize, anything.  Also at check in I showed all my ID and the lady who was very nice said something I found funny.  "Okay well guess I will trust you"   I didn't quite understand that but maybe made to much out of it.  The hotel is beautiful and clean but I didn't like you weren't served a complimentary breakfast as the hotel across the way does.  I stay at many hotels and have never not been offered a complimentary breakfast.  It's a nice place to stay but just check other hotels in the area if you want breakfast and a working elevator.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Daniel L, General Manager at Courtyard Palmdale, responded to this reviewResponded October 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2013</t>
+  </si>
+  <si>
+    <t>I stayed here other than the hotel next to it because I wanted to try something new.  I read in the other reviews about the elevator being out but I thought that can't still be the case.  Well guess what.  No elevator.  I checked in and went to get my bag to take to my room.  I went to find the elevator and the lady snapped and said you'll have to climb the stairs.  No sorry, I apologize, anything.  Also at check in I showed all my ID and the lady who was very nice said something I found funny.  "Okay well guess I will trust you"   I didn't quite understand that but maybe made to much out of it.  The hotel is beautiful and clean but I didn't like you weren't served a complimentary breakfast as the hotel across the way does.  I stay at many hotels and have never not been offered a complimentary breakfast.  It's a nice place to stay but just check other hotels in the area if you want breakfast and a working elevator.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r178762670-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>178762670</t>
+  </si>
+  <si>
+    <t>Excellent customer service!!</t>
+  </si>
+  <si>
+    <t>Everyone at this hotel excels in  customer service!!  All are friendly,  polite, helpful, &amp; courteous!  Jessica,  at the front desk, was so personable &amp; accommodating from the  first moment.  The bistro staff was terrific as well.  One of the best Courtyards we've ever experienced! MoreShow less</t>
+  </si>
+  <si>
+    <t>Everyone at this hotel excels in  customer service!!  All are friendly,  polite, helpful, &amp; courteous!  Jessica,  at the front desk, was so personable &amp; accommodating from the  first moment.  The bistro staff was terrific as well.  One of the best Courtyards we've ever experienced! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r169554290-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>169554290</t>
+  </si>
+  <si>
+    <t>07/28/2013</t>
+  </si>
+  <si>
+    <t>watering eyes &amp; elevator 'still out'</t>
+  </si>
+  <si>
+    <t>I arrived late (10:30 pm), and walked in the lobby into a blast of chlorine-cleaner air; my eyes started watering instantly, and 45 minutes later are still watering and painful.  The clerk at the desk was very professional and very friendly, but informed me that the elevator was 'still out', and would not be fixed until the next day (9, maybe 9:30 am...). I received a room on the 3rd floor, and carried my luggage up in two loads.  Had I arrived earlier, I would not have checked in.    
+I passed two elderly couples pulling themselves up the stairs one step at a time and resting on the landings, and one younger couple lugging their bags up to their room.  For the room price (not cheap), why not have someone onsite to assist with luggage when the elevator is down?  Especially as it had been down for hours, apparently.   
+My room is very small and plain (economy look), but neat and visually clean, though it smells so strongly of cleaner that I have had to open the window and keep it open.  It's been open 45 minutes, and the smell is slightly better, but it seems I will have to leave it open all night it I want to be able to sleep.   Fortunately, I brought ear plugs so I won't hear the freeway, and am on the 3rd floor, so I should be safe with the window open all...I arrived late (10:30 pm), and walked in the lobby into a blast of chlorine-cleaner air; my eyes started watering instantly, and 45 minutes later are still watering and painful.  The clerk at the desk was very professional and very friendly, but informed me that the elevator was 'still out', and would not be fixed until the next day (9, maybe 9:30 am...). I received a room on the 3rd floor, and carried my luggage up in two loads.  Had I arrived earlier, I would not have checked in.    I passed two elderly couples pulling themselves up the stairs one step at a time and resting on the landings, and one younger couple lugging their bags up to their room.  For the room price (not cheap), why not have someone onsite to assist with luggage when the elevator is down?  Especially as it had been down for hours, apparently.   My room is very small and plain (economy look), but neat and visually clean, though it smells so strongly of cleaner that I have had to open the window and keep it open.  It's been open 45 minutes, and the smell is slightly better, but it seems I will have to leave it open all night it I want to be able to sleep.   Fortunately, I brought ear plugs so I won't hear the freeway, and am on the 3rd floor, so I should be safe with the window open all night. Sadly, while the clerk at the front desk was very helpful and professional, she could do nothing about these circumstances except allow me to change my stay to a single night. .MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Daniel L, General Manager at Courtyard Palmdale, responded to this reviewResponded August 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2013</t>
+  </si>
+  <si>
+    <t>I arrived late (10:30 pm), and walked in the lobby into a blast of chlorine-cleaner air; my eyes started watering instantly, and 45 minutes later are still watering and painful.  The clerk at the desk was very professional and very friendly, but informed me that the elevator was 'still out', and would not be fixed until the next day (9, maybe 9:30 am...). I received a room on the 3rd floor, and carried my luggage up in two loads.  Had I arrived earlier, I would not have checked in.    
+I passed two elderly couples pulling themselves up the stairs one step at a time and resting on the landings, and one younger couple lugging their bags up to their room.  For the room price (not cheap), why not have someone onsite to assist with luggage when the elevator is down?  Especially as it had been down for hours, apparently.   
+My room is very small and plain (economy look), but neat and visually clean, though it smells so strongly of cleaner that I have had to open the window and keep it open.  It's been open 45 minutes, and the smell is slightly better, but it seems I will have to leave it open all night it I want to be able to sleep.   Fortunately, I brought ear plugs so I won't hear the freeway, and am on the 3rd floor, so I should be safe with the window open all...I arrived late (10:30 pm), and walked in the lobby into a blast of chlorine-cleaner air; my eyes started watering instantly, and 45 minutes later are still watering and painful.  The clerk at the desk was very professional and very friendly, but informed me that the elevator was 'still out', and would not be fixed until the next day (9, maybe 9:30 am...). I received a room on the 3rd floor, and carried my luggage up in two loads.  Had I arrived earlier, I would not have checked in.    I passed two elderly couples pulling themselves up the stairs one step at a time and resting on the landings, and one younger couple lugging their bags up to their room.  For the room price (not cheap), why not have someone onsite to assist with luggage when the elevator is down?  Especially as it had been down for hours, apparently.   My room is very small and plain (economy look), but neat and visually clean, though it smells so strongly of cleaner that I have had to open the window and keep it open.  It's been open 45 minutes, and the smell is slightly better, but it seems I will have to leave it open all night it I want to be able to sleep.   Fortunately, I brought ear plugs so I won't hear the freeway, and am on the 3rd floor, so I should be safe with the window open all night. Sadly, while the clerk at the front desk was very helpful and professional, she could do nothing about these circumstances except allow me to change my stay to a single night. .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r160324289-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>160324289</t>
+  </si>
+  <si>
+    <t>05/10/2013</t>
+  </si>
+  <si>
+    <t>Terrific service</t>
+  </si>
+  <si>
+    <t>Stayed three nights the staff were terrific and helped me out with 'questions, in house breakfast was delicious and rooms were clean and for me spacious, I will be back in 2014 and this will stay for alot longer.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Daniel L, General Manager at Courtyard Palmdale, responded to this reviewResponded May 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2013</t>
+  </si>
+  <si>
+    <t>Stayed three nights the staff were terrific and helped me out with 'questions, in house breakfast was delicious and rooms were clean and for me spacious, I will be back in 2014 and this will stay for alot longer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r156524611-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>156524611</t>
+  </si>
+  <si>
+    <t>04/03/2013</t>
+  </si>
+  <si>
+    <t>Excellent customer service</t>
+  </si>
+  <si>
+    <t>The staff here was the best I have ever encountered.  Lauren and Helen went out of their way to followup on requests - for directions to hiking trails, after hour coffee, help with printing at the business center.  My colleagues stayed at another non Marriott hotel nearby.  I debated switching, but usually prefer Marriotts.  I'm glad I stayed here, due to the staff!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Daniel L, Manager at Courtyard Palmdale, responded to this reviewResponded April 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2013</t>
+  </si>
+  <si>
+    <t>The staff here was the best I have ever encountered.  Lauren and Helen went out of their way to followup on requests - for directions to hiking trails, after hour coffee, help with printing at the business center.  My colleagues stayed at another non Marriott hotel nearby.  I debated switching, but usually prefer Marriotts.  I'm glad I stayed here, due to the staff!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r152079656-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>152079656</t>
+  </si>
+  <si>
+    <t>02/13/2013</t>
+  </si>
+  <si>
+    <t>Great if you like freeway noise</t>
+  </si>
+  <si>
+    <t>First, let me say that the staff here is fantastic and among the friendliest that I have ever encountered.  Everybody was cheerful and helpful and the property was clean and had the basics covered.  I appreciated the open lobby, variety of newspapers, punctual wake-up call and the easy check out.  The room was a bit dated and its layout strange but it was functional.Breakfast at the Bistro was served quickly and with a smile but it didn't rise above anything offered at a lesser Marriott property.  In fact, I expected more for a prepared meal and left a good bit on the plate.  Not a value proposition - a cafe or even a Denny's offers more for less.Now to the noise.  I was located on the second floor in an odd-numbered room.  It seemed like the freeway was right outside the sliding glass doors and I had a very difficult time sleeping.  I have never stayed at a place where the road noise was so loud.  I won't be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Daniel L, General Manager at Courtyard Palmdale, responded to this reviewResponded February 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2013</t>
+  </si>
+  <si>
+    <t>First, let me say that the staff here is fantastic and among the friendliest that I have ever encountered.  Everybody was cheerful and helpful and the property was clean and had the basics covered.  I appreciated the open lobby, variety of newspapers, punctual wake-up call and the easy check out.  The room was a bit dated and its layout strange but it was functional.Breakfast at the Bistro was served quickly and with a smile but it didn't rise above anything offered at a lesser Marriott property.  In fact, I expected more for a prepared meal and left a good bit on the plate.  Not a value proposition - a cafe or even a Denny's offers more for less.Now to the noise.  I was located on the second floor in an odd-numbered room.  It seemed like the freeway was right outside the sliding glass doors and I had a very difficult time sleeping.  I have never stayed at a place where the road noise was so loud.  I won't be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r148428982-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>148428982</t>
+  </si>
+  <si>
+    <t>12/31/2012</t>
+  </si>
+  <si>
+    <t>Amazing Staff</t>
+  </si>
+  <si>
+    <t>My family and I stayed at this hotel while visiting family for the holidays. The staff there was great, they were so helpful in giving us information about the area, places to eat and things to do. The maid did a great job with our room and even put extra towels for us without having to ask. The manager came out checked with us while we were eating breakfast to ensure we had everything we needed and that our stay was good, just above and beyond service. This will be the hotel we stay at everytime we visit the area.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r147352347-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>147352347</t>
+  </si>
+  <si>
+    <t>12/12/2012</t>
+  </si>
+  <si>
+    <t>Very dependable place</t>
+  </si>
+  <si>
+    <t>Rooms are small, and need updating soon, but the rest of the property is new  what you expect from Courtyard. The staff is above and beyond in helpfulness and friendliness. And the bedding is what you can expect from all marriotts- awesome MoreShow less</t>
+  </si>
+  <si>
+    <t>Daniel L, General Manager at Courtyard Palmdale, responded to this reviewResponded January 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2013</t>
+  </si>
+  <si>
+    <t>Rooms are small, and need updating soon, but the rest of the property is new  what you expect from Courtyard. The staff is above and beyond in helpfulness and friendliness. And the bedding is what you can expect from all marriotts- awesome More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r140101951-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>140101951</t>
+  </si>
+  <si>
+    <t>09/12/2012</t>
+  </si>
+  <si>
+    <t>Solid Marriott Courtyard Quality</t>
+  </si>
+  <si>
+    <t>This is a solid quality Marriott hotel.Well located near the Antelope Valley mall with a lot of shopping and dining options.Check-in was friendly and efficient.  The lobby is renovated and functional with a brasserie style cafe for breakfast and light meals.The rooms were standard Courtyard rooms - very comfortable.One cautionary note - this hotel gets very full and is often booked as are many of the hotels in Palmdale so I had to change hotels a couple of times.Be sure to book early.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r135983320-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>135983320</t>
+  </si>
+  <si>
+    <t>08/01/2012</t>
+  </si>
+  <si>
+    <t>breath of fresh air</t>
+  </si>
+  <si>
+    <t>I was traveling with my wife and 20 month year old. we had been having a very difficult trip. Other hotels were rude and unaccommodating. The staff at this hotel was beyond nice. They go above and beyond. EVERYONE was polite and helpful. The room was clean and the facilities were great. IF we return to Palmdale we will definitely be staying there again. The beds were comfortable and my son felt at home. ThanksMoreShow less</t>
+  </si>
+  <si>
+    <t>Daniel L, General Manager at Courtyard Palmdale, responded to this reviewResponded September 7, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2012</t>
+  </si>
+  <si>
+    <t>I was traveling with my wife and 20 month year old. we had been having a very difficult trip. Other hotels were rude and unaccommodating. The staff at this hotel was beyond nice. They go above and beyond. EVERYONE was polite and helpful. The room was clean and the facilities were great. IF we return to Palmdale we will definitely be staying there again. The beds were comfortable and my son felt at home. ThanksMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r133871489-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>133871489</t>
+  </si>
+  <si>
+    <t>07/09/2012</t>
+  </si>
+  <si>
+    <t>What you'd expect from Marriott:  consistency</t>
+  </si>
+  <si>
+    <t>We had been driving the San Andreas Fault and stopped for the evening in Palmdale so we could drive by the Skunkworks and pretend we know something about what goes on there.  We could find no hotel in town that wasn't a bland chain style lodging, so we tried Marriott.  The Residence Inn across the parking lot was full-up with aerospace types, so we were directed across the way to the Courtyard.  Courteous youthful staff and the usual clean, consistent quality Marriott rooms.  We amused ourselves in a town without much amusement by asking all the hotel staff and guests we met if they had ever seen a UFO.  We got some very interesting answers, which elicited conversation between staff of what exactly they do when they're out late at night in the desert.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>We had been driving the San Andreas Fault and stopped for the evening in Palmdale so we could drive by the Skunkworks and pretend we know something about what goes on there.  We could find no hotel in town that wasn't a bland chain style lodging, so we tried Marriott.  The Residence Inn across the parking lot was full-up with aerospace types, so we were directed across the way to the Courtyard.  Courteous youthful staff and the usual clean, consistent quality Marriott rooms.  We amused ourselves in a town without much amusement by asking all the hotel staff and guests we met if they had ever seen a UFO.  We got some very interesting answers, which elicited conversation between staff of what exactly they do when they're out late at night in the desert.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r130304009-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>130304009</t>
+  </si>
+  <si>
+    <t>05/20/2012</t>
+  </si>
+  <si>
+    <t>Made me feel at home</t>
+  </si>
+  <si>
+    <t>I travel for work all the time.  My stay here in mid May 2012 was excellent.  Every single employee I met was welcoming, helpful, and attentive.  My food at the Bistro was great.  They catered to my food quirks.  One night I had noisy neighbors, but they calmed down by 10:00.  I would have called the front desk otherwise.  I highly recommend this hotel for the working professional.  I particularly appreciated the fitness center with equipment that works.  So many hotels do not service their equipment.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r128440799-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>128440799</t>
+  </si>
+  <si>
+    <t>04/23/2012</t>
+  </si>
+  <si>
+    <t>Very nice clean place and good value</t>
+  </si>
+  <si>
+    <t>We had an overnight stay this past weekend at the Marriott in Palmdale.  It was very clean, comfortable, and easy to find.  The breakfast had a mixture of hot and cold items. All rooms are suites.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r128007443-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>128007443</t>
+  </si>
+  <si>
+    <t>04/16/2012</t>
+  </si>
+  <si>
+    <t>Just OK</t>
+  </si>
+  <si>
+    <t>Stayed here for a soccer tourney. Most other comparable hotels offer, at the very least, a continental breakfast. This hotel did not. They have a brand new "Bistro" but the hours are scattered and they never had a full menu ready to go. Each morning we ordered boiled eggs and we had to wait 25 minutes EACH DAY...for boiled eggs!! The kids enjoyed the indoor pool, but the jacuzzi had very weak jets and the temperature was too hot to even step into the first night, and slightly cooler than bath water the second night. The rooms were comfy and spacious. Overall...just an OK visit. Not what I expected for the price. I booked somewhere else for the following weekend.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for a soccer tourney. Most other comparable hotels offer, at the very least, a continental breakfast. This hotel did not. They have a brand new "Bistro" but the hours are scattered and they never had a full menu ready to go. Each morning we ordered boiled eggs and we had to wait 25 minutes EACH DAY...for boiled eggs!! The kids enjoyed the indoor pool, but the jacuzzi had very weak jets and the temperature was too hot to even step into the first night, and slightly cooler than bath water the second night. The rooms were comfy and spacious. Overall...just an OK visit. Not what I expected for the price. I booked somewhere else for the following weekend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r121904302-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>121904302</t>
+  </si>
+  <si>
+    <t>12/19/2011</t>
+  </si>
+  <si>
+    <t>Decent</t>
+  </si>
+  <si>
+    <t>Stayed fairly inexpensive (thru priceline), for wedding. Nice looking, comfortable beds, center to all shopping and eating. Continental breakfast, very good. Friendly staff very helpful.  Easy access parking. Had indoor pool and hot tub.  Cons: carpet in halls had odor, between beds and nightstands was dirty, found by accident someones boxer shorts behind dresser. Hot tub jets were very minimal. Pool not heated. There was main office remodeling going on.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r118429158-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>118429158</t>
+  </si>
+  <si>
+    <t>09/21/2011</t>
+  </si>
+  <si>
+    <t>Okay for Quick Overnight Stay</t>
+  </si>
+  <si>
+    <t>Meh. That one word pretty much sums up my feelings towards the Courtyard in Palmdale. I spent one night here en route from Southern California to Northern California, and it's decent enough at a cheap price. Otherwise a Motel 6 will do just fine.The premises are extremely nondescript. There is free parking and free Wi-Fi, but breakfast is not included. (I went to the Coffee Bean &amp; Tea Leaf on the other side of the freeway.) My room seemed smallish, so I would not want to stay here for more than one or two nights. Perhaps a suite or room with a balcony would be more comfortable. My room didn't suffer from excessive road noise because it faces towards the southeast.Front desk staff was fine, but I'm not so sure about the other guests. While taking a quick dip in the hot tub, I spotted a small group of people return from some unknown (party) location. One of the proceeded to vomit in the hallway. Charming. I get the impression the people of Palmdale have nothing better to do than get drunk at the local Courtyard. There seemed to be plenty of vacant rooms during my visit, though, so you probably won't get stuck in a room next to them. Good luck.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>Zane T, Manager at Courtyard Palmdale, responded to this reviewResponded November 30, 2011</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2011</t>
+  </si>
+  <si>
+    <t>Meh. That one word pretty much sums up my feelings towards the Courtyard in Palmdale. I spent one night here en route from Southern California to Northern California, and it's decent enough at a cheap price. Otherwise a Motel 6 will do just fine.The premises are extremely nondescript. There is free parking and free Wi-Fi, but breakfast is not included. (I went to the Coffee Bean &amp; Tea Leaf on the other side of the freeway.) My room seemed smallish, so I would not want to stay here for more than one or two nights. Perhaps a suite or room with a balcony would be more comfortable. My room didn't suffer from excessive road noise because it faces towards the southeast.Front desk staff was fine, but I'm not so sure about the other guests. While taking a quick dip in the hot tub, I spotted a small group of people return from some unknown (party) location. One of the proceeded to vomit in the hallway. Charming. I get the impression the people of Palmdale have nothing better to do than get drunk at the local Courtyard. There seemed to be plenty of vacant rooms during my visit, though, so you probably won't get stuck in a room next to them. Good luck.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r118070192-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>118070192</t>
+  </si>
+  <si>
+    <t>09/13/2011</t>
+  </si>
+  <si>
+    <t>A good place for a short stay</t>
+  </si>
+  <si>
+    <t>The staff was friendly, the room was pleasant and the price was moderateMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>The staff was friendly, the room was pleasant and the price was moderateMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r60440189-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>60440189</t>
+  </si>
+  <si>
+    <t>04/05/2010</t>
+  </si>
+  <si>
+    <t>Fine for Overnight Stay</t>
+  </si>
+  <si>
+    <t>We stayed here on a drive from Arizona to Northern California.  Arrived late (2 a.m.) and our room was ready.  Had earlier requested a room close to the lobby due to our late arrival, and request was honored and ready upon check-in.  Front desk clerk was exceptionally friendly and professional.  It really showed.  Room was adequate, although a bit worn.  The housekeeping staff needs to vacuum the carpet edges up against the baseboards...lots of dust.  Other than that, the room was fine.  Breakfast was adequate, although nothing great.  The waitress/hostess, however, was also exceptionally friendly and eager to accomodate any requests we had.  Pleased with this stay and would not hesitate to stay again if passing through.  Definitely not a vacation resort, so look elsewhere if that is what you're looking for.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>We stayed here on a drive from Arizona to Northern California.  Arrived late (2 a.m.) and our room was ready.  Had earlier requested a room close to the lobby due to our late arrival, and request was honored and ready upon check-in.  Front desk clerk was exceptionally friendly and professional.  It really showed.  Room was adequate, although a bit worn.  The housekeeping staff needs to vacuum the carpet edges up against the baseboards...lots of dust.  Other than that, the room was fine.  Breakfast was adequate, although nothing great.  The waitress/hostess, however, was also exceptionally friendly and eager to accomodate any requests we had.  Pleased with this stay and would not hesitate to stay again if passing through.  Definitely not a vacation resort, so look elsewhere if that is what you're looking for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r33983255-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>33983255</t>
+  </si>
+  <si>
+    <t>07/05/2009</t>
+  </si>
+  <si>
+    <t>Nice Clean Hotel</t>
+  </si>
+  <si>
+    <t>Hotel very nice and clean and comfortable.  Has nice indoor pool, but it is very hot sitting in there watching the kids swim.  Very clean and well kept - clean beds and linens.  Very  nice staff.  Lives up to the Marriott name.   One problem was that we asked for ajoining rooms which we did get, but the doors between the two rooms would only open about 6 inches because there was furniture blocking both of the doors on either side from opening.    Had  a king size bed and sleeper couch.  Room was kind of small for these beds.  I would recommend this hotel and stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>Hotel very nice and clean and comfortable.  Has nice indoor pool, but it is very hot sitting in there watching the kids swim.  Very clean and well kept - clean beds and linens.  Very  nice staff.  Lives up to the Marriott name.   One problem was that we asked for ajoining rooms which we did get, but the doors between the two rooms would only open about 6 inches because there was furniture blocking both of the doors on either side from opening.    Had  a king size bed and sleeper couch.  Room was kind of small for these beds.  I would recommend this hotel and stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r30223367-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>30223367</t>
+  </si>
+  <si>
+    <t>05/18/2009</t>
+  </si>
+  <si>
+    <t>Comfortable beds</t>
+  </si>
+  <si>
+    <t>This hotel and room was very clean and spacious. The beds were super comfortable. Modern air conditioning. On complaint is that I had a room on the 3rd floor facing the highway. I had a beautiful view of the moutains but also had highway noise which kept me up much of the night.Free wireless which came in handy because I had to download software for meeting.Business station in the lobby. Pool and exercise room looked decent but I was traveling alone so didn't use it.The breakfast buffet was an extra $10 so we skipped this. Free hot coffee and cold water. Free newspapers.</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r8218378-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>8218378</t>
+  </si>
+  <si>
+    <t>07/21/2007</t>
+  </si>
+  <si>
+    <t>Courtyard Palmdale- Nice hotel</t>
+  </si>
+  <si>
+    <t>We stayed in the Courtyard Palmdale for 1 night because my husband and son took a Driving performance class at The Fast Lane Racing School within 30 minutes from here.  Courtyard Palmdale was a very clean and well run hotel.  The hotel was very clean not only in the rooms but in all parts of the hotel that we seen.  The staff is very friendly and helpful when you had questions about the area. I would definitely  recommend this hotel to anyone.  They have a really good breakfast and the service is great. The decor of this hotel is nicely done. They are doing a great job in running this facility.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>We stayed in the Courtyard Palmdale for 1 night because my husband and son took a Driving performance class at The Fast Lane Racing School within 30 minutes from here.  Courtyard Palmdale was a very clean and well run hotel.  The hotel was very clean not only in the rooms but in all parts of the hotel that we seen.  The staff is very friendly and helpful when you had questions about the area. I would definitely  recommend this hotel to anyone.  They have a really good breakfast and the service is great. The decor of this hotel is nicely done. They are doing a great job in running this facility.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r3636010-Courtyard_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>3636010</t>
+  </si>
+  <si>
+    <t>07/04/2005</t>
+  </si>
+  <si>
+    <t>An Oasis in the Desert</t>
+  </si>
+  <si>
+    <t>We just returned from a softball tournament in the Lancaster/Palmdale area.  We had planned to stay elsewhere, but after hearing negative comments from our teammates who had come a day early, we walked into the Courtyard and threw ourselves on their mercy.  Luckily, they had a room and it was exactly what we needed.  Although more set up for the business traveller than for a family, the rooms and beds were very comfortable and quiet, the air conditioning was flawless, and it was clean, delightful, and SAFE.  The staff was helpful and pleasant.  Because of the tournament in town, the prices were a bit high, but by the end of the weekend we all agreed it was worth it.  If we ever pass through Lancaster again, either the Courtyard or the Residence Inn across from it will be our first call.MoreShow less</t>
+  </si>
+  <si>
+    <t>We just returned from a softball tournament in the Lancaster/Palmdale area.  We had planned to stay elsewhere, but after hearing negative comments from our teammates who had come a day early, we walked into the Courtyard and threw ourselves on their mercy.  Luckily, they had a room and it was exactly what we needed.  Although more set up for the business traveller than for a family, the rooms and beds were very comfortable and quiet, the air conditioning was flawless, and it was clean, delightful, and SAFE.  The staff was helpful and pleasant.  Because of the tournament in town, the prices were a bit high, but by the end of the weekend we all agreed it was worth it.  If we ever pass through Lancaster again, either the Courtyard or the Residence Inn across from it will be our first call.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2573,5451 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>54</v>
+      </c>
+      <c r="X5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>54</v>
+      </c>
+      <c r="X6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>54</v>
+      </c>
+      <c r="X7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>62</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>94</v>
+      </c>
+      <c r="X8" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>94</v>
+      </c>
+      <c r="X9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>94</v>
+      </c>
+      <c r="X10" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>82</v>
+      </c>
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>112</v>
+      </c>
+      <c r="X11" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>120</v>
+      </c>
+      <c r="X12" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>128</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>129</v>
+      </c>
+      <c r="X13" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" t="s">
+        <v>135</v>
+      </c>
+      <c r="L14" t="s">
+        <v>136</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>128</v>
+      </c>
+      <c r="O14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>137</v>
+      </c>
+      <c r="X14" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>141</v>
+      </c>
+      <c r="J15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" t="s">
+        <v>143</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>128</v>
+      </c>
+      <c r="O15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>137</v>
+      </c>
+      <c r="X15" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" t="s">
+        <v>147</v>
+      </c>
+      <c r="K16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L16" t="s">
+        <v>149</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>128</v>
+      </c>
+      <c r="O16" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>137</v>
+      </c>
+      <c r="X16" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>152</v>
+      </c>
+      <c r="J17" t="s">
+        <v>153</v>
+      </c>
+      <c r="K17" t="s">
+        <v>154</v>
+      </c>
+      <c r="L17" t="s">
+        <v>155</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>156</v>
+      </c>
+      <c r="O17" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>157</v>
+      </c>
+      <c r="X17" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>161</v>
+      </c>
+      <c r="J18" t="s">
+        <v>162</v>
+      </c>
+      <c r="K18" t="s">
+        <v>163</v>
+      </c>
+      <c r="L18" t="s">
+        <v>164</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>156</v>
+      </c>
+      <c r="O18" t="s">
+        <v>165</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>157</v>
+      </c>
+      <c r="X18" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>168</v>
+      </c>
+      <c r="J19" t="s">
+        <v>162</v>
+      </c>
+      <c r="K19" t="s">
+        <v>169</v>
+      </c>
+      <c r="L19" t="s">
+        <v>170</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>156</v>
+      </c>
+      <c r="O19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>157</v>
+      </c>
+      <c r="X19" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20" t="s">
+        <v>174</v>
+      </c>
+      <c r="K20" t="s">
+        <v>175</v>
+      </c>
+      <c r="L20" t="s">
+        <v>176</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>156</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>177</v>
+      </c>
+      <c r="X20" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>180</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>181</v>
+      </c>
+      <c r="J21" t="s">
+        <v>182</v>
+      </c>
+      <c r="K21" t="s">
+        <v>183</v>
+      </c>
+      <c r="L21" t="s">
+        <v>184</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>185</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>186</v>
+      </c>
+      <c r="X21" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>189</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>190</v>
+      </c>
+      <c r="J22" t="s">
+        <v>191</v>
+      </c>
+      <c r="K22" t="s">
+        <v>192</v>
+      </c>
+      <c r="L22" t="s">
+        <v>193</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>194</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>195</v>
+      </c>
+      <c r="X22" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>198</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>199</v>
+      </c>
+      <c r="J23" t="s">
+        <v>200</v>
+      </c>
+      <c r="K23" t="s">
+        <v>201</v>
+      </c>
+      <c r="L23" t="s">
+        <v>202</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>203</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>204</v>
+      </c>
+      <c r="X23" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>207</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>208</v>
+      </c>
+      <c r="J24" t="s">
+        <v>209</v>
+      </c>
+      <c r="K24" t="s">
+        <v>210</v>
+      </c>
+      <c r="L24" t="s">
+        <v>211</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>212</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>213</v>
+      </c>
+      <c r="X24" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>216</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>217</v>
+      </c>
+      <c r="J25" t="s">
+        <v>218</v>
+      </c>
+      <c r="K25" t="s">
+        <v>219</v>
+      </c>
+      <c r="L25" t="s">
+        <v>220</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>221</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>222</v>
+      </c>
+      <c r="X25" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>225</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>226</v>
+      </c>
+      <c r="J26" t="s">
+        <v>227</v>
+      </c>
+      <c r="K26" t="s">
+        <v>228</v>
+      </c>
+      <c r="L26" t="s">
+        <v>229</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>230</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>231</v>
+      </c>
+      <c r="X26" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>234</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>235</v>
+      </c>
+      <c r="J27" t="s">
+        <v>236</v>
+      </c>
+      <c r="K27" t="s">
+        <v>237</v>
+      </c>
+      <c r="L27" t="s">
+        <v>238</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>230</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>239</v>
+      </c>
+      <c r="X27" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>242</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>243</v>
+      </c>
+      <c r="J28" t="s">
+        <v>244</v>
+      </c>
+      <c r="K28" t="s">
+        <v>245</v>
+      </c>
+      <c r="L28" t="s">
+        <v>246</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>230</v>
+      </c>
+      <c r="O28" t="s">
+        <v>63</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>247</v>
+      </c>
+      <c r="X28" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>250</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>251</v>
+      </c>
+      <c r="J29" t="s">
+        <v>252</v>
+      </c>
+      <c r="K29" t="s">
+        <v>253</v>
+      </c>
+      <c r="L29" t="s">
+        <v>254</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>255</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>256</v>
+      </c>
+      <c r="X29" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>259</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>260</v>
+      </c>
+      <c r="J30" t="s">
+        <v>261</v>
+      </c>
+      <c r="K30" t="s">
+        <v>262</v>
+      </c>
+      <c r="L30" t="s">
+        <v>263</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>264</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>265</v>
+      </c>
+      <c r="X30" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>269</v>
+      </c>
+      <c r="J31" t="s">
+        <v>270</v>
+      </c>
+      <c r="K31" t="s">
+        <v>271</v>
+      </c>
+      <c r="L31" t="s">
+        <v>272</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>265</v>
+      </c>
+      <c r="X31" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>274</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>275</v>
+      </c>
+      <c r="J32" t="s">
+        <v>276</v>
+      </c>
+      <c r="K32" t="s">
+        <v>277</v>
+      </c>
+      <c r="L32" t="s">
+        <v>278</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>264</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>279</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>280</v>
+      </c>
+      <c r="J33" t="s">
+        <v>281</v>
+      </c>
+      <c r="K33" t="s">
+        <v>282</v>
+      </c>
+      <c r="L33" t="s">
+        <v>283</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>284</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>285</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>286</v>
+      </c>
+      <c r="J34" t="s">
+        <v>287</v>
+      </c>
+      <c r="K34" t="s">
+        <v>288</v>
+      </c>
+      <c r="L34" t="s">
+        <v>289</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>284</v>
+      </c>
+      <c r="O34" t="s">
+        <v>63</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>290</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>291</v>
+      </c>
+      <c r="J35" t="s">
+        <v>292</v>
+      </c>
+      <c r="K35" t="s">
+        <v>293</v>
+      </c>
+      <c r="L35" t="s">
+        <v>294</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>284</v>
+      </c>
+      <c r="O35" t="s">
+        <v>76</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>295</v>
+      </c>
+      <c r="X35" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>298</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>299</v>
+      </c>
+      <c r="J36" t="s">
+        <v>300</v>
+      </c>
+      <c r="K36" t="s">
+        <v>301</v>
+      </c>
+      <c r="L36" t="s">
+        <v>302</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>303</v>
+      </c>
+      <c r="O36" t="s">
+        <v>76</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>304</v>
+      </c>
+      <c r="X36" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>307</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>308</v>
+      </c>
+      <c r="J37" t="s">
+        <v>309</v>
+      </c>
+      <c r="K37" t="s">
+        <v>310</v>
+      </c>
+      <c r="L37" t="s">
+        <v>311</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>303</v>
+      </c>
+      <c r="O37" t="s">
+        <v>76</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>312</v>
+      </c>
+      <c r="X37" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>315</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>316</v>
+      </c>
+      <c r="J38" t="s">
+        <v>317</v>
+      </c>
+      <c r="K38" t="s">
+        <v>318</v>
+      </c>
+      <c r="L38" t="s">
+        <v>319</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>320</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>321</v>
+      </c>
+      <c r="X38" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>324</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>325</v>
+      </c>
+      <c r="J39" t="s">
+        <v>326</v>
+      </c>
+      <c r="K39" t="s">
+        <v>327</v>
+      </c>
+      <c r="L39" t="s">
+        <v>328</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>329</v>
+      </c>
+      <c r="O39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>321</v>
+      </c>
+      <c r="X39" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>331</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>332</v>
+      </c>
+      <c r="J40" t="s">
+        <v>333</v>
+      </c>
+      <c r="K40" t="s">
+        <v>334</v>
+      </c>
+      <c r="L40" t="s">
+        <v>335</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>336</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>321</v>
+      </c>
+      <c r="X40" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>338</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>339</v>
+      </c>
+      <c r="J41" t="s">
+        <v>340</v>
+      </c>
+      <c r="K41" t="s">
+        <v>341</v>
+      </c>
+      <c r="L41" t="s">
+        <v>342</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>343</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>344</v>
+      </c>
+      <c r="X41" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>347</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>348</v>
+      </c>
+      <c r="J42" t="s">
+        <v>349</v>
+      </c>
+      <c r="K42" t="s">
+        <v>350</v>
+      </c>
+      <c r="L42" t="s">
+        <v>351</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>352</v>
+      </c>
+      <c r="O42" t="s">
+        <v>63</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>353</v>
+      </c>
+      <c r="X42" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>356</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>357</v>
+      </c>
+      <c r="J43" t="s">
+        <v>358</v>
+      </c>
+      <c r="K43" t="s">
+        <v>359</v>
+      </c>
+      <c r="L43" t="s">
+        <v>360</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>352</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>361</v>
+      </c>
+      <c r="X43" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>364</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>365</v>
+      </c>
+      <c r="J44" t="s">
+        <v>366</v>
+      </c>
+      <c r="K44" t="s">
+        <v>367</v>
+      </c>
+      <c r="L44" t="s">
+        <v>368</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>369</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>370</v>
+      </c>
+      <c r="X44" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>373</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>374</v>
+      </c>
+      <c r="J45" t="s">
+        <v>375</v>
+      </c>
+      <c r="K45" t="s">
+        <v>376</v>
+      </c>
+      <c r="L45" t="s">
+        <v>377</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>378</v>
+      </c>
+      <c r="O45" t="s">
+        <v>63</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>379</v>
+      </c>
+      <c r="X45" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>382</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>383</v>
+      </c>
+      <c r="J46" t="s">
+        <v>384</v>
+      </c>
+      <c r="K46" t="s">
+        <v>385</v>
+      </c>
+      <c r="L46" t="s">
+        <v>386</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>378</v>
+      </c>
+      <c r="O46" t="s">
+        <v>76</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>387</v>
+      </c>
+      <c r="X46" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>390</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>391</v>
+      </c>
+      <c r="J47" t="s">
+        <v>392</v>
+      </c>
+      <c r="K47" t="s">
+        <v>393</v>
+      </c>
+      <c r="L47" t="s">
+        <v>394</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>395</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>396</v>
+      </c>
+      <c r="X47" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>399</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>400</v>
+      </c>
+      <c r="J48" t="s">
+        <v>401</v>
+      </c>
+      <c r="K48" t="s">
+        <v>402</v>
+      </c>
+      <c r="L48" t="s">
+        <v>403</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>395</v>
+      </c>
+      <c r="O48" t="s">
+        <v>76</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>396</v>
+      </c>
+      <c r="X48" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>405</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J49" t="s">
+        <v>407</v>
+      </c>
+      <c r="K49" t="s">
+        <v>408</v>
+      </c>
+      <c r="L49" t="s">
+        <v>409</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>410</v>
+      </c>
+      <c r="O49" t="s">
+        <v>411</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>412</v>
+      </c>
+      <c r="X49" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>415</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>416</v>
+      </c>
+      <c r="J50" t="s">
+        <v>417</v>
+      </c>
+      <c r="K50" t="s">
+        <v>418</v>
+      </c>
+      <c r="L50" t="s">
+        <v>419</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>420</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>421</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>422</v>
+      </c>
+      <c r="J51" t="s">
+        <v>423</v>
+      </c>
+      <c r="K51" t="s">
+        <v>424</v>
+      </c>
+      <c r="L51" t="s">
+        <v>425</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>426</v>
+      </c>
+      <c r="O51" t="s">
+        <v>76</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>427</v>
+      </c>
+      <c r="X51" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>430</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>431</v>
+      </c>
+      <c r="J52" t="s">
+        <v>432</v>
+      </c>
+      <c r="K52" t="s">
+        <v>433</v>
+      </c>
+      <c r="L52" t="s">
+        <v>434</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>435</v>
+      </c>
+      <c r="O52" t="s">
+        <v>63</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>436</v>
+      </c>
+      <c r="X52" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>439</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>440</v>
+      </c>
+      <c r="J53" t="s">
+        <v>441</v>
+      </c>
+      <c r="K53" t="s">
+        <v>442</v>
+      </c>
+      <c r="L53" t="s">
+        <v>443</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>435</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>444</v>
+      </c>
+      <c r="X53" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>447</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>448</v>
+      </c>
+      <c r="J54" t="s">
+        <v>449</v>
+      </c>
+      <c r="K54" t="s">
+        <v>450</v>
+      </c>
+      <c r="L54" t="s">
+        <v>451</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>452</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>453</v>
+      </c>
+      <c r="X54" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>456</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>457</v>
+      </c>
+      <c r="J55" t="s">
+        <v>458</v>
+      </c>
+      <c r="K55" t="s">
+        <v>459</v>
+      </c>
+      <c r="L55" t="s">
+        <v>460</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>461</v>
+      </c>
+      <c r="O55" t="s">
+        <v>411</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>453</v>
+      </c>
+      <c r="X55" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>463</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>464</v>
+      </c>
+      <c r="J56" t="s">
+        <v>465</v>
+      </c>
+      <c r="K56" t="s">
+        <v>466</v>
+      </c>
+      <c r="L56" t="s">
+        <v>467</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>468</v>
+      </c>
+      <c r="O56" t="s">
+        <v>63</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>469</v>
+      </c>
+      <c r="X56" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>472</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>473</v>
+      </c>
+      <c r="J57" t="s">
+        <v>474</v>
+      </c>
+      <c r="K57" t="s">
+        <v>475</v>
+      </c>
+      <c r="L57" t="s">
+        <v>476</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>477</v>
+      </c>
+      <c r="O57" t="s">
+        <v>63</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>478</v>
+      </c>
+      <c r="X57" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>481</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>482</v>
+      </c>
+      <c r="J58" t="s">
+        <v>483</v>
+      </c>
+      <c r="K58" t="s">
+        <v>484</v>
+      </c>
+      <c r="L58" t="s">
+        <v>485</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>477</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>478</v>
+      </c>
+      <c r="X58" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>487</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>488</v>
+      </c>
+      <c r="J59" t="s">
+        <v>489</v>
+      </c>
+      <c r="K59" t="s">
+        <v>490</v>
+      </c>
+      <c r="L59" t="s">
+        <v>491</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>492</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>493</v>
+      </c>
+      <c r="X59" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>496</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>497</v>
+      </c>
+      <c r="J60" t="s">
+        <v>498</v>
+      </c>
+      <c r="K60" t="s">
+        <v>499</v>
+      </c>
+      <c r="L60" t="s">
+        <v>500</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>501</v>
+      </c>
+      <c r="O60" t="s">
+        <v>165</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>493</v>
+      </c>
+      <c r="X60" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>503</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>504</v>
+      </c>
+      <c r="J61" t="s">
+        <v>505</v>
+      </c>
+      <c r="K61" t="s">
+        <v>506</v>
+      </c>
+      <c r="L61" t="s">
+        <v>507</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>501</v>
+      </c>
+      <c r="O61" t="s">
+        <v>76</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>508</v>
+      </c>
+      <c r="X61" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>511</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>512</v>
+      </c>
+      <c r="J62" t="s">
+        <v>513</v>
+      </c>
+      <c r="K62" t="s">
+        <v>514</v>
+      </c>
+      <c r="L62" t="s">
+        <v>515</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>516</v>
+      </c>
+      <c r="O62" t="s">
+        <v>63</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>517</v>
+      </c>
+      <c r="X62" t="s">
+        <v>518</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>520</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>521</v>
+      </c>
+      <c r="J63" t="s">
+        <v>522</v>
+      </c>
+      <c r="K63" t="s">
+        <v>523</v>
+      </c>
+      <c r="L63" t="s">
+        <v>524</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>525</v>
+      </c>
+      <c r="O63" t="s">
+        <v>165</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>526</v>
+      </c>
+      <c r="X63" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>529</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>530</v>
+      </c>
+      <c r="J64" t="s">
+        <v>522</v>
+      </c>
+      <c r="K64" t="s">
+        <v>531</v>
+      </c>
+      <c r="L64" t="s">
+        <v>532</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>526</v>
+      </c>
+      <c r="X64" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>534</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>535</v>
+      </c>
+      <c r="J65" t="s">
+        <v>536</v>
+      </c>
+      <c r="K65" t="s">
+        <v>537</v>
+      </c>
+      <c r="L65" t="s">
+        <v>538</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>539</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>540</v>
+      </c>
+      <c r="X65" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>543</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>544</v>
+      </c>
+      <c r="J66" t="s">
+        <v>545</v>
+      </c>
+      <c r="K66" t="s">
+        <v>546</v>
+      </c>
+      <c r="L66" t="s">
+        <v>547</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>548</v>
+      </c>
+      <c r="O66" t="s">
+        <v>165</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>549</v>
+      </c>
+      <c r="X66" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>552</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>553</v>
+      </c>
+      <c r="J67" t="s">
+        <v>554</v>
+      </c>
+      <c r="K67" t="s">
+        <v>555</v>
+      </c>
+      <c r="L67" t="s">
+        <v>556</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>557</v>
+      </c>
+      <c r="X67" t="s">
+        <v>558</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>560</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>561</v>
+      </c>
+      <c r="J68" t="s">
+        <v>562</v>
+      </c>
+      <c r="K68" t="s">
+        <v>563</v>
+      </c>
+      <c r="L68" t="s">
+        <v>564</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>565</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>566</v>
+      </c>
+      <c r="X68" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>569</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>570</v>
+      </c>
+      <c r="J69" t="s">
+        <v>571</v>
+      </c>
+      <c r="K69" t="s">
+        <v>572</v>
+      </c>
+      <c r="L69" t="s">
+        <v>573</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>574</v>
+      </c>
+      <c r="O69" t="s">
+        <v>63</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>575</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>576</v>
+      </c>
+      <c r="J70" t="s">
+        <v>577</v>
+      </c>
+      <c r="K70" t="s">
+        <v>578</v>
+      </c>
+      <c r="L70" t="s">
+        <v>579</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>580</v>
+      </c>
+      <c r="X70" t="s">
+        <v>581</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>583</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>584</v>
+      </c>
+      <c r="J71" t="s">
+        <v>585</v>
+      </c>
+      <c r="K71" t="s">
+        <v>586</v>
+      </c>
+      <c r="L71" t="s">
+        <v>587</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>588</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>589</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>590</v>
+      </c>
+      <c r="J72" t="s">
+        <v>591</v>
+      </c>
+      <c r="K72" t="s">
+        <v>592</v>
+      </c>
+      <c r="L72" t="s">
+        <v>593</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>588</v>
+      </c>
+      <c r="O72" t="s">
+        <v>63</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>594</v>
+      </c>
+      <c r="X72" t="s">
+        <v>595</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>597</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>598</v>
+      </c>
+      <c r="J73" t="s">
+        <v>599</v>
+      </c>
+      <c r="K73" t="s">
+        <v>600</v>
+      </c>
+      <c r="L73" t="s">
+        <v>601</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>602</v>
+      </c>
+      <c r="O73" t="s">
+        <v>63</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>604</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>605</v>
+      </c>
+      <c r="J74" t="s">
+        <v>606</v>
+      </c>
+      <c r="K74" t="s">
+        <v>607</v>
+      </c>
+      <c r="L74" t="s">
+        <v>608</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>609</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>610</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>611</v>
+      </c>
+      <c r="J75" t="s">
+        <v>612</v>
+      </c>
+      <c r="K75" t="s">
+        <v>613</v>
+      </c>
+      <c r="L75" t="s">
+        <v>614</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>615</v>
+      </c>
+      <c r="O75" t="s">
+        <v>411</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>616</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>617</v>
+      </c>
+      <c r="J76" t="s">
+        <v>618</v>
+      </c>
+      <c r="K76" t="s">
+        <v>619</v>
+      </c>
+      <c r="L76" t="s">
+        <v>620</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>615</v>
+      </c>
+      <c r="O76" t="s">
+        <v>63</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>622</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>623</v>
+      </c>
+      <c r="J77" t="s">
+        <v>624</v>
+      </c>
+      <c r="K77" t="s">
+        <v>625</v>
+      </c>
+      <c r="L77" t="s">
+        <v>626</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>627</v>
+      </c>
+      <c r="O77" t="s">
+        <v>63</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>628</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>629</v>
+      </c>
+      <c r="J78" t="s">
+        <v>630</v>
+      </c>
+      <c r="K78" t="s">
+        <v>631</v>
+      </c>
+      <c r="L78" t="s">
+        <v>632</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>633</v>
+      </c>
+      <c r="O78" t="s">
+        <v>165</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>634</v>
+      </c>
+      <c r="X78" t="s">
+        <v>635</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>637</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>638</v>
+      </c>
+      <c r="J79" t="s">
+        <v>639</v>
+      </c>
+      <c r="K79" t="s">
+        <v>640</v>
+      </c>
+      <c r="L79" t="s">
+        <v>641</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s">
+        <v>642</v>
+      </c>
+      <c r="O79" t="s">
+        <v>76</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>634</v>
+      </c>
+      <c r="X79" t="s">
+        <v>635</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>644</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>645</v>
+      </c>
+      <c r="J80" t="s">
+        <v>646</v>
+      </c>
+      <c r="K80" t="s">
+        <v>647</v>
+      </c>
+      <c r="L80" t="s">
+        <v>648</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>649</v>
+      </c>
+      <c r="O80" t="s">
+        <v>63</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>634</v>
+      </c>
+      <c r="X80" t="s">
+        <v>635</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>651</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>652</v>
+      </c>
+      <c r="J81" t="s">
+        <v>653</v>
+      </c>
+      <c r="K81" t="s">
+        <v>654</v>
+      </c>
+      <c r="L81" t="s">
+        <v>655</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>656</v>
+      </c>
+      <c r="O81" t="s">
+        <v>63</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>634</v>
+      </c>
+      <c r="X81" t="s">
+        <v>635</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>658</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>659</v>
+      </c>
+      <c r="J82" t="s">
+        <v>660</v>
+      </c>
+      <c r="K82" t="s">
+        <v>661</v>
+      </c>
+      <c r="L82" t="s">
+        <v>662</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>663</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>664</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>665</v>
+      </c>
+      <c r="J83" t="s">
+        <v>666</v>
+      </c>
+      <c r="K83" t="s">
+        <v>667</v>
+      </c>
+      <c r="L83" t="s">
+        <v>668</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>669</v>
+      </c>
+      <c r="O83" t="s">
+        <v>63</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>41001</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>671</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>672</v>
+      </c>
+      <c r="J84" t="s">
+        <v>673</v>
+      </c>
+      <c r="K84" t="s">
+        <v>674</v>
+      </c>
+      <c r="L84" t="s">
+        <v>675</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="s"/>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>676</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_166.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_166.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="760">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>WombatBen</t>
+  </si>
+  <si>
     <t>06/29/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>The service and the location is great. But the rooms and halls need a much needed refresh... the elevator even more. I will most probably go back next time around. It is close to the Antelope Valley Mall and restaurants, Palmdale Airport.More</t>
   </si>
   <si>
+    <t>ekoenig301</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r582082866-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>While we were not in the area for long the room proved to be just what we needed for a good night sleep.  The room was updated with a clean bathroom.  The carpet was newer and the heat/AC was relatively quiet.  Much better than many hotels.  I just wish that Courtyards would offer free breakfast like the Fairfield Inns!More</t>
   </si>
   <si>
+    <t>Jorge F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r580934204-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -231,6 +240,9 @@
     <t>Came here for work and had a great experience at the hotel. The staff was very friendly and courteous. Rooms were clean and parking was plentiful. The hotel also had security patrolling around at night to watch over the cars. When coming back for work I will definitely book my room at this Marriott. :)More</t>
   </si>
   <si>
+    <t>mannytbs42</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r580495728-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -252,6 +264,9 @@
     <t>My girlfriend and I stayed at Courtyard Palmdale and it was a comforting experience , everything was clean. We enjoyed the later than usual check out of 12pm. Great spot, would recommend it! Many places around to eat and enjoy.More</t>
   </si>
   <si>
+    <t>LMyles</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r580448671-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -270,6 +285,9 @@
     <t>I've stayed at this hotel twice and I would have had logged a third week visit had they not been sold out the week I was returning. My rooms are always clean and quiet. The Customer Service is the winner here. They make you feel so welcome and always smiling and offering a helping hand. Especially the Chef Robin and her team. They run like a well oiled machine in the morning. Meals come out fast and hot and done right. Chef Robin does my breakfast just like I like it on the daily with one look out the door when my order comes in from her she knows what I want and delivers time and time again. The Receptionist are all were super nice and very accommodating. After a long day of work and walking in at night they are more than welcoming asking if I need anything before retiring to my room. They make me feel so special here. I know I'm not the only one but they make me feel like I am when I'm here. I will continue to return to this location. This is a MUST STAY HOTEL!More</t>
   </si>
   <si>
+    <t>gbvanwoerden</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r580293963-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -288,6 +306,9 @@
     <t>I stayed in this hotel for a few nights in April. I found it to be a pleasant stay with friendly staff going out of their way to help me. The bar and restaurant is conveniently located close to the lobby. I would stay there again.More</t>
   </si>
   <si>
+    <t>mbarrett5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r580240826-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -309,6 +330,9 @@
     <t>My trip to the hotel was a great trip, the hotel staff were there and very helpful. Dinner that at the Bistro was very good. Rooms were clean and taking care of. Check in was quick and easy all the records were there so not much to do. Receipt was emailed before check out and was accurate and I had no questionsMore</t>
   </si>
   <si>
+    <t>tholloway3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r580228312-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -324,6 +348,9 @@
     <t>Definitely what we expected from a Courtyard Marriott.  Property was well kept and a very helpful staff.  Shandra was great with helping us book our team block of rooms.  Will definitely come back for a stay with our next event.More</t>
   </si>
   <si>
+    <t>Amber C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r580221449-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -339,6 +366,9 @@
     <t>The room was very clean and smelled nice.  Not even a hint of cigarette smoke which I appreciated very much. The staff service at the front desk was wonderful and their breakfast was great.  I enjoyed the gym and the pool after a long day of meetings.More</t>
   </si>
   <si>
+    <t>CGA789</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r573767695-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -363,6 +393,9 @@
     <t>We were in town for the weekend for a soccer tournament and stayed at the Courtyard Palmdale. I like staying at Marriott properties because I know exactly what to expect and this hotel was no exception. Everything was very clean, comfortable, and easy. I especially liked the large semi-circular couches that can double as pull-out beds. However, what made our stay this weekend at the Courtyard Palmdale exceptional was the very friendly and helpful staff. From the moment we walked in we were greeted warmly and all the staff that we encountered over the weekend were helpful and welcoming. Before we arrived I had been in contact with Shandra at the hotel to block a set of rooms for our team and that process was smooth also. The staff made all the difference in our stay this weekend. I would definitely recommend this hotel and look forward to staying again whenever we are in town.More</t>
   </si>
   <si>
+    <t>BrandonTaylorN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r569806856-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -387,6 +420,9 @@
     <t>I have not stayed here since the hotel was renovated; I am very pleased. The hotel looks similar to other modern Courtyard hotels now, as they use similar design language. Front check-in girl was pleasant, efficient, and remembered me from my last stay (at the Residence Inn across the parking lot). The lobby is exceptional with bistro featuring full bar. The indoor pool is shallow, but nice. The gym is so-so. The only complaint I have is with the TINY television in the rooms. That managed to stay, despite the renovation (and the manufacture date of 2009 on the back (I couldn’t resist checking)). I understand televisions are a large cost when upgrading, but it needs to happen. I remember staying at this hotel when it first opened as a child. It was the nicest hotel in town. It has really held up nicely over the years thanks to the renovation.  The hotel still owes me compensation for my disgracefully bad stay at the Residence Inn a few weeks ago. They promised to reach out but have not. I’m not sure if the two hotels share the same management/ownership, so I am not reducing my star rating. If they do, SHAME on them!!More</t>
   </si>
   <si>
+    <t>jennysireci</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r559110019-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -414,6 +450,9 @@
     <t>Listen, you know what you're looking for when you book a Courtyard in Palmdale.  You're getting it all here:  really polite and helpful staff, a clean room, and a solid breakfast option.  Complimentary beverages were great, the room is totally comfortable, and I was able to grab some breakfast to go.  I'll be back!More</t>
   </si>
   <si>
+    <t>mikc0p</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r555677425-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -438,6 +477,9 @@
     <t>We were a family of 4, and felt very welcome by the staff at all times, even though the hotel is focused on business travelers. The new Bistro food was tasty and reasonably priced and the indoor pool was a huge hit..More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r555667809-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -453,6 +495,9 @@
     <t>Recently stayed at the Courtyard Marriott.  The great hospitality and helpful employees made check in easy and welcoming. As far as my room and stay I must say it was great! I truely Appreciated everything and looking forward to staying there again.More</t>
   </si>
   <si>
+    <t>Cathy C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r555249659-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -471,6 +516,9 @@
     <t>Our family had a great experience at this hotel. It was conveniently located to restaurants, etc. The staff was kind, courteous and greeted with a smile. The accommodations were very clean. Highly recommend.More</t>
   </si>
   <si>
+    <t>emmeelgee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r549992013-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -498,6 +546,9 @@
     <t>This is a very nice Courtyard.  It is clean and well designed like other Courtyards with great amenities (like coffee and food in the lobby).  I like Courtyards because the lounge area has booths with personal TVs.  I wake up much earlier than my wife and appreciate being able to sip my coffee in a comfortable private booth with a tv is close to watch and hear with a remote I control.The showers were hot and the shower heads were strong.  The hotel was very quiet.  One of the best things is that this hotel is very close to the freeway, easy access but not noisey.  Also, besides good food and drinks in the hotel, there are many places to eat that are in the same parking area and much more shopping and dining less than a mile away - an easy walk.  We have stayed here many times and appreciate the friendly staff and comfort of this hotel.  It is an easy, stress free place to rest your head.More</t>
   </si>
   <si>
+    <t>Brian90212</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r549642402-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -519,6 +570,9 @@
     <t>Location of the hotel is situated near just about everything. The mall is about 3-5 minutes by car; there are plenty of grocery and restaurants within a few minutes by car. If you do not want to leave the hotel grounds, there is a Jack in the Box; a Mexican restaurant; and a Yoshinoya within walking distance. Rooms are the standard type in any Courtyard. About the only negative part of my stay is that the first floor hallway smelled of chlorine from the indoor swimming pool. I didn't have a room on the first floor so I cannot comment if that smell reached the inside. To me, it was a bit unpleasant though I don't think management can do much to fix the problem.More</t>
   </si>
   <si>
+    <t>jvvjr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r549578229-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -534,6 +588,9 @@
     <t>I have traveled all over the US using Marriott properties. Now retired I get time to visit my new granddaughter. When looking for a place to stay I found this Marriott Courtyard so I tried it. Me and my wife are very happy with the rooms, they are clean, neat and very comfortably. The staff is nice and friendly and we will always use this property when in Palmdale.More</t>
   </si>
   <si>
+    <t>Kiana P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r546914692-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -558,6 +615,9 @@
     <t>Location of the hotel is nice and quite , close to mall and food places i had A fast check in cleanness, the customer service rep was nice helpful i asked For a late check out because i normally travel for business and she made it happen for me. My room was clean and very neat, the bed was comfortable for me and my partner, the heater and air works overall the hotel is a great place to stay. I recommend Staying here , I’ve tired to book agin this week but all the rooms were sold out!!K.phillips thank you guys for keeping a great hotelMore</t>
   </si>
   <si>
+    <t>31757</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r539754169-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -585,6 +645,9 @@
     <t>Location is clean and staff are attentive, one of my better spots to stay, being a road warrior and out the better part of 9 months in any given year I see all kinds of things. This is always a pleasant stop on my monthly travel routine.More</t>
   </si>
   <si>
+    <t>Traver A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r536140648-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -612,6 +675,9 @@
     <t>Quick Trip to Palmdale for a business meeting. I travel a lot and this Courtyard is what I expect at Marriott properties. The room and property were clean and well maintained. The employees were nice and attentive. Only thing I could comment on would be the site is looking older and could use a remodel to update the TV's,  bed and property. It would also be nice to have a shuttle that can take you back and forth to the mall area not far away.More</t>
   </si>
   <si>
+    <t>chet_Maryland</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r506501503-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -639,6 +705,9 @@
     <t>I stayed here 3 nights on a business trip and this is much nicer then the usual courtyard. Front desk was courteous. Restaurant was excellent. Only complaint was the elevator was slow and I was glad when I used it the last time because I was always afraid I would get stuckMore</t>
   </si>
   <si>
+    <t>Mike F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r477282650-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -666,6 +735,9 @@
     <t>What a great place to stay.  The location is close to restaurants and easy access to the freeway.  The people make the hotel.  While it is a very nice, comfortable, and clean place to stay, the people are an amazing team that are there to make your stay a great experience.   Diana and Amy are wonderful and welcoming.  As a frequent traveler, I appreciate that they are always smiling, courteous, friendly, and remember who you are when you return.  The restaurant is small, but very good.   I've eaten there several times and Jessica always makes you feel special.I recommend that you take a look at this hotel if your plans take you to the Antelope Valley.More</t>
   </si>
   <si>
+    <t>kalaniw2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r470170273-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -693,6 +765,9 @@
     <t>The staff really go out of their way to make sure that your stay is perfect. Whatever you need they are there to help you out. The rooms are great too. Very clean, quite and well stocked with everything that you could need to make your stay the best.More</t>
   </si>
   <si>
+    <t>Tewee323</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r448977037-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -720,6 +795,9 @@
     <t>From checking in to our departure we enjoyed our stay. This location has the best staff! Dominique went beyond to make certain our stay was enjoyable. We were able to obtain a second room at the other property for the same cost.More</t>
   </si>
   <si>
+    <t>Rich K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r446109841-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -744,6 +822,9 @@
     <t>The first thing that comes to mind was the warm reception I got from the staff at checkin where they also gave me complementary snacks and water.  Even the cleaning staff was extremely friendly, which had a positive impact on my stay.  The rooms were very clean, but slightly outdated.  Overall, I would highly recommend this hotel for the value.More</t>
   </si>
   <si>
+    <t>unklpaul</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r445473656-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -768,6 +849,9 @@
     <t>Thus room was freezing and we weren't able to regulate the heat.Discrepancy from your website, The bar are was closed and we were not able to order a drink or purchase food (after o very stressful day with family) nor were we able to purchase any in the market area - red wind bottles and candy only!  Bistro was not open so we couldn't order food. This was all discouraging after a long, stressful day With family after a challenging medical week. Not your problem. Just my disappointment after reading your website seeing all these amenities  would be available. We were told we could walk over to Bev Mo? Where ever that was. But it was late after a long stressful day and freezing outside (although our room was of an equal temp) this is our fourth stay at one of your Palmdale area hotels, the second in the last month.  As Marriott owners t has been very disappointing, we are sorry this does does not fit with the Marriott experience we are use to. But this time you did have a room.So far our stays have not shown up on our statement. I'm assuming those are recorded and sent out after the fact.More</t>
   </si>
   <si>
+    <t>Jeaniecash</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r435461568-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -795,6 +879,9 @@
     <t>I have stayed here multiple times over the past five years in my work with nearby school districts. The staff is always welcoming, calling me by name, and greeting me like a friend.  The room is clean, internet works great, and the bed is comfortable.  The ladies in the Bistro are exceptional.  Last night, I was walking toward the elevator with both hands full and one of the gentlemen (handyman) hurried ahead of me and pushed the button for me.  Those small helpful gestures are indicative of how everyone at this hotel behaves toward guests.More</t>
   </si>
   <si>
+    <t>Esteban A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r431208105-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -822,6 +909,9 @@
     <t>Just stayed 1 night which was not enough time to imbibe all that the hotel had to offer. Was tired from a 13 hour flight and the room was cozy and very comfortable. Breakfast was delicious and the staff was really friendly. More</t>
   </si>
   <si>
+    <t>Bayareagrl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r430915582-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -840,6 +930,9 @@
     <t>What a disappointment. First room smelled like smoke. Second room had clogged tub. Then came the neighbors who started blasting their music and making noise at 1 am that did not stop. Around 2 am when we couldn't take it anymore we called downstairs to ask them to turn it down but no one came up. I was going to say at least the staff seem really nice and attentive despite the hotels short comings. But when the person didn't come up to tell our neighbors to keep it down, it was definitely a let down. We could hear normal level conversation through the walls so the music literally felt like it was in our room. Worst stay ever. More</t>
   </si>
   <si>
+    <t>dstewartee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r425968047-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -855,6 +948,9 @@
     <t>The restaurant is a one woman show.  She takes your order, makes your food and does the dishes.  So, sometimes the service isn't speedy, but I've ate here a dozen times and my meals have always been excellent.  The Cobb salad has corn in it, which is weird, but I love it.</t>
   </si>
   <si>
+    <t>Stephanie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r425720155-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -873,6 +969,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>emwilliamson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r424524514-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -888,6 +987,9 @@
     <t>Spent one night at this hotel, which was in a great location - close to the freeway, mall, gas station and restaurants. The staff was friendly and even gave us $5 gift cards to use at a local restaurant, when we asked about dinner suggestions. Room was clean, quiet and modern looking, bed was comfortable, bathroom was a good size, and the AC worked well. Got a great nights sleep. Only downside - the tub in the bathroom wasn't as deep as it looked, and I almost slipped when stepping in to take a shower.</t>
   </si>
   <si>
+    <t>kanmac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r414735164-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -912,6 +1014,9 @@
     <t>While traveling cross country from San Francisco to Phoenix we decided to stop in Palmdale.  We called the Courtyard from the road and asked if they would honor a rate we found on line.  The desk person said she could not but when we arrived she had found the rate and honored it.  That's what I call service.  This property is in excellent shape.  The room and lobby area was extremely clean.  Both check in and check out were very friendly.  If we are ever in Palmdale again we will definitely be staying at this hotel.More</t>
   </si>
   <si>
+    <t>Marshall H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r411600144-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -939,6 +1044,9 @@
     <t>I have stayed here several times, besides some very attractive weekend rates from time to time the hotel is updated and up to Marriott standards. The location is close to many mid range restaurants and for the ladies you could almost walk to multiple shopping areas including the AV Mall.More</t>
   </si>
   <si>
+    <t>Sue Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r405923151-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -963,6 +1071,9 @@
     <t>This is in a nice location of Palmdale. Located close to all shopping and restaurants. The staff was friendly and the hotel was clean. The pool and hot tub was nice. If you like mexican food check out LU&amp;PE mexican restaurant.More</t>
   </si>
   <si>
+    <t>Elarsen1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r373915044-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -990,6 +1101,9 @@
     <t>I think everyone knows Palmdale CA area is a pest hole and you only go there if you are military, military contractor, military civilian, incarcerated or visiting someone who is incarcerated. Well, if you are there for the first three reasons, and not the last two, stay at the Courtyard. Not only was the bed better than Ambien for sleeping, they had a breakfast bag and coffee for me at Zero Dark Thirty every morning I asked. It was quiet--seemed like good soundproof walls and everything was clean, efficient and the staff was competent and friendly. Now the important part: it's within easy walking distance of a 24 HR Circle K with a great beer and snack selection, right up the street from Bevmo and around the corner from Love Korean BBQ n Sushi. If you must go to Palmdale/Lancaster/Ed Warts AFB/Secret Place, and occasionally you must; do yourself a favor and stay at the Courtyard. It's all military n military related there; great people; capable... You could survive the coming Zombie Apocalypse there... rly.More</t>
   </si>
   <si>
+    <t>Mikeleemon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r367327620-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1011,6 +1125,9 @@
     <t>This is a nice place and I would stay here again.  But, here are a few negatives, not necessarily a deal breaker, but things you may not like...  1.  You can hear people above you.  It's pretty loud.  Even vacuuming.  2.  There is not a free breakfast.  3.  The pillows are small.  4.  The shower head is not a high quality.  It shoots water out like needles.  5.  One of the beds, the bed sheet popped off the corner exposing the mattress.  I hate that.  Here are a few positives.  1.  Internet free.  2.  TV is good.  3.  A/C is modern and works good.  4.  The staff is friendly.  5.  Nice location.More</t>
   </si>
   <si>
+    <t>Bela T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r348989273-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1032,6 +1149,9 @@
     <t>I stayed for two nights during a job in Lancaster. I like Marriot chain hotels and this being courtyard is one of those. My complaint about this hotel would be that during my stay the elevator was not working and had to climb two floors with my luggage. Otherwise it is up to Courtyard standards. More</t>
   </si>
   <si>
+    <t>Evelyn_Howland</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r345685724-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1059,6 +1179,9 @@
     <t>Stayed here for one night and it was miserable.  The beds were not comfortable, very cheap feeling and hard.  Worse was the hotel is right by a freeway and the building has not taken that into consideration.  It is SO loud you can hear every car and every engine braking truck going past.  In addition, the gap under my room door was probably 2".  Enough I could slip my hand and wrist under it.  This let every sound from the hallway come blasting into the room.  I had the misfortune of being here when a children's soccer event was happening and there were hordes of unruly 10 year olds playing soccer in the hallways starting by 6 am.  The hotel staff made no effort to contain the inconsiderate children or get their unconscionably rude parents on board with keeping them under control.  I had a very long drive and didn't get in until after 1 AM, so having a flipping soccer game going on in the hallway at 6 AM was truly unforgivable!  Since I wasn't getting back to sleep, despite trying, I tried the breakfast.  I think the soccer kids ate all the meat so I can only say there was soggy eggs and some toast.  The banana was a little overripe but I was glad for the fruit.  No coffee though because they have a coffee shop and want to sell you coffee.  There is coffee in the...Stayed here for one night and it was miserable.  The beds were not comfortable, very cheap feeling and hard.  Worse was the hotel is right by a freeway and the building has not taken that into consideration.  It is SO loud you can hear every car and every engine braking truck going past.  In addition, the gap under my room door was probably 2".  Enough I could slip my hand and wrist under it.  This let every sound from the hallway come blasting into the room.  I had the misfortune of being here when a children's soccer event was happening and there were hordes of unruly 10 year olds playing soccer in the hallways starting by 6 am.  The hotel staff made no effort to contain the inconsiderate children or get their unconscionably rude parents on board with keeping them under control.  I had a very long drive and didn't get in until after 1 AM, so having a flipping soccer game going on in the hallway at 6 AM was truly unforgivable!  Since I wasn't getting back to sleep, despite trying, I tried the breakfast.  I think the soccer kids ate all the meat so I can only say there was soggy eggs and some toast.  The banana was a little overripe but I was glad for the fruit.  No coffee though because they have a coffee shop and want to sell you coffee.  There is coffee in the rooms but I never use that because the in room ones are not sanitary.  I have seen too many with mold and god knows what in them.  To the credit of this place the in room machine did look clean and the hotel was well cleaned.  The staff was polite but not enough to stop the rude kids.  And yes they knew about them.  When I was by the front desk for breakfast you could hear them playing soccer like a herd of elephants thundering overhead.  No way to miss it.  I'm glad someone else was driving the next day because I got so little sleep I was dozing and miserable.  If you are a person who needs comfort and any kind of quiet to sleep, avoid this hotel.More</t>
   </si>
   <si>
+    <t>Pia T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r343077327-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1086,6 +1209,9 @@
     <t>We stayed here for a soccer tournament (complex was only minutes away) and we'll stay here every time! The room smelled great, was spacious, the beds made you not want to leave them. Staff=outstandingMore</t>
   </si>
   <si>
+    <t>Shannon D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r341779890-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1110,6 +1236,9 @@
     <t>My colleague and I, who are Marriott frequenters, needed to travel to Burbank for an overnight trip to train a client. All of the hotels in Burbank were booked when we were planning this trip, and after looking at several options, this was the closest Marriott we could find that was decently priced. We arrived around 9:30pm after our flight was delayed, and Callie at the front desk was very friendly and accommodating. She recognized that we were exhausted and was very efficient with the check-in process. My colleague asked if there was breakfast in the morning, and she went out of her way to provide both of us with a complimentary breakfast voucher knowing we had a long drive the next morning. Besides the customer service, the room was comfortable and beautifully furnished, as always with Marriott rooms. If I'm ever in the Palmdale area again, I will definitely stay here.More</t>
   </si>
   <si>
+    <t>AKMEGAJ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r313980051-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1137,6 +1266,9 @@
     <t>Everything was as it should be - friendly staff, clean and efficient.  Very comfortable room and bed.  All the amenities you would expect - and all functioning correctly. Will definitely stay there again.More</t>
   </si>
   <si>
+    <t>William Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r300076277-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1164,6 +1296,9 @@
     <t>My family recently stayed at the Courtyard by Marriott Palmdale. Overall, we were satisfied with the accommodations. Both the lobby and indoor pool were spacious and nice areas to relax. Our room was very clean and comfortable. The only minor issue I had with the room was that the fitted sheets came off the beds fairly easy. My main and only significant complaint was that the elevator was not working during our two night stay, and there were no rooms available on the first floor. I have a bad foot, so going up and down a flight of stairs wasn't particularly enjoyable. On a positive note, all of the employees we interacted with were amazing. Whenever I receive excellent customer service from someone, I make a point to take note of their name. Callie was working at the front desk when we checked in and checked out. She was welcoming, friendly, and went well above and beyond to make us comfortable.More</t>
   </si>
   <si>
+    <t>Y8244PYcarols</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r298842283-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1188,6 +1323,9 @@
     <t>For an ultra-clean, comfortable, and convenient place to stay in this area, this is the place.  Newly refurbished, our room was quiet and serene, with all the appointments you need.  The spacious lobby area had lots of spots to sit and relax and read or watch the several TVs.  Also several desk sites to plug in your computer.  Starbucks runs the cafe, and the food was really good.  Quite a nice menu with some creative items including many healthy choices.  The cordial staff went out of their way to help us with requests.  A very good experience!More</t>
   </si>
   <si>
+    <t>Bradco2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r282209618-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1215,6 +1353,9 @@
     <t>We stayed Saturday. The staff was great. Bed great. Elevator broke. Then it broke Sunday am. Tile in the bathroom needs to be redone. It was just not the best Marriott experience that we usually have as a Marriott userMore</t>
   </si>
   <si>
+    <t>Heather M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r281962588-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1233,6 +1374,9 @@
     <t>The Courtyard in Palmdale is a typical Courtyard hotel.Pros:Nice clean, updated room with contemporary furnishingsThe room was very quietThe bathroom was very clean and somewhat updated alsoThere were many electrical outlets around the room:  on the desk, by both night standsThe hotel is very close to the freeway with ample parkingCheck in was quickThe bathroom had a tub/shower comboThe hotel offers free wifiCons:Breakfast is not included at Courtyard Hotels, not even for Marriott members with Gold or Platinum StatusThe shower heads are old style - rain shower heads would be much nicerThe bed's fitted sheet did not fit right and started to come off the bed by morning...better sheets is a must!!More</t>
   </si>
   <si>
+    <t>NerdyGirl08</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r275844562-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1263,6 +1407,9 @@
     <t>After driving for a couple hours, I arrived at this hotel.  The property is located near multiple restaurants as well as the Antelope Valley Mall.  Pretty easy to find &amp; easy access to the highway.  Check-in was fast &amp; simple.  Since it had been a while since I last stayed at a Courtyard, I didn't realize how much things had changed (i.e. the addition of The Bistro with several Starbucks hand-crafted beverages available).  The room looked new, nice &amp; fresh.  The bed was VERY comfy.  I immediately fell asleep after laying down, which is rarity for me.  The bathroom was also pretty nice &amp; clean.  Since I'm a vegetarian, they were able to make one of the breakfast sandwiches without the ham for me, which was great.  The sandwich also came with fresh fruit...a nice, healthy touch. I also ordered a flat-bread pizza during one of the evenings, which was also pretty tasty.  Overall, this is a great property &amp; I would definitely stay here again!More</t>
   </si>
   <si>
+    <t>Cindy P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r254031827-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1281,6 +1428,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>keenan2411</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r247461466-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1308,6 +1458,9 @@
     <t>We are Marriott Rewards Members and stay with Marriott frequently.  This stay was by far the worst Marriott stay we have ever experienced.  The fitted bedsheets did not fit the bed and we continually woke up on the mattress with no sheet and would have to get up and reposition it. There was a mattress liner that was designed for a twin bed, on a king size bed.  In the morning we noticed a big stain on the sheets that made us feel dirty. The blackout curtain only had half installed and we were on the east side of the building,  which meant the sun hit us right in the face at 7:00 a.m. after a late evening. The bathroom door was designed to stay fully open against the closet, so hanging items and using the ironing board was very challenging.  The creamer and sugar they provided for coffee in the room was actually previously opened partially used. When we went down to the Bistro to buy coffee, the service was so slow, I almost fell asleep waiting, which would probably have been better than the nights sleep I experienced.  Never have we been to a Marriott with so many issues.More</t>
   </si>
   <si>
+    <t>azroyalsfan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r243220916-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1335,6 +1488,9 @@
     <t>Staff were friendly. Many dining options nearby. The indoor pool area suffers from intense chlorine fumes, nothing they can really do about this. I would stay here again. It's about 40 minutes from Magic Mountain.More</t>
   </si>
   <si>
+    <t>swalkerd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r238413073-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1359,6 +1515,9 @@
     <t>Pros1. Nice outside during area to relax and drink a glass of wine2. Very friendly front office staff,3. Clean hotel4. Clean the street from all of the shopping....from mall shopping to TargetCons1. Had too walk you the flights ofc stairs..elevator out of orderOk...understandable, but the guy at the front desk very matter of fact mentioned oh the elevator doesn't work but ma'am your on the third floorSo I had to lug my suitcases and other bag up to the third floor with no assistance 2. Nor did they offer any points...I'M A GOLD MEMBER3. The bed sheets kept coming of the bed..Not typical courtyard standardsMore</t>
   </si>
   <si>
+    <t>ProudSingleDad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r233370223-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1386,6 +1545,9 @@
     <t>Great staff; excellent accommodations; convenient to everything I needed/wanted; loved the Starbucks coffee!  I'll definitely return to this Courtyard, if I'm sent this way again.  I especially enjoyed the breakfast in the Bistro.More</t>
   </si>
   <si>
+    <t>Italianreb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r226356319-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1407,6 +1569,9 @@
     <t>I had such a great experience with the staff there, I had to mention it. The Front desk were so very kind, efficient, and available for what ever question asked. What a great staff and wish every hotel property had a staff like there's, simply awesome!!More</t>
   </si>
   <si>
+    <t>MarkUSNA1998</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r216470068-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1432,6 +1597,9 @@
   </si>
   <si>
     <t>We stayed here with our daughter's softball team and the service we experienced was simply outstanding!  From the front desk to the bistro the employees were exceptionally gracious and accomodating.  Even with the chaos resulting from having several teams of a dozen girls apiece, along with their coaches, families and everyone else, these folks never stopped being friendly and helpful.  The only two downsides were 1) that the pool was incredibly hyper-chlorinated, so much so that it burned my eyes after only a minute of being in there and 2) the single elevator is small and slow.  Otherwise this place is perfect, and I would love to go back!More</t>
+  </si>
+  <si>
+    <t>Ed B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r211559373-Courtyard_Palmdale-Palmdale_California.html</t>
@@ -1471,6 +1639,9 @@
 In the future if I am on business or pleasure I will make an effort to stay at this hotel even if...The reason I stay at Marriott properties for business or pleasure is because I expect good service all the time, and I consistently get it. I don't write a review every time because like I said I expect the service I get for the numbers of stays every year. However when I get over and above excellent service I feel that I need to share this not only with Trip Advisor but the hotel's management. In business for many years I learned that excellent customer service does not take a lot of effort and sometimes like in this case one person can make a lot of difference. From the moment I checked in Ivah Gray welcomed my family and myself with a big infectious smile and until we walked out of the hotel every time we interacted the smile was there and his answer was " no problem, my pleasure" . We were treated like we were the only ones in the hotel. I observed the young men and he was like that with every single person he talked or helped.The morning was busy and he ran between the front desk and help with breakfast. If there is one person that management could clone, he would be the one. Everyone else was great but Ivah stood out. In the future if I am on business or pleasure I will make an effort to stay at this hotel even if I would have to drive several miles. If you read this article and stay at this hotel, if you are greeted by Ivah and you can't for some reason read the name tag, you will know who he is. He is the one with the big smile that will not have a problem meeting your needs as a valued guest.More</t>
   </si>
   <si>
+    <t>MountainAirHeliTCI</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r210990988-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1489,6 +1660,9 @@
     <t>Our company booked this for all employees when staying in Palmdale. Great place. Quiet, close to many restaurants and shopping. The staff was helpful, professional, and all round absolutely wonderful! I will definitely rebook  here again. More</t>
   </si>
   <si>
+    <t>TravelingHillbilly</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r207555273-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1514,6 +1688,9 @@
   </si>
   <si>
     <t>I always enjoy staying at a Courtyard. I've been a fan of Courtyards for the past 20 years. I had to chuckle when I read another review from a previous first who mentioned the "Motel feel" needed a makeover!  This Marriott appears to be very fresh, with the new Bistro type theme and well lit halls with tasteful decor and very clean carpet. The rooms are fresh smelling and the linen is spotless!Mu only beef and it's a personal preference is the whole Bistro concept. I preferred the older model where the breakfast was a full service hot breakfast arrangement. It seems Hotels now are trying to move completely away from dealing with serving food in a full service type of arrangement. I think it's a cost issue and it's too bad.  There's Pyrex plastic plates now and disposable e everything. Folks, we need to start caring for our environment and creating less waste! And it needs to start at the corporate level!Otherwise, a great stay as I would expect from Marriott!More</t>
+  </si>
+  <si>
+    <t>Robin S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r199477836-Courtyard_Palmdale-Palmdale_California.html</t>
@@ -1543,6 +1720,9 @@
 This was definitely...I stayed in 3 different hotels during my 3 night stay in Southern California.  The Courtyard by Marriott in Palmdale, CA was the best by far!!  The staff were more than friendly from Michelina who checked me in to another staff member who was there later as I walked by to the housekeeping staff who asked me in the hallway as I was leaving if my room was up to my standards (which it was!).  Although the bathroom may not be as updated as some hotels, it was definitely clean and nicely appointed with coffeemaker and blowdryer.  The linens on the beds were perfect for a great sleep - white as snow sheets, beautiful white puckered top sheet that looked like a duvet cover (instead of a yucky bedspread), and the sheets even smelled good every time I turned over as if they had been spritzed by scented sheet spray!!  The carpets were fairly new (or looked it), the TV was a nice flat-screen TV, it had a microwave and small refrigerator which was useful to keep sodas cold.  The hotel was close to what I needed (a gas station with mini-mart, the Antelope Valley mall where I did a little shopping and restaurants). The only thing I can say that wasn't "great" was I was on the freeway side and the noise during the day was pretty bad, but at night I really didn't notice it. This was definitely the best hotel I stayed in during my 3-night stay in Southern California.  Thank you Courtyard by Marriott in Palmdale!!  I definitely recommend you!More</t>
   </si>
   <si>
+    <t>Lynne L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r198462790-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1565,6 +1745,9 @@
   </si>
   <si>
     <t>This hotel seems to need a "make over" badly. It appears more like a motel.However, clean, and friendly front desk.Rooms have no real atmosphere....the bed linens, however were good.The Hilton Garden Inn, in the same vacinity is much better.More</t>
+  </si>
+  <si>
+    <t>Michael S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r186598067-Courtyard_Palmdale-Palmdale_California.html</t>
@@ -1600,6 +1783,9 @@
 The service people are a 5 out of 5 easily and the managers or general manager...My wife and I stayed here for a night after driving our family back to Lancaster, CA after a Thanksgiving Holiday in Santa Clara, CA.  I stayed here in 2011 during their remodel due to my father's illness (thank God he is better and T-Day was spent with him!).  This review separates customer service from the actual hotel which sadly is lacking after the remodel "touches" granted the lobby area does look like a miniature version of what you see in most of the newer Courtyards (flat screen TVs, modern, sleek and minimalist interior design).  The remodel isn't noticeable elsewhere in the hotel.CUSTOMER SERVICE (5/5 possible points): These our some of the nicest hotel employees that I have encountered in many years of travel and a definite upgrade from the pre-remodel crew.  There was one excellent clerk who was by far the nicest during my 2011 stay...but they have surrounded her with many equally nice and effective clerks for 2013.  Another made my wife and I excellent Starbucks Decaf coffee after our 10pm-ish check in, she seemed to be a wonderful person and we were extremely happy with her generosity and the coffee was excellent!  Even the security guard was nice and on top of things (this is located in Palmdale-Lancaster which has developed a significant crime problem over the last 15-20 years).  The service people are a 5 out of 5 easily and the managers or general manager need to be complimented for hiring a sharp and genuinely friendly crew.  To be honest, they make it worth the stay but the property itself is a step behind others of the same hotel class.THE PROPERTY (2/5): So to be honest, this Courtyard is the quality of a decent Fairfield which is a on a lower rung of the Marriott family.  Also, it is an older property so much of what I say here can not be changed....but still so many issues:1) The elevator is filthy by Courtyard standards....it would be acceptable or even nice for a Red Roof or Super 8...but it could be improved especially since there was a remodel in the lobby.2) The room's walls are paper thin, early morning activity in neighboring rooms of the floor above seems like listening to military maneuvers or organized marching.  Its loud and wakes you up.3) So too does the noise from the freeway.  We stayed at a newer Courtyard in Campbell, CA for three nights right by the freeway and slept like babies.  Don't know what they can do since they have done a remodel already.4) The rooms really are small for a Courtyard again, they are the size of a Fairfield Inn.  Fortunately we were able to take advantage of an "off-season" good deal, but I usually don't stay here because they tend to be overpriced.  (When I stayed in 2011 it was a good deal due to their remodel and lower pricing).5) The beds were soft and seemed to be older mattresses.....very difficult to find that "sweet" spot and get a good nights rest especially with all the noise in the morning between people checking out and the maid service cleaning rooms and knocking on doors.6) The temperature unit was "tricky."  It was one of those wall units vs. the central air/heat you see in other Marriotts [the wall mount is there but it doesn't work].  The unit is a little slow to start and works on an intermittent cycle that makes it hard to change the temperature if for example it gets entirely too toasty.7) It is really warm and stuffy in this hotel, when we went outside the Antelope Valley fall weather was much more refreshing.FINAL ANALYSIS: The SERVICE IS OUTSTANDING and the clerks here are exemplary....excellent people and I am sure the same holds true for management!!!  The service makes it worth staying if you you are able to secure a good deal and afford the rates.  Otherwise, as stated, the property itself is still not equal to other Courtyards and if this is your expectation you will be let down.More</t>
   </si>
   <si>
+    <t>Jan K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r178774032-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1627,6 +1813,9 @@
     <t>I stayed here other than the hotel next to it because I wanted to try something new.  I read in the other reviews about the elevator being out but I thought that can't still be the case.  Well guess what.  No elevator.  I checked in and went to get my bag to take to my room.  I went to find the elevator and the lady snapped and said you'll have to climb the stairs.  No sorry, I apologize, anything.  Also at check in I showed all my ID and the lady who was very nice said something I found funny.  "Okay well guess I will trust you"   I didn't quite understand that but maybe made to much out of it.  The hotel is beautiful and clean but I didn't like you weren't served a complimentary breakfast as the hotel across the way does.  I stay at many hotels and have never not been offered a complimentary breakfast.  It's a nice place to stay but just check other hotels in the area if you want breakfast and a working elevator.More</t>
   </si>
   <si>
+    <t>ZMiche</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r178762670-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1640,6 +1829,9 @@
   </si>
   <si>
     <t>Everyone at this hotel excels in  customer service!!  All are friendly,  polite, helpful, &amp; courteous!  Jessica,  at the front desk, was so personable &amp; accommodating from the  first moment.  The bistro staff was terrific as well.  One of the best Courtyards we've ever experienced! More</t>
+  </si>
+  <si>
+    <t>E R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r169554290-Courtyard_Palmdale-Palmdale_California.html</t>
@@ -1673,6 +1865,9 @@
 My room is very small and plain (economy look), but neat and visually clean, though it smells so strongly of cleaner that I have had to open the window and keep it open.  It's been open 45 minutes, and the smell is slightly better, but it seems I will have to leave it open all night it I want to be able to sleep.   Fortunately, I brought ear plugs so I won't hear the freeway, and am on the 3rd floor, so I should be safe with the window open all...I arrived late (10:30 pm), and walked in the lobby into a blast of chlorine-cleaner air; my eyes started watering instantly, and 45 minutes later are still watering and painful.  The clerk at the desk was very professional and very friendly, but informed me that the elevator was 'still out', and would not be fixed until the next day (9, maybe 9:30 am...). I received a room on the 3rd floor, and carried my luggage up in two loads.  Had I arrived earlier, I would not have checked in.    I passed two elderly couples pulling themselves up the stairs one step at a time and resting on the landings, and one younger couple lugging their bags up to their room.  For the room price (not cheap), why not have someone onsite to assist with luggage when the elevator is down?  Especially as it had been down for hours, apparently.   My room is very small and plain (economy look), but neat and visually clean, though it smells so strongly of cleaner that I have had to open the window and keep it open.  It's been open 45 minutes, and the smell is slightly better, but it seems I will have to leave it open all night it I want to be able to sleep.   Fortunately, I brought ear plugs so I won't hear the freeway, and am on the 3rd floor, so I should be safe with the window open all night. Sadly, while the clerk at the front desk was very helpful and professional, she could do nothing about these circumstances except allow me to change my stay to a single night. .More</t>
   </si>
   <si>
+    <t>jdatwhiterocks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r160324289-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1700,6 +1895,9 @@
     <t>Stayed three nights the staff were terrific and helped me out with 'questions, in house breakfast was delicious and rooms were clean and for me spacious, I will be back in 2014 and this will stay for alot longer.More</t>
   </si>
   <si>
+    <t>jkahunas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r156524611-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1724,6 +1922,9 @@
     <t>The staff here was the best I have ever encountered.  Lauren and Helen went out of their way to followup on requests - for directions to hiking trails, after hour coffee, help with printing at the business center.  My colleagues stayed at another non Marriott hotel nearby.  I debated switching, but usually prefer Marriotts.  I'm glad I stayed here, due to the staff!!!More</t>
   </si>
   <si>
+    <t>terere2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r152079656-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1751,6 +1952,9 @@
     <t>First, let me say that the staff here is fantastic and among the friendliest that I have ever encountered.  Everybody was cheerful and helpful and the property was clean and had the basics covered.  I appreciated the open lobby, variety of newspapers, punctual wake-up call and the easy check out.  The room was a bit dated and its layout strange but it was functional.Breakfast at the Bistro was served quickly and with a smile but it didn't rise above anything offered at a lesser Marriott property.  In fact, I expected more for a prepared meal and left a good bit on the plate.  Not a value proposition - a cafe or even a Denny's offers more for less.Now to the noise.  I was located on the second floor in an odd-numbered room.  It seemed like the freeway was right outside the sliding glass doors and I had a very difficult time sleeping.  I have never stayed at a place where the road noise was so loud.  I won't be back!More</t>
   </si>
   <si>
+    <t>Palmer78</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r148428982-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1769,6 +1973,9 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>Marlene O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r147352347-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1793,6 +2000,9 @@
     <t>Rooms are small, and need updating soon, but the rest of the property is new  what you expect from Courtyard. The staff is above and beyond in helpfulness and friendliness. And the bedding is what you can expect from all marriotts- awesome More</t>
   </si>
   <si>
+    <t>mmppwwzz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r140101951-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1811,6 +2021,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>niceguyb1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r135983320-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1835,6 +2048,9 @@
     <t>I was traveling with my wife and 20 month year old. we had been having a very difficult trip. Other hotels were rude and unaccommodating. The staff at this hotel was beyond nice. They go above and beyond. EVERYONE was polite and helpful. The room was clean and the facilities were great. IF we return to Palmdale we will definitely be staying there again. The beds were comfortable and my son felt at home. ThanksMore</t>
   </si>
   <si>
+    <t>Bagan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r133871489-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1856,6 +2072,9 @@
     <t>We had been driving the San Andreas Fault and stopped for the evening in Palmdale so we could drive by the Skunkworks and pretend we know something about what goes on there.  We could find no hotel in town that wasn't a bland chain style lodging, so we tried Marriott.  The Residence Inn across the parking lot was full-up with aerospace types, so we were directed across the way to the Courtyard.  Courteous youthful staff and the usual clean, consistent quality Marriott rooms.  We amused ourselves in a town without much amusement by asking all the hotel staff and guests we met if they had ever seen a UFO.  We got some very interesting answers, which elicited conversation between staff of what exactly they do when they're out late at night in the desert.More</t>
   </si>
   <si>
+    <t>Carol A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r130304009-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1874,6 +2093,9 @@
     <t>May 2012</t>
   </si>
   <si>
+    <t>agg2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r128440799-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1892,6 +2114,9 @@
     <t>April 2012</t>
   </si>
   <si>
+    <t>Gloria L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r128007443-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1910,6 +2135,9 @@
     <t>Stayed here for a soccer tourney. Most other comparable hotels offer, at the very least, a continental breakfast. This hotel did not. They have a brand new "Bistro" but the hours are scattered and they never had a full menu ready to go. Each morning we ordered boiled eggs and we had to wait 25 minutes EACH DAY...for boiled eggs!! The kids enjoyed the indoor pool, but the jacuzzi had very weak jets and the temperature was too hot to even step into the first night, and slightly cooler than bath water the second night. The rooms were comfy and spacious. Overall...just an OK visit. Not what I expected for the price. I booked somewhere else for the following weekend.More</t>
   </si>
   <si>
+    <t>Boone5269</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r121904302-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1928,6 +2156,9 @@
     <t>November 2011</t>
   </si>
   <si>
+    <t>davdaven</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r118429158-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1955,6 +2186,9 @@
     <t>Meh. That one word pretty much sums up my feelings towards the Courtyard in Palmdale. I spent one night here en route from Southern California to Northern California, and it's decent enough at a cheap price. Otherwise a Motel 6 will do just fine.The premises are extremely nondescript. There is free parking and free Wi-Fi, but breakfast is not included. (I went to the Coffee Bean &amp; Tea Leaf on the other side of the freeway.) My room seemed smallish, so I would not want to stay here for more than one or two nights. Perhaps a suite or room with a balcony would be more comfortable. My room didn't suffer from excessive road noise because it faces towards the southeast.Front desk staff was fine, but I'm not so sure about the other guests. While taking a quick dip in the hot tub, I spotted a small group of people return from some unknown (party) location. One of the proceeded to vomit in the hallway. Charming. I get the impression the people of Palmdale have nothing better to do than get drunk at the local Courtyard. There seemed to be plenty of vacant rooms during my visit, though, so you probably won't get stuck in a room next to them. Good luck.More</t>
   </si>
   <si>
+    <t>Shuvah</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r118070192-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1976,6 +2210,9 @@
     <t>The staff was friendly, the room was pleasant and the price was moderateMore</t>
   </si>
   <si>
+    <t>ThisFamilyTravels</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r60440189-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1997,6 +2234,9 @@
     <t>We stayed here on a drive from Arizona to Northern California.  Arrived late (2 a.m.) and our room was ready.  Had earlier requested a room close to the lobby due to our late arrival, and request was honored and ready upon check-in.  Front desk clerk was exceptionally friendly and professional.  It really showed.  Room was adequate, although a bit worn.  The housekeeping staff needs to vacuum the carpet edges up against the baseboards...lots of dust.  Other than that, the room was fine.  Breakfast was adequate, although nothing great.  The waitress/hostess, however, was also exceptionally friendly and eager to accomodate any requests we had.  Pleased with this stay and would not hesitate to stay again if passing through.  Definitely not a vacation resort, so look elsewhere if that is what you're looking for.More</t>
   </si>
   <si>
+    <t>hotel7231122</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r33983255-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -2018,6 +2258,9 @@
     <t>Hotel very nice and clean and comfortable.  Has nice indoor pool, but it is very hot sitting in there watching the kids swim.  Very clean and well kept - clean beds and linens.  Very  nice staff.  Lives up to the Marriott name.   One problem was that we asked for ajoining rooms which we did get, but the doors between the two rooms would only open about 6 inches because there was furniture blocking both of the doors on either side from opening.    Had  a king size bed and sleeper couch.  Room was kind of small for these beds.  I would recommend this hotel and stay again!More</t>
   </si>
   <si>
+    <t>NewEnglandCamper</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r30223367-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -2036,6 +2279,9 @@
     <t>May 2009</t>
   </si>
   <si>
+    <t>eagles78</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r8218378-Courtyard_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -2055,6 +2301,9 @@
   </si>
   <si>
     <t>We stayed in the Courtyard Palmdale for 1 night because my husband and son took a Driving performance class at The Fast Lane Racing School within 30 minutes from here.  Courtyard Palmdale was a very clean and well run hotel.  The hotel was very clean not only in the rooms but in all parts of the hotel that we seen.  The staff is very friendly and helpful when you had questions about the area. I would definitely  recommend this hotel to anyone.  They have a really good breakfast and the service is great. The decor of this hotel is nicely done. They are doing a great job in running this facility.More</t>
+  </si>
+  <si>
+    <t>California-SLC</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223965-r3636010-Courtyard_Palmdale-Palmdale_California.html</t>
@@ -2577,43 +2826,47 @@
       <c r="A2" t="n">
         <v>41001</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>133327</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
@@ -2629,56 +2882,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>41001</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>133328</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2694,56 +2951,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>41001</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>133329</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -2761,56 +3022,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>41001</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>133330</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2822,56 +3087,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>41001</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>133331</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -2889,56 +3158,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>41001</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>133332</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2950,56 +3223,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>41001</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>133333</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -3017,56 +3294,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="X8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>41001</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>133334</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -3082,56 +3363,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="X9" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>41001</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>88714</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -3149,56 +3434,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="X10" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="Y10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>41001</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>133335</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -3216,47 +3505,51 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="X11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="Y11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>41001</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>133336</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
@@ -3273,56 +3566,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="X12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="Y12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>41001</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>133337</v>
+      </c>
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="K13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="L13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3340,56 +3637,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="X13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="Y13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>41001</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>133338</v>
+      </c>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="J14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="K14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="L14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="O14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3401,56 +3702,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="X14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="Y14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>41001</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>153</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" t="s">
+        <v>147</v>
+      </c>
+      <c r="K15" t="s">
+        <v>156</v>
+      </c>
+      <c r="L15" t="s">
+        <v>157</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
         <v>140</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
-        <v>141</v>
-      </c>
-      <c r="J15" t="s">
-        <v>134</v>
-      </c>
-      <c r="K15" t="s">
-        <v>142</v>
-      </c>
-      <c r="L15" t="s">
-        <v>143</v>
-      </c>
-      <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>128</v>
-      </c>
       <c r="O15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3462,56 +3767,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="X15" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="Y15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>41001</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>32280</v>
+      </c>
+      <c r="C16" t="s">
+        <v>159</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="J16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="K16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="L16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="O16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -3529,56 +3838,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="X16" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="Y16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>41001</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>133339</v>
+      </c>
+      <c r="C17" t="s">
+        <v>166</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="J17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="K17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="L17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="O17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3594,56 +3907,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="X17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="Y17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>41001</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>91541</v>
+      </c>
+      <c r="C18" t="s">
+        <v>176</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="J18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="K18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="L18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="O18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -3659,56 +3976,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="X18" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="Y18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>41001</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>133340</v>
+      </c>
+      <c r="C19" t="s">
+        <v>184</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="J19" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="K19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="L19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="O19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -3726,56 +4047,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="X19" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="Y19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>41001</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>133341</v>
+      </c>
+      <c r="C20" t="s">
+        <v>190</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
+        <v>191</v>
+      </c>
+      <c r="G20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" t="s">
+        <v>192</v>
+      </c>
+      <c r="J20" t="s">
+        <v>193</v>
+      </c>
+      <c r="K20" t="s">
+        <v>194</v>
+      </c>
+      <c r="L20" t="s">
+        <v>195</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
         <v>172</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
-        <v>173</v>
-      </c>
-      <c r="J20" t="s">
-        <v>174</v>
-      </c>
-      <c r="K20" t="s">
-        <v>175</v>
-      </c>
-      <c r="L20" t="s">
-        <v>176</v>
-      </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>156</v>
-      </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3787,56 +4112,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="X20" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="Y20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>41001</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>133342</v>
+      </c>
+      <c r="C21" t="s">
+        <v>199</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="J21" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="K21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="L21" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -3852,56 +4181,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="X21" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="Y21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>41001</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>133343</v>
+      </c>
+      <c r="C22" t="s">
+        <v>209</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="J22" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="K22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="L22" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -3919,56 +4252,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="X22" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="Y22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>41001</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>133344</v>
+      </c>
+      <c r="C23" t="s">
+        <v>219</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="J23" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="K23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="L23" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3980,56 +4317,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="X23" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="Y23" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>41001</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>899</v>
+      </c>
+      <c r="C24" t="s">
+        <v>229</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="J24" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="K24" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="L24" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -4047,56 +4388,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="X24" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="Y24" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>41001</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>133345</v>
+      </c>
+      <c r="C25" t="s">
+        <v>239</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="J25" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="K25" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="L25" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -4112,56 +4457,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="X25" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="Y25" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>41001</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>133346</v>
+      </c>
+      <c r="C26" t="s">
+        <v>249</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="J26" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="K26" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="L26" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -4179,56 +4528,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="X26" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="Y26" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>41001</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>133347</v>
+      </c>
+      <c r="C27" t="s">
+        <v>259</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="J27" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="K27" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="L27" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -4246,56 +4599,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="X27" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="Y27" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>41001</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>133348</v>
+      </c>
+      <c r="C28" t="s">
+        <v>268</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="J28" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="K28" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="L28" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="O28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4311,56 +4668,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="X28" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="Y28" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>41001</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>133349</v>
+      </c>
+      <c r="C29" t="s">
+        <v>277</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="J29" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="K29" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="L29" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -4378,56 +4739,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="X29" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="Y29" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>41001</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>133350</v>
+      </c>
+      <c r="C30" t="s">
+        <v>287</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="J30" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="K30" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="L30" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4439,47 +4804,51 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="X30" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="Y30" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>41001</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>133351</v>
+      </c>
+      <c r="C31" t="s">
+        <v>297</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="J31" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="K31" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="L31" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
@@ -4496,56 +4865,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="X31" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="Y31" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>41001</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>133352</v>
+      </c>
+      <c r="C32" t="s">
+        <v>304</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="J32" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="K32" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="L32" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4563,50 +4936,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>41001</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>2559</v>
+      </c>
+      <c r="C33" t="s">
+        <v>310</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="J33" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="K33" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="L33" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4620,50 +4997,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>41001</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>133353</v>
+      </c>
+      <c r="C34" t="s">
+        <v>317</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="J34" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="K34" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="L34" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="O34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -4683,50 +5064,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>41001</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>133354</v>
+      </c>
+      <c r="C35" t="s">
+        <v>323</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="J35" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="K35" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="L35" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="O35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4742,56 +5127,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="X35" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="Y35" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>41001</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>107845</v>
+      </c>
+      <c r="C36" t="s">
+        <v>332</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="J36" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="K36" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="L36" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="O36" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4807,56 +5196,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="X36" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="Y36" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>41001</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>28529</v>
+      </c>
+      <c r="C37" t="s">
+        <v>342</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="J37" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="K37" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="L37" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="O37" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4872,56 +5265,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="X37" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="Y37" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>41001</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>133355</v>
+      </c>
+      <c r="C38" t="s">
+        <v>351</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="J38" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="K38" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="L38" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4933,56 +5330,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="X38" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="Y38" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>41001</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>133356</v>
+      </c>
+      <c r="C39" t="s">
+        <v>361</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="J39" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="K39" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="L39" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="O39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -5000,56 +5401,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="X39" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="Y39" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>41001</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>38260</v>
+      </c>
+      <c r="C40" t="s">
+        <v>369</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="J40" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="K40" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="L40" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5061,56 +5466,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="X40" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="Y40" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>41001</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>133357</v>
+      </c>
+      <c r="C41" t="s">
+        <v>377</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="J41" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="K41" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="L41" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="n">
         <v>1</v>
@@ -5128,56 +5537,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="X41" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="Y41" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>41001</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>133358</v>
+      </c>
+      <c r="C42" t="s">
+        <v>387</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="J42" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
       <c r="K42" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="L42" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="O42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5193,56 +5606,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="X42" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="Y42" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>41001</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>25504</v>
+      </c>
+      <c r="C43" t="s">
+        <v>397</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="J43" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="K43" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="L43" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5260,56 +5677,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="X43" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="Y43" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>41001</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>133359</v>
+      </c>
+      <c r="C44" t="s">
+        <v>406</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
       <c r="J44" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="K44" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="L44" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5325,56 +5746,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="X44" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="Y44" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>41001</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>40193</v>
+      </c>
+      <c r="C45" t="s">
+        <v>416</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>374</v>
+        <v>418</v>
       </c>
       <c r="J45" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
       <c r="K45" t="s">
-        <v>376</v>
+        <v>420</v>
       </c>
       <c r="L45" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="O45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5390,56 +5815,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="X45" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
       <c r="Y45" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>41001</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>133360</v>
+      </c>
+      <c r="C46" t="s">
+        <v>426</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="J46" t="s">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="K46" t="s">
-        <v>385</v>
+        <v>430</v>
       </c>
       <c r="L46" t="s">
-        <v>386</v>
+        <v>431</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="O46" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -5457,56 +5886,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>387</v>
+        <v>432</v>
       </c>
       <c r="X46" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
       <c r="Y46" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>41001</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>133361</v>
+      </c>
+      <c r="C47" t="s">
+        <v>435</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>390</v>
+        <v>436</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>391</v>
+        <v>437</v>
       </c>
       <c r="J47" t="s">
-        <v>392</v>
+        <v>438</v>
       </c>
       <c r="K47" t="s">
-        <v>393</v>
+        <v>439</v>
       </c>
       <c r="L47" t="s">
-        <v>394</v>
+        <v>440</v>
       </c>
       <c r="M47" t="n">
         <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="n">
@@ -5524,56 +5957,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
       <c r="X47" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="Y47" t="s">
-        <v>398</v>
+        <v>444</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>41001</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>18650</v>
+      </c>
+      <c r="C48" t="s">
+        <v>445</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>399</v>
+        <v>446</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="J48" t="s">
-        <v>401</v>
+        <v>448</v>
       </c>
       <c r="K48" t="s">
-        <v>402</v>
+        <v>449</v>
       </c>
       <c r="L48" t="s">
-        <v>403</v>
+        <v>450</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="O48" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="n">
@@ -5589,56 +6026,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
       <c r="X48" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="Y48" t="s">
-        <v>404</v>
+        <v>451</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>41001</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>68445</v>
+      </c>
+      <c r="C49" t="s">
+        <v>452</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>405</v>
+        <v>453</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>406</v>
+        <v>454</v>
       </c>
       <c r="J49" t="s">
-        <v>407</v>
+        <v>455</v>
       </c>
       <c r="K49" t="s">
-        <v>408</v>
+        <v>456</v>
       </c>
       <c r="L49" t="s">
-        <v>409</v>
+        <v>457</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>410</v>
+        <v>458</v>
       </c>
       <c r="O49" t="s">
-        <v>411</v>
+        <v>459</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5656,56 +6097,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>412</v>
+        <v>460</v>
       </c>
       <c r="X49" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="Y49" t="s">
-        <v>414</v>
+        <v>462</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>41001</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>64939</v>
+      </c>
+      <c r="C50" t="s">
+        <v>463</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>415</v>
+        <v>464</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
       <c r="J50" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
       <c r="K50" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="L50" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5719,50 +6164,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>41001</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>133362</v>
+      </c>
+      <c r="C51" t="s">
+        <v>470</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>421</v>
+        <v>471</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>422</v>
+        <v>472</v>
       </c>
       <c r="J51" t="s">
-        <v>423</v>
+        <v>473</v>
       </c>
       <c r="K51" t="s">
-        <v>424</v>
+        <v>474</v>
       </c>
       <c r="L51" t="s">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="M51" t="n">
         <v>2</v>
       </c>
       <c r="N51" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="O51" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="n">
@@ -5780,56 +6229,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>427</v>
+        <v>477</v>
       </c>
       <c r="X51" t="s">
-        <v>428</v>
+        <v>478</v>
       </c>
       <c r="Y51" t="s">
-        <v>429</v>
+        <v>479</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>41001</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>133363</v>
+      </c>
+      <c r="C52" t="s">
+        <v>480</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="J52" t="s">
-        <v>432</v>
+        <v>483</v>
       </c>
       <c r="K52" t="s">
-        <v>433</v>
+        <v>484</v>
       </c>
       <c r="L52" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>435</v>
+        <v>486</v>
       </c>
       <c r="O52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5847,56 +6300,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
       <c r="X52" t="s">
-        <v>437</v>
+        <v>488</v>
       </c>
       <c r="Y52" t="s">
-        <v>438</v>
+        <v>489</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>41001</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>48444</v>
+      </c>
+      <c r="C53" t="s">
+        <v>490</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>439</v>
+        <v>491</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="J53" t="s">
-        <v>441</v>
+        <v>493</v>
       </c>
       <c r="K53" t="s">
-        <v>442</v>
+        <v>494</v>
       </c>
       <c r="L53" t="s">
-        <v>443</v>
+        <v>495</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>435</v>
+        <v>486</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5908,56 +6365,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>444</v>
+        <v>496</v>
       </c>
       <c r="X53" t="s">
-        <v>445</v>
+        <v>497</v>
       </c>
       <c r="Y53" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>41001</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>133364</v>
+      </c>
+      <c r="C54" t="s">
+        <v>499</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>447</v>
+        <v>500</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>448</v>
+        <v>501</v>
       </c>
       <c r="J54" t="s">
-        <v>449</v>
+        <v>502</v>
       </c>
       <c r="K54" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
       <c r="L54" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>452</v>
+        <v>505</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -5973,56 +6434,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="X54" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="Y54" t="s">
-        <v>455</v>
+        <v>508</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>41001</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>133365</v>
+      </c>
+      <c r="C55" t="s">
+        <v>509</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>456</v>
+        <v>510</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>457</v>
+        <v>511</v>
       </c>
       <c r="J55" t="s">
-        <v>458</v>
+        <v>512</v>
       </c>
       <c r="K55" t="s">
+        <v>513</v>
+      </c>
+      <c r="L55" t="s">
+        <v>514</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>515</v>
+      </c>
+      <c r="O55" t="s">
         <v>459</v>
-      </c>
-      <c r="L55" t="s">
-        <v>460</v>
-      </c>
-      <c r="M55" t="n">
-        <v>5</v>
-      </c>
-      <c r="N55" t="s">
-        <v>461</v>
-      </c>
-      <c r="O55" t="s">
-        <v>411</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="n">
@@ -6040,56 +6505,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="X55" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="Y55" t="s">
-        <v>462</v>
+        <v>516</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>41001</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>133366</v>
+      </c>
+      <c r="C56" t="s">
+        <v>517</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>463</v>
+        <v>518</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>464</v>
+        <v>519</v>
       </c>
       <c r="J56" t="s">
-        <v>465</v>
+        <v>520</v>
       </c>
       <c r="K56" t="s">
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="L56" t="s">
-        <v>467</v>
+        <v>522</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>468</v>
+        <v>523</v>
       </c>
       <c r="O56" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -6105,56 +6574,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>469</v>
+        <v>524</v>
       </c>
       <c r="X56" t="s">
-        <v>470</v>
+        <v>525</v>
       </c>
       <c r="Y56" t="s">
-        <v>471</v>
+        <v>526</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>41001</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>12991</v>
+      </c>
+      <c r="C57" t="s">
+        <v>527</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>472</v>
+        <v>528</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="J57" t="s">
-        <v>474</v>
+        <v>530</v>
       </c>
       <c r="K57" t="s">
-        <v>475</v>
+        <v>531</v>
       </c>
       <c r="L57" t="s">
-        <v>476</v>
+        <v>532</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>477</v>
+        <v>533</v>
       </c>
       <c r="O57" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6176,56 +6649,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>478</v>
+        <v>534</v>
       </c>
       <c r="X57" t="s">
-        <v>479</v>
+        <v>535</v>
       </c>
       <c r="Y57" t="s">
-        <v>480</v>
+        <v>536</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>41001</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>133367</v>
+      </c>
+      <c r="C58" t="s">
+        <v>537</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>481</v>
+        <v>538</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>482</v>
+        <v>539</v>
       </c>
       <c r="J58" t="s">
-        <v>483</v>
+        <v>540</v>
       </c>
       <c r="K58" t="s">
-        <v>484</v>
+        <v>541</v>
       </c>
       <c r="L58" t="s">
-        <v>485</v>
+        <v>542</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>477</v>
+        <v>533</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6237,56 +6714,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>478</v>
+        <v>534</v>
       </c>
       <c r="X58" t="s">
-        <v>479</v>
+        <v>535</v>
       </c>
       <c r="Y58" t="s">
-        <v>486</v>
+        <v>543</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>41001</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>133368</v>
+      </c>
+      <c r="C59" t="s">
+        <v>544</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>487</v>
+        <v>545</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>488</v>
+        <v>546</v>
       </c>
       <c r="J59" t="s">
-        <v>489</v>
+        <v>547</v>
       </c>
       <c r="K59" t="s">
-        <v>490</v>
+        <v>548</v>
       </c>
       <c r="L59" t="s">
-        <v>491</v>
+        <v>549</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>492</v>
+        <v>550</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -6298,56 +6779,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>493</v>
+        <v>551</v>
       </c>
       <c r="X59" t="s">
-        <v>494</v>
+        <v>552</v>
       </c>
       <c r="Y59" t="s">
-        <v>495</v>
+        <v>553</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>41001</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>9224</v>
+      </c>
+      <c r="C60" t="s">
+        <v>554</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>496</v>
+        <v>555</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>497</v>
+        <v>556</v>
       </c>
       <c r="J60" t="s">
-        <v>498</v>
+        <v>557</v>
       </c>
       <c r="K60" t="s">
-        <v>499</v>
+        <v>558</v>
       </c>
       <c r="L60" t="s">
-        <v>500</v>
+        <v>559</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>501</v>
+        <v>560</v>
       </c>
       <c r="O60" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6369,56 +6854,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>493</v>
+        <v>551</v>
       </c>
       <c r="X60" t="s">
-        <v>494</v>
+        <v>552</v>
       </c>
       <c r="Y60" t="s">
-        <v>502</v>
+        <v>561</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>41001</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>78918</v>
+      </c>
+      <c r="C61" t="s">
+        <v>562</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>503</v>
+        <v>563</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>504</v>
+        <v>564</v>
       </c>
       <c r="J61" t="s">
-        <v>505</v>
+        <v>565</v>
       </c>
       <c r="K61" t="s">
-        <v>506</v>
+        <v>566</v>
       </c>
       <c r="L61" t="s">
-        <v>507</v>
+        <v>567</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>501</v>
+        <v>560</v>
       </c>
       <c r="O61" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P61" t="n">
         <v>2</v>
@@ -6440,56 +6929,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>508</v>
+        <v>568</v>
       </c>
       <c r="X61" t="s">
-        <v>509</v>
+        <v>569</v>
       </c>
       <c r="Y61" t="s">
-        <v>510</v>
+        <v>570</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>41001</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>35</v>
+      </c>
+      <c r="C62" t="s">
+        <v>571</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>511</v>
+        <v>572</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>512</v>
+        <v>573</v>
       </c>
       <c r="J62" t="s">
-        <v>513</v>
+        <v>574</v>
       </c>
       <c r="K62" t="s">
-        <v>514</v>
+        <v>575</v>
       </c>
       <c r="L62" t="s">
-        <v>515</v>
+        <v>576</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>516</v>
+        <v>577</v>
       </c>
       <c r="O62" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -6511,56 +7004,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>517</v>
+        <v>578</v>
       </c>
       <c r="X62" t="s">
-        <v>518</v>
+        <v>579</v>
       </c>
       <c r="Y62" t="s">
-        <v>519</v>
+        <v>580</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>41001</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>43972</v>
+      </c>
+      <c r="C63" t="s">
+        <v>581</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>520</v>
+        <v>582</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>521</v>
+        <v>583</v>
       </c>
       <c r="J63" t="s">
-        <v>522</v>
+        <v>584</v>
       </c>
       <c r="K63" t="s">
-        <v>523</v>
+        <v>585</v>
       </c>
       <c r="L63" t="s">
-        <v>524</v>
+        <v>586</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>525</v>
+        <v>587</v>
       </c>
       <c r="O63" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="P63" t="n">
         <v>3</v>
@@ -6582,47 +7079,51 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>526</v>
+        <v>588</v>
       </c>
       <c r="X63" t="s">
-        <v>527</v>
+        <v>589</v>
       </c>
       <c r="Y63" t="s">
-        <v>528</v>
+        <v>590</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>41001</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>133369</v>
+      </c>
+      <c r="C64" t="s">
+        <v>591</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>529</v>
+        <v>592</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>530</v>
+        <v>593</v>
       </c>
       <c r="J64" t="s">
-        <v>522</v>
+        <v>584</v>
       </c>
       <c r="K64" t="s">
-        <v>531</v>
+        <v>594</v>
       </c>
       <c r="L64" t="s">
-        <v>532</v>
+        <v>595</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
@@ -6649,56 +7150,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>526</v>
+        <v>588</v>
       </c>
       <c r="X64" t="s">
-        <v>527</v>
+        <v>589</v>
       </c>
       <c r="Y64" t="s">
-        <v>533</v>
+        <v>596</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>41001</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>133370</v>
+      </c>
+      <c r="C65" t="s">
+        <v>597</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>534</v>
+        <v>598</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>535</v>
+        <v>599</v>
       </c>
       <c r="J65" t="s">
-        <v>536</v>
+        <v>600</v>
       </c>
       <c r="K65" t="s">
-        <v>537</v>
+        <v>601</v>
       </c>
       <c r="L65" t="s">
-        <v>538</v>
+        <v>602</v>
       </c>
       <c r="M65" t="n">
         <v>2</v>
       </c>
       <c r="N65" t="s">
-        <v>539</v>
+        <v>603</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="n">
         <v>1</v>
@@ -6720,56 +7225,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>540</v>
+        <v>604</v>
       </c>
       <c r="X65" t="s">
-        <v>541</v>
+        <v>605</v>
       </c>
       <c r="Y65" t="s">
-        <v>542</v>
+        <v>606</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>41001</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>133371</v>
+      </c>
+      <c r="C66" t="s">
+        <v>607</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>543</v>
+        <v>608</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>544</v>
+        <v>609</v>
       </c>
       <c r="J66" t="s">
-        <v>545</v>
+        <v>610</v>
       </c>
       <c r="K66" t="s">
-        <v>546</v>
+        <v>611</v>
       </c>
       <c r="L66" t="s">
-        <v>547</v>
+        <v>612</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>548</v>
+        <v>613</v>
       </c>
       <c r="O66" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6791,47 +7300,51 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>549</v>
+        <v>614</v>
       </c>
       <c r="X66" t="s">
-        <v>550</v>
+        <v>615</v>
       </c>
       <c r="Y66" t="s">
-        <v>551</v>
+        <v>616</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>41001</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>133372</v>
+      </c>
+      <c r="C67" t="s">
+        <v>617</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>552</v>
+        <v>618</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>553</v>
+        <v>619</v>
       </c>
       <c r="J67" t="s">
-        <v>554</v>
+        <v>620</v>
       </c>
       <c r="K67" t="s">
-        <v>555</v>
+        <v>621</v>
       </c>
       <c r="L67" t="s">
-        <v>556</v>
+        <v>622</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
@@ -6858,56 +7371,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>557</v>
+        <v>623</v>
       </c>
       <c r="X67" t="s">
-        <v>558</v>
+        <v>624</v>
       </c>
       <c r="Y67" t="s">
-        <v>559</v>
+        <v>625</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>41001</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>133373</v>
+      </c>
+      <c r="C68" t="s">
+        <v>626</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>560</v>
+        <v>627</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>561</v>
+        <v>628</v>
       </c>
       <c r="J68" t="s">
-        <v>562</v>
+        <v>629</v>
       </c>
       <c r="K68" t="s">
-        <v>563</v>
+        <v>630</v>
       </c>
       <c r="L68" t="s">
-        <v>564</v>
+        <v>631</v>
       </c>
       <c r="M68" t="n">
         <v>2</v>
       </c>
       <c r="N68" t="s">
-        <v>565</v>
+        <v>632</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P68" t="n">
         <v>3</v>
@@ -6925,56 +7442,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>566</v>
+        <v>633</v>
       </c>
       <c r="X68" t="s">
-        <v>567</v>
+        <v>634</v>
       </c>
       <c r="Y68" t="s">
-        <v>568</v>
+        <v>635</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>41001</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>133374</v>
+      </c>
+      <c r="C69" t="s">
+        <v>636</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>569</v>
+        <v>637</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>570</v>
+        <v>638</v>
       </c>
       <c r="J69" t="s">
-        <v>571</v>
+        <v>639</v>
       </c>
       <c r="K69" t="s">
-        <v>572</v>
+        <v>640</v>
       </c>
       <c r="L69" t="s">
-        <v>573</v>
+        <v>641</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>574</v>
+        <v>642</v>
       </c>
       <c r="O69" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6998,41 +7519,45 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>573</v>
+        <v>641</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>41001</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>133375</v>
+      </c>
+      <c r="C70" t="s">
+        <v>643</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>575</v>
+        <v>644</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>576</v>
+        <v>645</v>
       </c>
       <c r="J70" t="s">
-        <v>577</v>
+        <v>646</v>
       </c>
       <c r="K70" t="s">
-        <v>578</v>
+        <v>647</v>
       </c>
       <c r="L70" t="s">
-        <v>579</v>
+        <v>648</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
@@ -7059,56 +7584,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>580</v>
+        <v>649</v>
       </c>
       <c r="X70" t="s">
-        <v>581</v>
+        <v>650</v>
       </c>
       <c r="Y70" t="s">
-        <v>582</v>
+        <v>651</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>41001</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>133376</v>
+      </c>
+      <c r="C71" t="s">
+        <v>652</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>583</v>
+        <v>653</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>584</v>
+        <v>654</v>
       </c>
       <c r="J71" t="s">
-        <v>585</v>
+        <v>655</v>
       </c>
       <c r="K71" t="s">
-        <v>586</v>
+        <v>656</v>
       </c>
       <c r="L71" t="s">
-        <v>587</v>
+        <v>657</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>588</v>
+        <v>658</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P71" t="n">
         <v>4</v>
@@ -7132,50 +7661,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>587</v>
+        <v>657</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>41001</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>133377</v>
+      </c>
+      <c r="C72" t="s">
+        <v>659</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>589</v>
+        <v>660</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>590</v>
+        <v>661</v>
       </c>
       <c r="J72" t="s">
-        <v>591</v>
+        <v>662</v>
       </c>
       <c r="K72" t="s">
-        <v>592</v>
+        <v>663</v>
       </c>
       <c r="L72" t="s">
-        <v>593</v>
+        <v>664</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>588</v>
+        <v>658</v>
       </c>
       <c r="O72" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7197,56 +7730,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>594</v>
+        <v>665</v>
       </c>
       <c r="X72" t="s">
-        <v>595</v>
+        <v>666</v>
       </c>
       <c r="Y72" t="s">
-        <v>596</v>
+        <v>667</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>41001</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>113183</v>
+      </c>
+      <c r="C73" t="s">
+        <v>668</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>597</v>
+        <v>669</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>598</v>
+        <v>670</v>
       </c>
       <c r="J73" t="s">
-        <v>599</v>
+        <v>671</v>
       </c>
       <c r="K73" t="s">
-        <v>600</v>
+        <v>672</v>
       </c>
       <c r="L73" t="s">
-        <v>601</v>
+        <v>673</v>
       </c>
       <c r="M73" t="n">
         <v>3</v>
       </c>
       <c r="N73" t="s">
-        <v>602</v>
+        <v>674</v>
       </c>
       <c r="O73" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P73" t="n">
         <v>3</v>
@@ -7270,50 +7807,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>603</v>
+        <v>675</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>41001</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>34275</v>
+      </c>
+      <c r="C74" t="s">
+        <v>676</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>604</v>
+        <v>677</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>605</v>
+        <v>678</v>
       </c>
       <c r="J74" t="s">
-        <v>606</v>
+        <v>679</v>
       </c>
       <c r="K74" t="s">
-        <v>607</v>
+        <v>680</v>
       </c>
       <c r="L74" t="s">
-        <v>608</v>
+        <v>681</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>609</v>
+        <v>682</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>4</v>
@@ -7337,50 +7878,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>608</v>
+        <v>681</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>41001</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>133378</v>
+      </c>
+      <c r="C75" t="s">
+        <v>683</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>610</v>
+        <v>684</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>611</v>
+        <v>685</v>
       </c>
       <c r="J75" t="s">
-        <v>612</v>
+        <v>686</v>
       </c>
       <c r="K75" t="s">
-        <v>613</v>
+        <v>687</v>
       </c>
       <c r="L75" t="s">
-        <v>614</v>
+        <v>688</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>615</v>
+        <v>689</v>
       </c>
       <c r="O75" t="s">
-        <v>411</v>
+        <v>459</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7404,50 +7949,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>614</v>
+        <v>688</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>41001</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>50858</v>
+      </c>
+      <c r="C76" t="s">
+        <v>690</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>616</v>
+        <v>691</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>617</v>
+        <v>692</v>
       </c>
       <c r="J76" t="s">
-        <v>618</v>
+        <v>693</v>
       </c>
       <c r="K76" t="s">
-        <v>619</v>
+        <v>694</v>
       </c>
       <c r="L76" t="s">
-        <v>620</v>
+        <v>695</v>
       </c>
       <c r="M76" t="n">
         <v>3</v>
       </c>
       <c r="N76" t="s">
-        <v>615</v>
+        <v>689</v>
       </c>
       <c r="O76" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P76" t="n">
         <v>3</v>
@@ -7471,50 +8020,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>621</v>
+        <v>696</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>41001</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>99298</v>
+      </c>
+      <c r="C77" t="s">
+        <v>697</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>622</v>
+        <v>698</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>623</v>
+        <v>699</v>
       </c>
       <c r="J77" t="s">
-        <v>624</v>
+        <v>700</v>
       </c>
       <c r="K77" t="s">
-        <v>625</v>
+        <v>701</v>
       </c>
       <c r="L77" t="s">
-        <v>626</v>
+        <v>702</v>
       </c>
       <c r="M77" t="n">
         <v>3</v>
       </c>
       <c r="N77" t="s">
-        <v>627</v>
+        <v>703</v>
       </c>
       <c r="O77" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P77" t="n">
         <v>3</v>
@@ -7538,50 +8091,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>626</v>
+        <v>702</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>41001</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>133379</v>
+      </c>
+      <c r="C78" t="s">
+        <v>704</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>628</v>
+        <v>705</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>629</v>
+        <v>706</v>
       </c>
       <c r="J78" t="s">
-        <v>630</v>
+        <v>707</v>
       </c>
       <c r="K78" t="s">
-        <v>631</v>
+        <v>708</v>
       </c>
       <c r="L78" t="s">
-        <v>632</v>
+        <v>709</v>
       </c>
       <c r="M78" t="n">
         <v>3</v>
       </c>
       <c r="N78" t="s">
-        <v>633</v>
+        <v>710</v>
       </c>
       <c r="O78" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="P78" t="n">
         <v>3</v>
@@ -7603,56 +8160,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>634</v>
+        <v>711</v>
       </c>
       <c r="X78" t="s">
-        <v>635</v>
+        <v>712</v>
       </c>
       <c r="Y78" t="s">
-        <v>636</v>
+        <v>713</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>41001</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>133380</v>
+      </c>
+      <c r="C79" t="s">
+        <v>714</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>637</v>
+        <v>715</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>638</v>
+        <v>716</v>
       </c>
       <c r="J79" t="s">
-        <v>639</v>
+        <v>717</v>
       </c>
       <c r="K79" t="s">
-        <v>640</v>
+        <v>718</v>
       </c>
       <c r="L79" t="s">
-        <v>641</v>
+        <v>719</v>
       </c>
       <c r="M79" t="n">
         <v>3</v>
       </c>
       <c r="N79" t="s">
-        <v>642</v>
+        <v>720</v>
       </c>
       <c r="O79" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -7672,56 +8233,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>634</v>
+        <v>711</v>
       </c>
       <c r="X79" t="s">
-        <v>635</v>
+        <v>712</v>
       </c>
       <c r="Y79" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>41001</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>133381</v>
+      </c>
+      <c r="C80" t="s">
+        <v>722</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>644</v>
+        <v>723</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>645</v>
+        <v>724</v>
       </c>
       <c r="J80" t="s">
-        <v>646</v>
+        <v>725</v>
       </c>
       <c r="K80" t="s">
-        <v>647</v>
+        <v>726</v>
       </c>
       <c r="L80" t="s">
-        <v>648</v>
+        <v>727</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>649</v>
+        <v>728</v>
       </c>
       <c r="O80" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P80" t="n">
         <v>3</v>
@@ -7743,56 +8308,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>634</v>
+        <v>711</v>
       </c>
       <c r="X80" t="s">
-        <v>635</v>
+        <v>712</v>
       </c>
       <c r="Y80" t="s">
-        <v>650</v>
+        <v>729</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>41001</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>133382</v>
+      </c>
+      <c r="C81" t="s">
+        <v>730</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>651</v>
+        <v>731</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>652</v>
+        <v>732</v>
       </c>
       <c r="J81" t="s">
-        <v>653</v>
+        <v>733</v>
       </c>
       <c r="K81" t="s">
-        <v>654</v>
+        <v>734</v>
       </c>
       <c r="L81" t="s">
-        <v>655</v>
+        <v>735</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>656</v>
+        <v>736</v>
       </c>
       <c r="O81" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P81" t="n">
         <v>3</v>
@@ -7814,56 +8383,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>634</v>
+        <v>711</v>
       </c>
       <c r="X81" t="s">
-        <v>635</v>
+        <v>712</v>
       </c>
       <c r="Y81" t="s">
-        <v>657</v>
+        <v>737</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>41001</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>133383</v>
+      </c>
+      <c r="C82" t="s">
+        <v>738</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>658</v>
+        <v>739</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>659</v>
+        <v>740</v>
       </c>
       <c r="J82" t="s">
-        <v>660</v>
+        <v>741</v>
       </c>
       <c r="K82" t="s">
-        <v>661</v>
+        <v>742</v>
       </c>
       <c r="L82" t="s">
-        <v>662</v>
+        <v>743</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>663</v>
+        <v>744</v>
       </c>
       <c r="O82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P82" t="n">
         <v>3</v>
@@ -7887,50 +8460,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>662</v>
+        <v>743</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>41001</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>133384</v>
+      </c>
+      <c r="C83" t="s">
+        <v>745</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>664</v>
+        <v>746</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>665</v>
+        <v>747</v>
       </c>
       <c r="J83" t="s">
-        <v>666</v>
+        <v>748</v>
       </c>
       <c r="K83" t="s">
-        <v>667</v>
+        <v>749</v>
       </c>
       <c r="L83" t="s">
-        <v>668</v>
+        <v>750</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>669</v>
+        <v>751</v>
       </c>
       <c r="O83" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -7954,41 +8531,45 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>670</v>
+        <v>752</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>41001</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>133385</v>
+      </c>
+      <c r="C84" t="s">
+        <v>753</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>671</v>
+        <v>754</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>672</v>
+        <v>755</v>
       </c>
       <c r="J84" t="s">
-        <v>673</v>
+        <v>756</v>
       </c>
       <c r="K84" t="s">
-        <v>674</v>
+        <v>757</v>
       </c>
       <c r="L84" t="s">
-        <v>675</v>
+        <v>758</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
@@ -8015,7 +8596,7 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>676</v>
+        <v>759</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_166.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_166.xlsx
@@ -2827,7 +2827,7 @@
         <v>41001</v>
       </c>
       <c r="B2" t="n">
-        <v>133327</v>
+        <v>134056</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -2896,7 +2896,7 @@
         <v>41001</v>
       </c>
       <c r="B3" t="n">
-        <v>133328</v>
+        <v>164155</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -2965,7 +2965,7 @@
         <v>41001</v>
       </c>
       <c r="B4" t="n">
-        <v>133329</v>
+        <v>164156</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
@@ -3036,7 +3036,7 @@
         <v>41001</v>
       </c>
       <c r="B5" t="n">
-        <v>133330</v>
+        <v>164157</v>
       </c>
       <c r="C5" t="s">
         <v>74</v>
@@ -3101,7 +3101,7 @@
         <v>41001</v>
       </c>
       <c r="B6" t="n">
-        <v>133331</v>
+        <v>164158</v>
       </c>
       <c r="C6" t="s">
         <v>82</v>
@@ -3172,7 +3172,7 @@
         <v>41001</v>
       </c>
       <c r="B7" t="n">
-        <v>133332</v>
+        <v>164159</v>
       </c>
       <c r="C7" t="s">
         <v>89</v>
@@ -3237,7 +3237,7 @@
         <v>41001</v>
       </c>
       <c r="B8" t="n">
-        <v>133333</v>
+        <v>164160</v>
       </c>
       <c r="C8" t="s">
         <v>96</v>
@@ -3308,7 +3308,7 @@
         <v>41001</v>
       </c>
       <c r="B9" t="n">
-        <v>133334</v>
+        <v>164161</v>
       </c>
       <c r="C9" t="s">
         <v>104</v>
@@ -3448,7 +3448,7 @@
         <v>41001</v>
       </c>
       <c r="B11" t="n">
-        <v>133335</v>
+        <v>164162</v>
       </c>
       <c r="C11" t="s">
         <v>116</v>
@@ -3519,7 +3519,7 @@
         <v>41001</v>
       </c>
       <c r="B12" t="n">
-        <v>133336</v>
+        <v>164163</v>
       </c>
       <c r="C12" t="s">
         <v>125</v>
@@ -3580,7 +3580,7 @@
         <v>41001</v>
       </c>
       <c r="B13" t="n">
-        <v>133337</v>
+        <v>164164</v>
       </c>
       <c r="C13" t="s">
         <v>134</v>
@@ -3651,7 +3651,7 @@
         <v>41001</v>
       </c>
       <c r="B14" t="n">
-        <v>133338</v>
+        <v>164165</v>
       </c>
       <c r="C14" t="s">
         <v>144</v>
@@ -3852,7 +3852,7 @@
         <v>41001</v>
       </c>
       <c r="B17" t="n">
-        <v>133339</v>
+        <v>164166</v>
       </c>
       <c r="C17" t="s">
         <v>166</v>
@@ -3990,7 +3990,7 @@
         <v>41001</v>
       </c>
       <c r="B19" t="n">
-        <v>133340</v>
+        <v>164167</v>
       </c>
       <c r="C19" t="s">
         <v>184</v>
@@ -4061,7 +4061,7 @@
         <v>41001</v>
       </c>
       <c r="B20" t="n">
-        <v>133341</v>
+        <v>164168</v>
       </c>
       <c r="C20" t="s">
         <v>190</v>
@@ -4126,7 +4126,7 @@
         <v>41001</v>
       </c>
       <c r="B21" t="n">
-        <v>133342</v>
+        <v>164169</v>
       </c>
       <c r="C21" t="s">
         <v>199</v>
@@ -4195,7 +4195,7 @@
         <v>41001</v>
       </c>
       <c r="B22" t="n">
-        <v>133343</v>
+        <v>164170</v>
       </c>
       <c r="C22" t="s">
         <v>209</v>
@@ -4266,7 +4266,7 @@
         <v>41001</v>
       </c>
       <c r="B23" t="n">
-        <v>133344</v>
+        <v>164171</v>
       </c>
       <c r="C23" t="s">
         <v>219</v>
@@ -4402,7 +4402,7 @@
         <v>41001</v>
       </c>
       <c r="B25" t="n">
-        <v>133345</v>
+        <v>164172</v>
       </c>
       <c r="C25" t="s">
         <v>239</v>
@@ -4471,7 +4471,7 @@
         <v>41001</v>
       </c>
       <c r="B26" t="n">
-        <v>133346</v>
+        <v>164173</v>
       </c>
       <c r="C26" t="s">
         <v>249</v>
@@ -4542,7 +4542,7 @@
         <v>41001</v>
       </c>
       <c r="B27" t="n">
-        <v>133347</v>
+        <v>164174</v>
       </c>
       <c r="C27" t="s">
         <v>259</v>
@@ -4613,7 +4613,7 @@
         <v>41001</v>
       </c>
       <c r="B28" t="n">
-        <v>133348</v>
+        <v>164175</v>
       </c>
       <c r="C28" t="s">
         <v>268</v>
@@ -4682,7 +4682,7 @@
         <v>41001</v>
       </c>
       <c r="B29" t="n">
-        <v>133349</v>
+        <v>164176</v>
       </c>
       <c r="C29" t="s">
         <v>277</v>
@@ -4753,7 +4753,7 @@
         <v>41001</v>
       </c>
       <c r="B30" t="n">
-        <v>133350</v>
+        <v>164177</v>
       </c>
       <c r="C30" t="s">
         <v>287</v>
@@ -4818,7 +4818,7 @@
         <v>41001</v>
       </c>
       <c r="B31" t="n">
-        <v>133351</v>
+        <v>164178</v>
       </c>
       <c r="C31" t="s">
         <v>297</v>
@@ -4879,7 +4879,7 @@
         <v>41001</v>
       </c>
       <c r="B32" t="n">
-        <v>133352</v>
+        <v>164179</v>
       </c>
       <c r="C32" t="s">
         <v>304</v>
@@ -5005,7 +5005,7 @@
         <v>41001</v>
       </c>
       <c r="B34" t="n">
-        <v>133353</v>
+        <v>164180</v>
       </c>
       <c r="C34" t="s">
         <v>317</v>
@@ -5072,7 +5072,7 @@
         <v>41001</v>
       </c>
       <c r="B35" t="n">
-        <v>133354</v>
+        <v>164181</v>
       </c>
       <c r="C35" t="s">
         <v>323</v>
@@ -5279,7 +5279,7 @@
         <v>41001</v>
       </c>
       <c r="B38" t="n">
-        <v>133355</v>
+        <v>164182</v>
       </c>
       <c r="C38" t="s">
         <v>351</v>
@@ -5344,7 +5344,7 @@
         <v>41001</v>
       </c>
       <c r="B39" t="n">
-        <v>133356</v>
+        <v>164183</v>
       </c>
       <c r="C39" t="s">
         <v>361</v>
@@ -5480,7 +5480,7 @@
         <v>41001</v>
       </c>
       <c r="B41" t="n">
-        <v>133357</v>
+        <v>164184</v>
       </c>
       <c r="C41" t="s">
         <v>377</v>
@@ -5551,7 +5551,7 @@
         <v>41001</v>
       </c>
       <c r="B42" t="n">
-        <v>133358</v>
+        <v>164185</v>
       </c>
       <c r="C42" t="s">
         <v>387</v>
@@ -5691,7 +5691,7 @@
         <v>41001</v>
       </c>
       <c r="B44" t="n">
-        <v>133359</v>
+        <v>164186</v>
       </c>
       <c r="C44" t="s">
         <v>406</v>
@@ -5829,7 +5829,7 @@
         <v>41001</v>
       </c>
       <c r="B46" t="n">
-        <v>133360</v>
+        <v>164187</v>
       </c>
       <c r="C46" t="s">
         <v>426</v>
@@ -5900,7 +5900,7 @@
         <v>41001</v>
       </c>
       <c r="B47" t="n">
-        <v>133361</v>
+        <v>164188</v>
       </c>
       <c r="C47" t="s">
         <v>435</v>
@@ -6172,7 +6172,7 @@
         <v>41001</v>
       </c>
       <c r="B51" t="n">
-        <v>133362</v>
+        <v>164189</v>
       </c>
       <c r="C51" t="s">
         <v>470</v>
@@ -6243,7 +6243,7 @@
         <v>41001</v>
       </c>
       <c r="B52" t="n">
-        <v>133363</v>
+        <v>164190</v>
       </c>
       <c r="C52" t="s">
         <v>480</v>
@@ -6379,7 +6379,7 @@
         <v>41001</v>
       </c>
       <c r="B54" t="n">
-        <v>133364</v>
+        <v>164191</v>
       </c>
       <c r="C54" t="s">
         <v>499</v>
@@ -6448,7 +6448,7 @@
         <v>41001</v>
       </c>
       <c r="B55" t="n">
-        <v>133365</v>
+        <v>164192</v>
       </c>
       <c r="C55" t="s">
         <v>509</v>
@@ -6519,7 +6519,7 @@
         <v>41001</v>
       </c>
       <c r="B56" t="n">
-        <v>133366</v>
+        <v>164193</v>
       </c>
       <c r="C56" t="s">
         <v>517</v>
@@ -6663,7 +6663,7 @@
         <v>41001</v>
       </c>
       <c r="B58" t="n">
-        <v>133367</v>
+        <v>164194</v>
       </c>
       <c r="C58" t="s">
         <v>537</v>
@@ -6728,7 +6728,7 @@
         <v>41001</v>
       </c>
       <c r="B59" t="n">
-        <v>133368</v>
+        <v>164195</v>
       </c>
       <c r="C59" t="s">
         <v>544</v>
@@ -7093,7 +7093,7 @@
         <v>41001</v>
       </c>
       <c r="B64" t="n">
-        <v>133369</v>
+        <v>164196</v>
       </c>
       <c r="C64" t="s">
         <v>591</v>
@@ -7164,7 +7164,7 @@
         <v>41001</v>
       </c>
       <c r="B65" t="n">
-        <v>133370</v>
+        <v>164197</v>
       </c>
       <c r="C65" t="s">
         <v>597</v>
@@ -7239,7 +7239,7 @@
         <v>41001</v>
       </c>
       <c r="B66" t="n">
-        <v>133371</v>
+        <v>164198</v>
       </c>
       <c r="C66" t="s">
         <v>607</v>
@@ -7314,7 +7314,7 @@
         <v>41001</v>
       </c>
       <c r="B67" t="n">
-        <v>133372</v>
+        <v>164199</v>
       </c>
       <c r="C67" t="s">
         <v>617</v>
@@ -7385,7 +7385,7 @@
         <v>41001</v>
       </c>
       <c r="B68" t="n">
-        <v>133373</v>
+        <v>164200</v>
       </c>
       <c r="C68" t="s">
         <v>626</v>
@@ -7456,7 +7456,7 @@
         <v>41001</v>
       </c>
       <c r="B69" t="n">
-        <v>133374</v>
+        <v>164201</v>
       </c>
       <c r="C69" t="s">
         <v>636</v>
@@ -7527,7 +7527,7 @@
         <v>41001</v>
       </c>
       <c r="B70" t="n">
-        <v>133375</v>
+        <v>164202</v>
       </c>
       <c r="C70" t="s">
         <v>643</v>
@@ -7598,7 +7598,7 @@
         <v>41001</v>
       </c>
       <c r="B71" t="n">
-        <v>133376</v>
+        <v>164203</v>
       </c>
       <c r="C71" t="s">
         <v>652</v>
@@ -7669,7 +7669,7 @@
         <v>41001</v>
       </c>
       <c r="B72" t="n">
-        <v>133377</v>
+        <v>164204</v>
       </c>
       <c r="C72" t="s">
         <v>659</v>
@@ -7886,7 +7886,7 @@
         <v>41001</v>
       </c>
       <c r="B75" t="n">
-        <v>133378</v>
+        <v>164205</v>
       </c>
       <c r="C75" t="s">
         <v>683</v>
@@ -8099,7 +8099,7 @@
         <v>41001</v>
       </c>
       <c r="B78" t="n">
-        <v>133379</v>
+        <v>164206</v>
       </c>
       <c r="C78" t="s">
         <v>704</v>
@@ -8174,7 +8174,7 @@
         <v>41001</v>
       </c>
       <c r="B79" t="n">
-        <v>133380</v>
+        <v>164207</v>
       </c>
       <c r="C79" t="s">
         <v>714</v>
@@ -8247,7 +8247,7 @@
         <v>41001</v>
       </c>
       <c r="B80" t="n">
-        <v>133381</v>
+        <v>164208</v>
       </c>
       <c r="C80" t="s">
         <v>722</v>
@@ -8322,7 +8322,7 @@
         <v>41001</v>
       </c>
       <c r="B81" t="n">
-        <v>133382</v>
+        <v>164209</v>
       </c>
       <c r="C81" t="s">
         <v>730</v>
@@ -8397,7 +8397,7 @@
         <v>41001</v>
       </c>
       <c r="B82" t="n">
-        <v>133383</v>
+        <v>164210</v>
       </c>
       <c r="C82" t="s">
         <v>738</v>
@@ -8468,7 +8468,7 @@
         <v>41001</v>
       </c>
       <c r="B83" t="n">
-        <v>133384</v>
+        <v>164211</v>
       </c>
       <c r="C83" t="s">
         <v>745</v>
@@ -8539,7 +8539,7 @@
         <v>41001</v>
       </c>
       <c r="B84" t="n">
-        <v>133385</v>
+        <v>164212</v>
       </c>
       <c r="C84" t="s">
         <v>753</v>
